--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1C263-75A9-4E12-AB0B-91484673DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A257F3-CE11-4AEB-8EFE-CF927992E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="427">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,19 +945,6 @@
   <si>
     <t>https://www.mcmod.cn/class/13181.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No Tree Punching</t>
-  </si>
-  <si>
-    <t>无树可撸</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/2138.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模组增加了玩家生存的难度。</t>
   </si>
   <si>
     <t>NoShade</t>
@@ -2021,10 +2008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B79" sqref="A79:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2073,14 +2060,14 @@
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2101,46 +2088,46 @@
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2228,14 +2215,14 @@
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2256,16 +2243,16 @@
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2286,14 +2273,14 @@
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2312,16 +2299,16 @@
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2336,7 +2323,7 @@
         <v>190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2357,42 +2344,42 @@
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
       <c r="B23" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
       <c r="B25" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2441,16 +2428,16 @@
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A29" s="22"/>
       <c r="B29" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2519,7 +2506,7 @@
         <v>257</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2564,14 +2551,14 @@
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A38" s="22"/>
       <c r="B38" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2620,29 +2607,29 @@
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A42" s="22"/>
       <c r="B42" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A43" s="22"/>
       <c r="B43" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2661,29 +2648,29 @@
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A45" s="22"/>
       <c r="B45" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A46" s="22"/>
       <c r="B46" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2702,27 +2689,27 @@
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A48" s="22"/>
       <c r="B48" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A49" s="22"/>
       <c r="B49" s="8" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2771,14 +2758,14 @@
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="23"/>
       <c r="B53" s="15" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="16" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2797,14 +2784,14 @@
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="23"/>
       <c r="B55" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="16" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2817,7 +2804,7 @@
         <v>215</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2849,14 +2836,14 @@
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="23"/>
       <c r="B59" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2949,7 +2936,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2970,29 +2957,29 @@
     <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="24"/>
       <c r="B68" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="24"/>
       <c r="B69" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3026,31 +3013,31 @@
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="25"/>
       <c r="B72" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="25"/>
       <c r="B73" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3084,16 +3071,16 @@
     <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="26"/>
       <c r="B76" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3114,806 +3101,790 @@
     <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="26"/>
       <c r="B78" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="26"/>
       <c r="B79" s="3" t="s">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>269</v>
+        <v>82</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>271</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="26"/>
+      <c r="A80" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="B80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C80" s="3"/>
       <c r="D80" s="6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="A81" s="19"/>
       <c r="B81" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C81" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="D81" s="6" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>110</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
       <c r="B82" s="3" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
-      <c r="B83" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="B83" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="3"/>
       <c r="D83" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>368</v>
+        <v>273</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
-      <c r="B84" s="7" t="s">
-        <v>275</v>
+      <c r="B84" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>276</v>
+      <c r="D84" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
-      <c r="B85" s="12" t="s">
-        <v>407</v>
+      <c r="B85" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="13" t="s">
-        <v>408</v>
+      <c r="D85" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
-      <c r="B86" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" s="3"/>
+      <c r="B86" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D86" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="19"/>
       <c r="B87" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="19"/>
       <c r="B88" s="10" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="19"/>
-      <c r="B89" s="10" t="s">
-        <v>332</v>
+      <c r="B89" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>333</v>
+        <v>144</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>334</v>
+        <v>145</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="19"/>
       <c r="B90" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C90" s="3"/>
       <c r="D90" s="6" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="19"/>
       <c r="B91" s="3" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="6" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="19"/>
-      <c r="B92" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C92" s="3"/>
+      <c r="B92" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D92" s="6" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C93" s="3"/>
       <c r="D93" s="6" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="19"/>
       <c r="B94" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C94" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="D94" s="6" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="19"/>
       <c r="B95" s="10" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>320</v>
+        <v>259</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="19"/>
       <c r="B96" s="10" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="19"/>
       <c r="B97" s="10" t="s">
-        <v>305</v>
+        <v>207</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>308</v>
+        <v>209</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="19"/>
       <c r="B98" s="10" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>210</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="19"/>
-      <c r="B99" s="10" t="s">
-        <v>358</v>
+      <c r="B99" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>359</v>
+        <v>147</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="19"/>
       <c r="B100" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C100" s="3"/>
       <c r="D100" s="6" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>430</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="19"/>
       <c r="B101" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="19"/>
+      <c r="A102" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="B102" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="A103" s="20"/>
       <c r="B103" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>26</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="20"/>
       <c r="B104" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>429</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="20"/>
       <c r="B105" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="20"/>
       <c r="B106" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="20"/>
       <c r="B107" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="20"/>
       <c r="B108" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>428</v>
+        <v>95</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="20"/>
       <c r="B109" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>96</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="20"/>
       <c r="B110" s="3" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="6" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="20"/>
       <c r="B111" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="20"/>
       <c r="B112" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="6" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>425</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="20"/>
       <c r="B113" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="6" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="20"/>
       <c r="B114" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="20"/>
       <c r="B115" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="20"/>
       <c r="B116" s="3" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="6" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="20"/>
       <c r="B117" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="20"/>
       <c r="B118" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="6" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>424</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="20"/>
       <c r="B119" s="3" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="6" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="20"/>
       <c r="B120" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E120" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="20"/>
       <c r="B121" s="3" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="6" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A122" s="20"/>
       <c r="B122" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C122" s="3"/>
+        <v>317</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="D122" s="6" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>404</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="20"/>
+      <c r="A123" s="21" t="s">
+        <v>343</v>
+      </c>
       <c r="B123" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>322</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C123" s="3"/>
       <c r="D123" s="6" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="21" t="s">
-        <v>347</v>
-      </c>
+      <c r="A124" s="21"/>
       <c r="B124" s="3" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="6" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="21"/>
-      <c r="B125" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A81:A102"/>
-    <mergeCell ref="A103:A123"/>
-    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A80:A101"/>
+    <mergeCell ref="A102:A122"/>
+    <mergeCell ref="A123:A124"/>
     <mergeCell ref="A2:A51"/>
     <mergeCell ref="A52:A66"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A75:A80"/>
+    <mergeCell ref="A75:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D102" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D101" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D52" r:id="rId4" xr:uid="{4805E29B-CA2B-4FB8-AD24-2F3B5DFD6CC0}"/>
     <hyperlink ref="D8" r:id="rId5" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
     <hyperlink ref="D64" r:id="rId6" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
     <hyperlink ref="D75" r:id="rId7" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
     <hyperlink ref="D51" r:id="rId8" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D103" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D102" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D10" r:id="rId10" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
     <hyperlink ref="D9" r:id="rId11" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D12" r:id="rId12" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
     <hyperlink ref="D30" r:id="rId13" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D104" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D103" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D13" r:id="rId15" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
     <hyperlink ref="D70" r:id="rId16" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
     <hyperlink ref="D67" r:id="rId17" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
-    <hyperlink ref="D105" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
+    <hyperlink ref="D104" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
     <hyperlink ref="D11" r:id="rId19" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId20" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D106" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D80" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D107" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D105" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D79" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D106" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId24" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D108" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E108" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D109" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D110" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D107" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E107" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D108" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D109" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
     <hyperlink ref="D66" r:id="rId29" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId30" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
     <hyperlink ref="D62" r:id="rId31" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D81" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D80" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
     <hyperlink ref="D40" r:id="rId33" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
     <hyperlink ref="D77" r:id="rId34" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D26" r:id="rId35" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId36" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
     <hyperlink ref="D61" r:id="rId37" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D86" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D87" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D88" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D101" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D90" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D100" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D85" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D86" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D87" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D100" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D89" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D99" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
     <hyperlink ref="D36" r:id="rId44" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D27" r:id="rId45" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D111" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D112" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D110" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D111" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
     <hyperlink ref="D71" r:id="rId48" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D93" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D92" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
     <hyperlink ref="D74" r:id="rId50" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
     <hyperlink ref="D31" r:id="rId51" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
     <hyperlink ref="D63" r:id="rId52" xr:uid="{3E0D4AF6-451D-45C2-9CA9-2E5599015BE8}"/>
     <hyperlink ref="D65" r:id="rId53" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D28" r:id="rId54" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D113" r:id="rId55" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D112" r:id="rId55" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
     <hyperlink ref="D21" r:id="rId56" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
     <hyperlink ref="D33" r:id="rId57" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
     <hyperlink ref="D35" r:id="rId58" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D114" r:id="rId59" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D115" r:id="rId60" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D116" r:id="rId61" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D98" r:id="rId62" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D113" r:id="rId59" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D114" r:id="rId60" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D115" r:id="rId61" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D97" r:id="rId62" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
     <hyperlink ref="D54" r:id="rId63" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
     <hyperlink ref="D56" r:id="rId64" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D92" r:id="rId65" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D91" r:id="rId65" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
     <hyperlink ref="D41" r:id="rId66" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
     <hyperlink ref="D32" r:id="rId67" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
     <hyperlink ref="D57" r:id="rId68" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
     <hyperlink ref="D60" r:id="rId69" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D94" r:id="rId70" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D117" r:id="rId71" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D118" r:id="rId72" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D93" r:id="rId70" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D116" r:id="rId71" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D117" r:id="rId72" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
     <hyperlink ref="D44" r:id="rId73" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D91" r:id="rId74" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D119" r:id="rId75" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
+    <hyperlink ref="D90" r:id="rId74" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D118" r:id="rId75" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
     <hyperlink ref="D58" r:id="rId76" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
     <hyperlink ref="D34" r:id="rId77" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D96" r:id="rId78" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D95" r:id="rId78" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
     <hyperlink ref="D37" r:id="rId79" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
     <hyperlink ref="D50" r:id="rId80" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
-    <hyperlink ref="D79" r:id="rId81" xr:uid="{708DBE68-0007-4325-85E5-705BA65B4179}"/>
-    <hyperlink ref="D46" r:id="rId82" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
-    <hyperlink ref="D49" r:id="rId84" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
-    <hyperlink ref="E49" r:id="rId85" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D120" r:id="rId86" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D121" r:id="rId87" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
-    <hyperlink ref="D25" r:id="rId88" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
-    <hyperlink ref="D24" r:id="rId89" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
-    <hyperlink ref="D20" r:id="rId90" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D59" r:id="rId91" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
-    <hyperlink ref="D38" r:id="rId92" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D122" r:id="rId93" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D97" r:id="rId94" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
-    <hyperlink ref="D29" r:id="rId95" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D72" r:id="rId96" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D95" r:id="rId97" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D123" r:id="rId98" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D82" r:id="rId99" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
-    <hyperlink ref="D23" r:id="rId100" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D89" r:id="rId101" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D68" r:id="rId102" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D69" r:id="rId103" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D73" r:id="rId104" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D124" r:id="rId105" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
-    <hyperlink ref="D7" r:id="rId106" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D14" r:id="rId107" xr:uid="{4E5DD223-6A2D-4922-B481-C18D24E6D388}"/>
-    <hyperlink ref="D99" r:id="rId108" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
-    <hyperlink ref="D45" r:id="rId109" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D83" r:id="rId110" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D78" r:id="rId111" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
-    <hyperlink ref="D43" r:id="rId112" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
-    <hyperlink ref="D42" r:id="rId113" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
-    <hyperlink ref="D48" r:id="rId114" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
-    <hyperlink ref="D5" r:id="rId115" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
-    <hyperlink ref="D6" r:id="rId116" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
-    <hyperlink ref="D18" r:id="rId117" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
-    <hyperlink ref="D16" r:id="rId118" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D125" r:id="rId119" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D85" r:id="rId120" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D76" r:id="rId121" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D55" r:id="rId122" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
-    <hyperlink ref="D3" r:id="rId123" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
-    <hyperlink ref="D53" r:id="rId124" xr:uid="{220DAA3B-F967-4F97-AE24-9C112849C404}"/>
+    <hyperlink ref="D46" r:id="rId81" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D49" r:id="rId83" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
+    <hyperlink ref="E49" r:id="rId84" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
+    <hyperlink ref="D119" r:id="rId85" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D120" r:id="rId86" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D25" r:id="rId87" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
+    <hyperlink ref="D24" r:id="rId88" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
+    <hyperlink ref="D20" r:id="rId89" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
+    <hyperlink ref="D59" r:id="rId90" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D38" r:id="rId91" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
+    <hyperlink ref="D121" r:id="rId92" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D96" r:id="rId93" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D29" r:id="rId94" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
+    <hyperlink ref="D72" r:id="rId95" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D94" r:id="rId96" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D122" r:id="rId97" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D81" r:id="rId98" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D23" r:id="rId99" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
+    <hyperlink ref="D88" r:id="rId100" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D68" r:id="rId101" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D69" r:id="rId102" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D73" r:id="rId103" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D123" r:id="rId104" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D7" r:id="rId105" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
+    <hyperlink ref="D14" r:id="rId106" xr:uid="{4E5DD223-6A2D-4922-B481-C18D24E6D388}"/>
+    <hyperlink ref="D98" r:id="rId107" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D45" r:id="rId108" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
+    <hyperlink ref="D82" r:id="rId109" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D78" r:id="rId110" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D43" r:id="rId111" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
+    <hyperlink ref="D42" r:id="rId112" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
+    <hyperlink ref="D48" r:id="rId113" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
+    <hyperlink ref="D5" r:id="rId114" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
+    <hyperlink ref="D6" r:id="rId115" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
+    <hyperlink ref="D18" r:id="rId116" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
+    <hyperlink ref="D16" r:id="rId117" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
+    <hyperlink ref="D124" r:id="rId118" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D84" r:id="rId119" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D76" r:id="rId120" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D55" r:id="rId121" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D3" r:id="rId122" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
+    <hyperlink ref="D53" r:id="rId123" xr:uid="{220DAA3B-F967-4F97-AE24-9C112849C404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId124"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A257F3-CE11-4AEB-8EFE-CF927992E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29F629-EA23-408B-8933-5B74A9BEC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="424">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1452,16 +1452,6 @@
   </si>
   <si>
     <t>为整合包作者们添加默认配置文件。</t>
-  </si>
-  <si>
-    <t>PackMode</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/3087.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该模组为整合包添加了“模式”字段。整合包根据所设模式的不同，只加载作者指定的CraftTweaker脚本和数据包。</t>
   </si>
   <si>
     <t>兼具 1.14+ 的全局数据包和 资源加载 的功能。</t>
@@ -2008,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="A79:XFD79"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2699,7 @@
         <v>275</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -2757,1119 +2747,1106 @@
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A53" s="23"/>
-      <c r="B53" s="15" t="s">
-        <v>416</v>
+      <c r="B53" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>418</v>
+      <c r="D53" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="23"/>
       <c r="B54" s="3" t="s">
-        <v>211</v>
+        <v>410</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="6" t="s">
-        <v>212</v>
+      <c r="D54" s="16" t="s">
+        <v>412</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>213</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A55" s="23"/>
       <c r="B55" s="3" t="s">
-        <v>410</v>
+        <v>214</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="16" t="s">
-        <v>412</v>
+      <c r="D55" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A56" s="23"/>
       <c r="B56" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>395</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A57" s="23"/>
       <c r="B57" s="3" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="6" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A58" s="23"/>
       <c r="B58" s="3" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="6" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A59" s="23"/>
       <c r="B59" s="3" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>294</v>
+        <v>231</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A60" s="23"/>
       <c r="B60" s="3" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>230</v>
+        <v>128</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A61" s="23"/>
-      <c r="B61" s="3" t="s">
-        <v>127</v>
+      <c r="B61" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="6" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="23"/>
       <c r="B62" s="10" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A63" s="23"/>
-      <c r="B63" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D63" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>175</v>
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A64" s="23"/>
       <c r="B64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="6" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A65" s="23"/>
       <c r="B65" s="3" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="6" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>178</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="23"/>
+      <c r="A66" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="B66" s="3" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="6" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>402</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="24" t="s">
-        <v>64</v>
-      </c>
+      <c r="A67" s="24"/>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="6" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="24"/>
       <c r="B68" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C68" s="3"/>
+        <v>335</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="D68" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="24"/>
+      <c r="A69" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="B69" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>336</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C69" s="3"/>
       <c r="D69" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>338</v>
+        <v>62</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="25" t="s">
-        <v>60</v>
-      </c>
+      <c r="A70" s="25"/>
       <c r="B70" s="3" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>63</v>
+        <v>161</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="25"/>
       <c r="B71" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C71" s="3"/>
+        <v>309</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="D71" s="6" t="s">
-        <v>161</v>
+        <v>311</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>162</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="25"/>
       <c r="B72" s="3" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="25"/>
       <c r="B73" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>340</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C73" s="3"/>
       <c r="D73" s="6" t="s">
-        <v>341</v>
+        <v>168</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>342</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="25"/>
-      <c r="B74" s="3" t="s">
-        <v>167</v>
+      <c r="A74" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="6" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>36</v>
+      <c r="A75" s="26"/>
+      <c r="B75" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="26"/>
-      <c r="B76" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>409</v>
+      <c r="B76" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="26"/>
       <c r="B77" s="10" t="s">
-        <v>116</v>
+        <v>365</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>117</v>
+        <v>366</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>119</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="26"/>
-      <c r="B78" s="10" t="s">
-        <v>365</v>
+      <c r="B78" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>366</v>
+        <v>82</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>367</v>
+        <v>83</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>368</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="26"/>
+      <c r="A79" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="B79" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C79" s="3"/>
       <c r="D79" s="6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="19" t="s">
-        <v>108</v>
-      </c>
+      <c r="A80" s="19"/>
       <c r="B80" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="D80" s="6" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>110</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
       <c r="B81" s="3" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
-      <c r="B82" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="B82" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C82" s="3"/>
       <c r="D82" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>364</v>
+        <v>273</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
-      <c r="B83" s="7" t="s">
-        <v>271</v>
+      <c r="B83" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>272</v>
+      <c r="D83" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
-      <c r="B84" s="12" t="s">
-        <v>403</v>
+      <c r="B84" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="13" t="s">
-        <v>404</v>
+      <c r="D84" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>405</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
-      <c r="B85" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" s="3"/>
+      <c r="B85" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D85" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
       <c r="B86" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="19"/>
       <c r="B87" s="10" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>139</v>
+        <v>329</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>140</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A88" s="19"/>
-      <c r="B88" s="10" t="s">
-        <v>328</v>
+      <c r="B88" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>331</v>
+        <v>143</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>330</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="19"/>
       <c r="B89" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="6" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="19"/>
       <c r="B90" s="3" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="6" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="19"/>
-      <c r="B91" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C91" s="3"/>
+      <c r="B91" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D91" s="6" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="19"/>
       <c r="B92" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C92" s="3"/>
       <c r="D92" s="6" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="19"/>
       <c r="B93" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="D93" s="6" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>234</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="19"/>
       <c r="B94" s="10" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>316</v>
+        <v>259</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="19"/>
       <c r="B95" s="10" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="19"/>
       <c r="B96" s="10" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>304</v>
+        <v>209</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="19"/>
       <c r="B97" s="10" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>210</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="19"/>
-      <c r="B98" s="10" t="s">
-        <v>354</v>
+      <c r="B98" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>355</v>
+        <v>147</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>356</v>
+        <v>148</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="19"/>
       <c r="B99" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C99" s="3"/>
       <c r="D99" s="6" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>426</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="19"/>
       <c r="B100" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="B101" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="A102" s="20"/>
       <c r="B102" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>26</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="20"/>
       <c r="B103" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>425</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="20"/>
       <c r="B104" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="20"/>
       <c r="B105" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="20"/>
       <c r="B106" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="20"/>
       <c r="B107" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>424</v>
+        <v>95</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="20"/>
       <c r="B108" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>96</v>
+        <v>420</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="20"/>
       <c r="B109" s="3" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="20"/>
       <c r="B110" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="20"/>
       <c r="B111" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="6" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>421</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="20"/>
       <c r="B112" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="6" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="20"/>
       <c r="B113" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="20"/>
       <c r="B114" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="20"/>
       <c r="B115" s="3" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="6" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="20"/>
       <c r="B116" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>236</v>
+        <v>417</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="20"/>
       <c r="B117" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="6" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>420</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="20"/>
       <c r="B118" s="3" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="6" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="20"/>
       <c r="B119" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="20"/>
       <c r="B120" s="3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="6" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>281</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="20"/>
       <c r="B121" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C121" s="3"/>
+        <v>317</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="D121" s="6" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="20"/>
+      <c r="A122" s="21" t="s">
+        <v>343</v>
+      </c>
       <c r="B122" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>318</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C122" s="3"/>
       <c r="D122" s="6" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>320</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="21" t="s">
-        <v>343</v>
-      </c>
+      <c r="A123" s="21"/>
       <c r="B123" s="3" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="6" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="21"/>
-      <c r="B124" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E124" s="7" t="s">
         <v>394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A80:A101"/>
-    <mergeCell ref="A102:A122"/>
-    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A79:A100"/>
+    <mergeCell ref="A101:A121"/>
+    <mergeCell ref="A122:A123"/>
     <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A52:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A73"/>
+    <mergeCell ref="A74:A78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D101" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D100" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D52" r:id="rId4" xr:uid="{4805E29B-CA2B-4FB8-AD24-2F3B5DFD6CC0}"/>
     <hyperlink ref="D8" r:id="rId5" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D64" r:id="rId6" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D75" r:id="rId7" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D63" r:id="rId6" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D74" r:id="rId7" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
     <hyperlink ref="D51" r:id="rId8" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D102" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D101" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D10" r:id="rId10" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
     <hyperlink ref="D9" r:id="rId11" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D12" r:id="rId12" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
     <hyperlink ref="D30" r:id="rId13" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D103" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D102" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D13" r:id="rId15" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D70" r:id="rId16" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D67" r:id="rId17" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
-    <hyperlink ref="D104" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
+    <hyperlink ref="D69" r:id="rId16" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D66" r:id="rId17" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
+    <hyperlink ref="D103" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
     <hyperlink ref="D11" r:id="rId19" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId20" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D105" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D79" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D106" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D104" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D78" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D105" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId24" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D107" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E107" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D108" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D109" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D66" r:id="rId29" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D106" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E106" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D107" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D108" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D65" r:id="rId29" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId30" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D62" r:id="rId31" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D80" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D61" r:id="rId31" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D79" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
     <hyperlink ref="D40" r:id="rId33" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D77" r:id="rId34" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D76" r:id="rId34" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D26" r:id="rId35" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId36" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D61" r:id="rId37" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D85" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D86" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D87" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D100" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D89" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D99" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D60" r:id="rId37" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D84" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D85" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D86" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D99" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D88" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D98" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
     <hyperlink ref="D36" r:id="rId44" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D27" r:id="rId45" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D110" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D111" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D71" r:id="rId48" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D92" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D74" r:id="rId50" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D109" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D110" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D70" r:id="rId48" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D91" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D73" r:id="rId50" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
     <hyperlink ref="D31" r:id="rId51" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D63" r:id="rId52" xr:uid="{3E0D4AF6-451D-45C2-9CA9-2E5599015BE8}"/>
-    <hyperlink ref="D65" r:id="rId53" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D62" r:id="rId52" xr:uid="{3E0D4AF6-451D-45C2-9CA9-2E5599015BE8}"/>
+    <hyperlink ref="D64" r:id="rId53" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D28" r:id="rId54" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D112" r:id="rId55" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D111" r:id="rId55" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
     <hyperlink ref="D21" r:id="rId56" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
     <hyperlink ref="D33" r:id="rId57" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
     <hyperlink ref="D35" r:id="rId58" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D113" r:id="rId59" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D114" r:id="rId60" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D115" r:id="rId61" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D97" r:id="rId62" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
-    <hyperlink ref="D54" r:id="rId63" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
-    <hyperlink ref="D56" r:id="rId64" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D91" r:id="rId65" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D112" r:id="rId59" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D113" r:id="rId60" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D114" r:id="rId61" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D96" r:id="rId62" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D53" r:id="rId63" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
+    <hyperlink ref="D55" r:id="rId64" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
+    <hyperlink ref="D90" r:id="rId65" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
     <hyperlink ref="D41" r:id="rId66" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
     <hyperlink ref="D32" r:id="rId67" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
-    <hyperlink ref="D57" r:id="rId68" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
-    <hyperlink ref="D60" r:id="rId69" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D93" r:id="rId70" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D116" r:id="rId71" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D117" r:id="rId72" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D56" r:id="rId68" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
+    <hyperlink ref="D59" r:id="rId69" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
+    <hyperlink ref="D92" r:id="rId70" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D115" r:id="rId71" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D116" r:id="rId72" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
     <hyperlink ref="D44" r:id="rId73" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D90" r:id="rId74" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D118" r:id="rId75" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
-    <hyperlink ref="D58" r:id="rId76" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
+    <hyperlink ref="D89" r:id="rId74" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D117" r:id="rId75" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
+    <hyperlink ref="D57" r:id="rId76" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
     <hyperlink ref="D34" r:id="rId77" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D95" r:id="rId78" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D94" r:id="rId78" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
     <hyperlink ref="D37" r:id="rId79" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
     <hyperlink ref="D50" r:id="rId80" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
     <hyperlink ref="D46" r:id="rId81" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D82" r:id="rId82" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
     <hyperlink ref="D49" r:id="rId83" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
     <hyperlink ref="E49" r:id="rId84" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D119" r:id="rId85" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D120" r:id="rId86" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D118" r:id="rId85" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D119" r:id="rId86" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
     <hyperlink ref="D25" r:id="rId87" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
     <hyperlink ref="D24" r:id="rId88" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
     <hyperlink ref="D20" r:id="rId89" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D59" r:id="rId90" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D58" r:id="rId90" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
     <hyperlink ref="D38" r:id="rId91" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D121" r:id="rId92" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D96" r:id="rId93" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D120" r:id="rId92" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D95" r:id="rId93" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
     <hyperlink ref="D29" r:id="rId94" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D72" r:id="rId95" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D94" r:id="rId96" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D122" r:id="rId97" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D81" r:id="rId98" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D71" r:id="rId95" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D93" r:id="rId96" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D121" r:id="rId97" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D80" r:id="rId98" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
     <hyperlink ref="D23" r:id="rId99" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D88" r:id="rId100" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D68" r:id="rId101" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D69" r:id="rId102" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D73" r:id="rId103" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D123" r:id="rId104" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D87" r:id="rId100" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D67" r:id="rId101" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D68" r:id="rId102" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D72" r:id="rId103" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D122" r:id="rId104" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
     <hyperlink ref="D7" r:id="rId105" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
     <hyperlink ref="D14" r:id="rId106" xr:uid="{4E5DD223-6A2D-4922-B481-C18D24E6D388}"/>
-    <hyperlink ref="D98" r:id="rId107" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D97" r:id="rId107" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
     <hyperlink ref="D45" r:id="rId108" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D82" r:id="rId109" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D78" r:id="rId110" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D81" r:id="rId109" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D77" r:id="rId110" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
     <hyperlink ref="D43" r:id="rId111" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
     <hyperlink ref="D42" r:id="rId112" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
     <hyperlink ref="D48" r:id="rId113" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
@@ -3877,14 +3854,13 @@
     <hyperlink ref="D6" r:id="rId115" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
     <hyperlink ref="D18" r:id="rId116" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
     <hyperlink ref="D16" r:id="rId117" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D124" r:id="rId118" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D84" r:id="rId119" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D76" r:id="rId120" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D55" r:id="rId121" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D123" r:id="rId118" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D83" r:id="rId119" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D75" r:id="rId120" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D54" r:id="rId121" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
     <hyperlink ref="D3" r:id="rId122" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
-    <hyperlink ref="D53" r:id="rId123" xr:uid="{220DAA3B-F967-4F97-AE24-9C112849C404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId124"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D29F629-EA23-408B-8933-5B74A9BEC58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C028BA29-A4C0-4172-9736-38D71549CD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="442">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1482,6 +1482,70 @@
   </si>
   <si>
     <t>铁氧体磁芯是一个支持 Forge/Fabric/Quilt 的优化 Mod，它可以以几种不同的优化方式减少内存占用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advancement JS</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/13137.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一个直接对服务端进度进行操作的 KubeJS 拓展。</t>
+  </si>
+  <si>
+    <t>Better Hurt Timer</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/8399.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个模组修改了原版的一系列战斗机制</t>
+  </si>
+  <si>
+    <t>Harvest Level Tweaker</t>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/mc-mods/harvest-level-tweaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityJS</t>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/mc-mods/entityjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualJS</t>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/mc-mods/visualjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisualJS 是一个 mod，它允许你通过着色器为游戏添加效果（所以强烈建议你阅读 GLSL），以 KubeJS 可配置的动态方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loquat</t>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/mc-mods/loquat-forge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枇杷是 Minecraft 地图制作者的区域管理模组。您可以利用 Minecraft 的结构模板系统和数据驱动的世界生成，以及 Loquat 中的增强和可编写脚本的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个 Minecraft Forge模组，允许模组包制作者使用自定义名称和颜色添加新的收获关卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 JavaScript 轻松注册自定义实体并定义其属性和行为。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1543,14 +1607,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="微软雅黑"/>
@@ -1572,6 +1628,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1630,7 +1692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1653,41 +1715,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,6 +1775,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1998,10 +2066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2009,7 +2077,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="39.21875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="64.5546875" customWidth="1"/>
     <col min="5" max="5" width="177.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2026,1841 +2094,1925 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="22"/>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="14"/>
+      <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="22"/>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A15" s="14"/>
+      <c r="B15" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="6" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="14"/>
+      <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="14"/>
+      <c r="B17" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="14"/>
+      <c r="B18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="14"/>
+      <c r="B19" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="6" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="14"/>
+      <c r="B20" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="6" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="22"/>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="14"/>
+      <c r="B21" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="22"/>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="14"/>
+      <c r="B22" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="22"/>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E23" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="22"/>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="14"/>
+      <c r="B24" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="14"/>
+      <c r="B26" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="22"/>
-      <c r="B25" s="3" t="s">
+    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C27" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="22"/>
-      <c r="B26" s="3" t="s">
+    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="14"/>
+      <c r="B28" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C28" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E28" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="3" t="s">
+    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="14"/>
+      <c r="B29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="3" t="s">
+    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+      <c r="B30" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="3" t="s">
+    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="14"/>
+      <c r="B31" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="3" t="s">
+    <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A32" s="14"/>
+      <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="6" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E32" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="22"/>
-      <c r="B31" s="3" t="s">
+    <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="14"/>
+      <c r="B33" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="6" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="3" t="s">
+    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A34" s="14"/>
+      <c r="B34" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="6" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E34" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="22"/>
-      <c r="B33" s="3" t="s">
+    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A35" s="14"/>
+      <c r="B35" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="22"/>
-      <c r="B34" s="3" t="s">
+    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A36" s="14"/>
+      <c r="B36" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="22"/>
-      <c r="B35" s="3" t="s">
+    <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A37" s="14"/>
+      <c r="B37" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="6" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E37" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="22"/>
-      <c r="B36" s="3" t="s">
+    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="6" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="22"/>
-      <c r="B37" s="3" t="s">
+    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="6" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="22"/>
-      <c r="B38" s="3" t="s">
+    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="6" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="22"/>
-      <c r="B39" s="3" t="s">
+    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="6" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="22"/>
-      <c r="B40" s="3" t="s">
+    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C42" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E42" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="22"/>
-      <c r="B41" s="3" t="s">
+    <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C43" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="22"/>
-      <c r="B42" s="3" t="s">
+    <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="6" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="22"/>
-      <c r="B43" s="3" t="s">
+    <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="14"/>
+      <c r="B45" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D45" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="22"/>
-      <c r="B44" s="3" t="s">
+    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="14"/>
+      <c r="B46" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="6" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E46" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="22"/>
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="14"/>
+      <c r="B47" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D47" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E47" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="22"/>
-      <c r="B46" s="3" t="s">
+    <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="6" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="22"/>
-      <c r="B47" s="8" t="s">
+    <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A49" s="14"/>
+      <c r="B49" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="6" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="22"/>
-      <c r="B48" s="3" t="s">
+    <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="6" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E50" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="22"/>
-      <c r="B49" s="8" t="s">
+    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A51" s="14"/>
+      <c r="B51" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="6" t="s">
+      <c r="C51" s="21"/>
+      <c r="D51" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E51" s="7" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="22"/>
-      <c r="B50" s="3" t="s">
+    <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="14"/>
+      <c r="B52" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="6" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E52" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="22"/>
-      <c r="B51" s="3" t="s">
+    <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="14"/>
+      <c r="B53" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C53" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D53" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="23" t="s">
+    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="6" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="23"/>
-      <c r="B53" s="3" t="s">
+    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A55" s="15"/>
+      <c r="B55" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="6" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="23"/>
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A57" s="15"/>
+      <c r="B57" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="16" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E57" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="23"/>
-      <c r="B55" s="3" t="s">
+    <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="15"/>
+      <c r="B58" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A59" s="15"/>
+      <c r="B59" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A60" s="15"/>
+      <c r="B60" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A61" s="15"/>
+      <c r="B61" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A62" s="15"/>
+      <c r="B62" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="6" t="s">
+      <c r="C62" s="21"/>
+      <c r="D62" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E62" s="4" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="23"/>
-      <c r="B56" s="3" t="s">
+    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A63" s="15"/>
+      <c r="B63" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="6" t="s">
+      <c r="C63" s="21"/>
+      <c r="D63" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E63" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="23"/>
-      <c r="B57" s="3" t="s">
+    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A64" s="15"/>
+      <c r="B64" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="6" t="s">
+      <c r="C64" s="21"/>
+      <c r="D64" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E64" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="23"/>
-      <c r="B58" s="3" t="s">
+    <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A65" s="15"/>
+      <c r="B65" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="6" t="s">
+      <c r="C65" s="21"/>
+      <c r="D65" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E65" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="23"/>
-      <c r="B59" s="3" t="s">
+    <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A66" s="15"/>
+      <c r="B66" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="6" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E66" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="23"/>
-      <c r="B60" s="3" t="s">
+    <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="6" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E67" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="23"/>
-      <c r="B61" s="10" t="s">
+    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="15"/>
+      <c r="B68" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="6" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E68" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="23"/>
-      <c r="B62" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="23"/>
-      <c r="B63" s="3" t="s">
+    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="15"/>
+      <c r="B69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C69" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D69" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E69" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="23"/>
-      <c r="B64" s="3" t="s">
+    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A70" s="15"/>
+      <c r="B70" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="6" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E70" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="23"/>
-      <c r="B65" s="3" t="s">
+    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A71" s="15"/>
+      <c r="B71" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="6" t="s">
+      <c r="C71" s="21"/>
+      <c r="D71" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E71" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="24" t="s">
+    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A72" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="6" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E72" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="24"/>
-      <c r="B67" s="3" t="s">
+    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A73" s="16"/>
+      <c r="B73" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="6" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E73" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="24"/>
-      <c r="B68" s="3" t="s">
+    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A74" s="16"/>
+      <c r="B74" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C74" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D74" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E74" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="25" t="s">
+    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A75" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="6" t="s">
+      <c r="C75" s="21"/>
+      <c r="D75" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E75" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="25"/>
-      <c r="B70" s="3" t="s">
+    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A76" s="17"/>
+      <c r="B76" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="6" t="s">
+      <c r="C76" s="21"/>
+      <c r="D76" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E76" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="25"/>
-      <c r="B71" s="3" t="s">
+    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="17"/>
+      <c r="B77" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C77" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D77" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E77" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="25"/>
-      <c r="B72" s="3" t="s">
+    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="17"/>
+      <c r="B78" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C78" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D78" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E78" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="25"/>
-      <c r="B73" s="3" t="s">
+    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A79" s="17"/>
+      <c r="B79" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="6" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E79" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="26" t="s">
+    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A80" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B80" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="6" t="s">
+      <c r="C80" s="21"/>
+      <c r="D80" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E80" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="26"/>
-      <c r="B75" s="12" t="s">
+    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A81" s="18"/>
+      <c r="B81" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C81" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D81" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E81" s="4" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="26"/>
-      <c r="B76" s="10" t="s">
+    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A82" s="18"/>
+      <c r="B82" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C82" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D82" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E82" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="26"/>
-      <c r="B77" s="10" t="s">
+    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="18"/>
+      <c r="B83" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C83" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D83" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E83" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="26"/>
-      <c r="B78" s="3" t="s">
+    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A84" s="18"/>
+      <c r="B84" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C84" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D84" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E84" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="19" t="s">
+    <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A85" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="6" t="s">
+      <c r="C85" s="21"/>
+      <c r="D85" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E85" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="19"/>
-      <c r="B80" s="3" t="s">
+    <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A86" s="11"/>
+      <c r="B86" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C86" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D86" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E86" s="4" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="19"/>
-      <c r="B81" s="3" t="s">
+    <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A87" s="11"/>
+      <c r="B87" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C87" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D87" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E87" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="19"/>
-      <c r="B82" s="7" t="s">
+    <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A88" s="11"/>
+      <c r="B88" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="6" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E88" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="19"/>
-      <c r="B83" s="12" t="s">
+    <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A89" s="11"/>
+      <c r="B89" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="13" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E89" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="19"/>
-      <c r="B84" s="3" t="s">
+    <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A90" s="11"/>
+      <c r="B90" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="6" t="s">
+      <c r="C90" s="21"/>
+      <c r="D90" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E90" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="19"/>
-      <c r="B85" s="10" t="s">
+    <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C91" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D91" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E91" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="19"/>
-      <c r="B86" s="10" t="s">
+    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C92" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D92" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E92" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
-      <c r="B87" s="10" t="s">
+    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A93" s="11"/>
+      <c r="B93" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C93" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D93" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E93" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="19"/>
-      <c r="B88" s="3" t="s">
+    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A94" s="11"/>
+      <c r="B94" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C94" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D94" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E94" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="19"/>
-      <c r="B89" s="3" t="s">
+    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A95" s="11"/>
+      <c r="B95" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="6" t="s">
+      <c r="C95" s="21"/>
+      <c r="D95" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E95" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="19"/>
-      <c r="B90" s="3" t="s">
+    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="11"/>
+      <c r="B96" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="6" t="s">
+      <c r="C96" s="21"/>
+      <c r="D96" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E96" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
-      <c r="B91" s="10" t="s">
+    <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A97" s="11"/>
+      <c r="B97" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C97" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D97" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E97" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="19"/>
-      <c r="B92" s="10" t="s">
+    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A98" s="11"/>
+      <c r="B98" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="6" t="s">
+      <c r="C98" s="21"/>
+      <c r="D98" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E98" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="19"/>
-      <c r="B93" s="10" t="s">
+    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A99" s="11"/>
+      <c r="B99" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C99" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D99" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E99" s="4" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="19"/>
-      <c r="B94" s="10" t="s">
+    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A100" s="11"/>
+      <c r="B100" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C100" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D100" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E100" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="19"/>
-      <c r="B95" s="10" t="s">
+    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="11"/>
+      <c r="B101" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C101" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D101" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E101" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="19"/>
-      <c r="B96" s="10" t="s">
+    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A102" s="11"/>
+      <c r="B102" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C102" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D102" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E102" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="19"/>
-      <c r="B97" s="10" t="s">
+    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="11"/>
+      <c r="B103" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C103" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D103" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E103" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="19"/>
-      <c r="B98" s="3" t="s">
+    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="11"/>
+      <c r="B104" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C104" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D104" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E104" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="19"/>
-      <c r="B99" s="3" t="s">
+    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A105" s="11"/>
+      <c r="B105" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="6" t="s">
+      <c r="C105" s="21"/>
+      <c r="D105" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E105" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="19"/>
-      <c r="B100" s="3" t="s">
+    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="11"/>
+      <c r="B106" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="6" t="s">
+      <c r="C106" s="21"/>
+      <c r="D106" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E106" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="20" t="s">
+    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A107" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="6" t="s">
+      <c r="C107" s="21"/>
+      <c r="D107" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E107" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="20"/>
-      <c r="B102" s="3" t="s">
+    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="12"/>
+      <c r="B108" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="6" t="s">
+      <c r="C108" s="21"/>
+      <c r="D108" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E108" s="4" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="20"/>
-      <c r="B103" s="3" t="s">
+    <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A109" s="12"/>
+      <c r="B109" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="6" t="s">
+      <c r="C109" s="21"/>
+      <c r="D109" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E109" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="20"/>
-      <c r="B104" s="3" t="s">
+    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A110" s="12"/>
+      <c r="B110" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="6" t="s">
+      <c r="C110" s="21"/>
+      <c r="D110" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E110" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="20"/>
-      <c r="B105" s="3" t="s">
+    <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A111" s="12"/>
+      <c r="B111" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="6" t="s">
+      <c r="C111" s="21"/>
+      <c r="D111" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E111" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="20"/>
-      <c r="B106" s="3" t="s">
+    <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A112" s="12"/>
+      <c r="B112" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="6" t="s">
+      <c r="C112" s="21"/>
+      <c r="D112" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E112" s="7" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="20"/>
-      <c r="B107" s="3" t="s">
+    <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A113" s="12"/>
+      <c r="B113" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="6" t="s">
+      <c r="C113" s="21"/>
+      <c r="D113" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E113" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="20"/>
-      <c r="B108" s="3" t="s">
+    <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A114" s="12"/>
+      <c r="B114" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="6" t="s">
+      <c r="C114" s="21"/>
+      <c r="D114" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E114" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="20"/>
-      <c r="B109" s="3" t="s">
+    <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A115" s="12"/>
+      <c r="B115" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="6" t="s">
+      <c r="C115" s="21"/>
+      <c r="D115" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E115" s="4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A110" s="20"/>
-      <c r="B110" s="3" t="s">
+    <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A116" s="12"/>
+      <c r="B116" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="6" t="s">
+      <c r="C116" s="21"/>
+      <c r="D116" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E116" s="4" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A111" s="20"/>
-      <c r="B111" s="3" t="s">
+    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A117" s="12"/>
+      <c r="B117" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="6" t="s">
+      <c r="C117" s="21"/>
+      <c r="D117" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E111" s="7" t="s">
+      <c r="E117" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A112" s="20"/>
-      <c r="B112" s="3" t="s">
+    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="12"/>
+      <c r="B118" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="6" t="s">
+      <c r="C118" s="21"/>
+      <c r="D118" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E112" s="7" t="s">
+      <c r="E118" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="20"/>
-      <c r="B113" s="3" t="s">
+    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A119" s="12"/>
+      <c r="B119" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="6" t="s">
+      <c r="C119" s="21"/>
+      <c r="D119" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E119" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="20"/>
-      <c r="B114" s="3" t="s">
+    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A120" s="12"/>
+      <c r="B120" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="6" t="s">
+      <c r="C120" s="21"/>
+      <c r="D120" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E114" s="7" t="s">
+      <c r="E120" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="20"/>
-      <c r="B115" s="3" t="s">
+    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A121" s="12"/>
+      <c r="B121" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="6" t="s">
+      <c r="C121" s="21"/>
+      <c r="D121" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E115" s="7" t="s">
+      <c r="E121" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="20"/>
-      <c r="B116" s="3" t="s">
+    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A122" s="12"/>
+      <c r="B122" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="6" t="s">
+      <c r="C122" s="21"/>
+      <c r="D122" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="E116" s="7" t="s">
+      <c r="E122" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A117" s="20"/>
-      <c r="B117" s="3" t="s">
+    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A123" s="12"/>
+      <c r="B123" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="6" t="s">
+      <c r="C123" s="21"/>
+      <c r="D123" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="E117" s="7" t="s">
+      <c r="E123" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="20"/>
-      <c r="B118" s="3" t="s">
+    <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A124" s="12"/>
+      <c r="B124" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="6" t="s">
+      <c r="C124" s="21"/>
+      <c r="D124" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E118" s="7" t="s">
+      <c r="E124" s="4" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A119" s="20"/>
-      <c r="B119" s="3" t="s">
+    <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="12"/>
+      <c r="B125" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="6" t="s">
+      <c r="C125" s="21"/>
+      <c r="D125" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E125" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="20"/>
-      <c r="B120" s="3" t="s">
+    <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A126" s="12"/>
+      <c r="B126" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="6" t="s">
+      <c r="C126" s="21"/>
+      <c r="D126" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E120" s="7" t="s">
+      <c r="E126" s="4" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="20"/>
-      <c r="B121" s="3" t="s">
+    <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A127" s="12"/>
+      <c r="B127" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C127" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D127" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E121" s="7" t="s">
+      <c r="E127" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="21" t="s">
+    <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A128" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="6" t="s">
+      <c r="C128" s="21"/>
+      <c r="D128" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="E122" s="7" t="s">
+      <c r="E128" s="4" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="21"/>
-      <c r="B123" s="3" t="s">
+    <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A129" s="13"/>
+      <c r="B129" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="6" t="s">
+      <c r="C129" s="21"/>
+      <c r="D129" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E129" s="4" t="s">
         <v>394</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A79:A100"/>
-    <mergeCell ref="A101:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A73"/>
-    <mergeCell ref="A74:A78"/>
+    <mergeCell ref="A85:A106"/>
+    <mergeCell ref="A107:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A2:A53"/>
+    <mergeCell ref="A54:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A80:A84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D100" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
-    <hyperlink ref="D52" r:id="rId4" xr:uid="{4805E29B-CA2B-4FB8-AD24-2F3B5DFD6CC0}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D63" r:id="rId6" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D74" r:id="rId7" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
-    <hyperlink ref="D51" r:id="rId8" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D101" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
-    <hyperlink ref="D9" r:id="rId11" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
-    <hyperlink ref="D12" r:id="rId12" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
-    <hyperlink ref="D30" r:id="rId13" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D102" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
-    <hyperlink ref="D13" r:id="rId15" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D69" r:id="rId16" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D66" r:id="rId17" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
-    <hyperlink ref="D103" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
-    <hyperlink ref="D15" r:id="rId20" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D104" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D78" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D105" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
-    <hyperlink ref="D22" r:id="rId24" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D106" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E106" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D107" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D108" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D65" r:id="rId29" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
-    <hyperlink ref="D17" r:id="rId30" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D61" r:id="rId31" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D79" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
-    <hyperlink ref="D40" r:id="rId33" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D76" r:id="rId34" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
-    <hyperlink ref="D26" r:id="rId35" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
-    <hyperlink ref="D19" r:id="rId36" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D60" r:id="rId37" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D84" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D85" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D86" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D99" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D88" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D98" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
-    <hyperlink ref="D36" r:id="rId44" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
-    <hyperlink ref="D27" r:id="rId45" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D109" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D110" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D70" r:id="rId48" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D91" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D73" r:id="rId50" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
-    <hyperlink ref="D31" r:id="rId51" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D62" r:id="rId52" xr:uid="{3E0D4AF6-451D-45C2-9CA9-2E5599015BE8}"/>
-    <hyperlink ref="D64" r:id="rId53" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
-    <hyperlink ref="D28" r:id="rId54" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D111" r:id="rId55" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
-    <hyperlink ref="D21" r:id="rId56" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
-    <hyperlink ref="D33" r:id="rId57" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
-    <hyperlink ref="D35" r:id="rId58" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D112" r:id="rId59" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D113" r:id="rId60" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D114" r:id="rId61" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D96" r:id="rId62" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
-    <hyperlink ref="D53" r:id="rId63" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
-    <hyperlink ref="D55" r:id="rId64" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D90" r:id="rId65" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
-    <hyperlink ref="D41" r:id="rId66" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
-    <hyperlink ref="D32" r:id="rId67" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
-    <hyperlink ref="D56" r:id="rId68" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
-    <hyperlink ref="D59" r:id="rId69" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D92" r:id="rId70" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D115" r:id="rId71" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D116" r:id="rId72" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
-    <hyperlink ref="D44" r:id="rId73" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D89" r:id="rId74" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D117" r:id="rId75" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
-    <hyperlink ref="D57" r:id="rId76" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
-    <hyperlink ref="D34" r:id="rId77" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D94" r:id="rId78" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
-    <hyperlink ref="D37" r:id="rId79" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
-    <hyperlink ref="D50" r:id="rId80" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
-    <hyperlink ref="D46" r:id="rId81" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D82" r:id="rId82" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
-    <hyperlink ref="D49" r:id="rId83" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
-    <hyperlink ref="E49" r:id="rId84" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D118" r:id="rId85" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D119" r:id="rId86" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
-    <hyperlink ref="D25" r:id="rId87" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
-    <hyperlink ref="D24" r:id="rId88" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
-    <hyperlink ref="D20" r:id="rId89" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D58" r:id="rId90" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
-    <hyperlink ref="D38" r:id="rId91" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D120" r:id="rId92" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D95" r:id="rId93" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
-    <hyperlink ref="D29" r:id="rId94" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D71" r:id="rId95" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D93" r:id="rId96" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D121" r:id="rId97" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D80" r:id="rId98" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
-    <hyperlink ref="D23" r:id="rId99" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D87" r:id="rId100" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D67" r:id="rId101" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D68" r:id="rId102" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D72" r:id="rId103" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D122" r:id="rId104" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
-    <hyperlink ref="D7" r:id="rId105" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D14" r:id="rId106" xr:uid="{4E5DD223-6A2D-4922-B481-C18D24E6D388}"/>
-    <hyperlink ref="D97" r:id="rId107" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
-    <hyperlink ref="D45" r:id="rId108" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D81" r:id="rId109" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D77" r:id="rId110" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
-    <hyperlink ref="D43" r:id="rId111" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
-    <hyperlink ref="D42" r:id="rId112" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
-    <hyperlink ref="D48" r:id="rId113" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
-    <hyperlink ref="D5" r:id="rId114" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
-    <hyperlink ref="D6" r:id="rId115" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
-    <hyperlink ref="D18" r:id="rId116" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
-    <hyperlink ref="D16" r:id="rId117" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D123" r:id="rId118" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D83" r:id="rId119" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D75" r:id="rId120" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D54" r:id="rId121" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
-    <hyperlink ref="D3" r:id="rId122" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
+    <hyperlink ref="D106" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D54" r:id="rId4" xr:uid="{4805E29B-CA2B-4FB8-AD24-2F3B5DFD6CC0}"/>
+    <hyperlink ref="D9" r:id="rId5" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
+    <hyperlink ref="D69" r:id="rId6" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D80" r:id="rId7" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D53" r:id="rId8" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
+    <hyperlink ref="D107" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
+    <hyperlink ref="D10" r:id="rId11" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
+    <hyperlink ref="D32" r:id="rId13" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
+    <hyperlink ref="D108" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D14" r:id="rId15" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
+    <hyperlink ref="D75" r:id="rId16" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D72" r:id="rId17" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
+    <hyperlink ref="D109" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
+    <hyperlink ref="D110" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D84" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D111" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
+    <hyperlink ref="D112" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E112" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D113" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D114" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D71" r:id="rId29" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D18" r:id="rId30" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
+    <hyperlink ref="D68" r:id="rId31" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D85" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D42" r:id="rId33" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
+    <hyperlink ref="D82" r:id="rId34" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D28" r:id="rId35" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
+    <hyperlink ref="D20" r:id="rId36" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
+    <hyperlink ref="D67" r:id="rId37" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D90" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D91" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D92" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D105" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D94" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D104" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D38" r:id="rId44" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
+    <hyperlink ref="D29" r:id="rId45" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
+    <hyperlink ref="D115" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D116" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D76" r:id="rId48" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D97" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D79" r:id="rId50" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D33" r:id="rId51" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
+    <hyperlink ref="D70" r:id="rId52" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D30" r:id="rId53" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
+    <hyperlink ref="D117" r:id="rId54" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D22" r:id="rId55" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
+    <hyperlink ref="D35" r:id="rId56" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
+    <hyperlink ref="D37" r:id="rId57" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
+    <hyperlink ref="D118" r:id="rId58" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D119" r:id="rId59" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D120" r:id="rId60" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D102" r:id="rId61" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D55" r:id="rId62" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
+    <hyperlink ref="D62" r:id="rId63" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
+    <hyperlink ref="D96" r:id="rId64" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D43" r:id="rId65" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
+    <hyperlink ref="D34" r:id="rId66" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
+    <hyperlink ref="D63" r:id="rId67" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
+    <hyperlink ref="D66" r:id="rId68" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
+    <hyperlink ref="D98" r:id="rId69" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D121" r:id="rId70" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D122" r:id="rId71" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D46" r:id="rId72" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
+    <hyperlink ref="D95" r:id="rId73" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D123" r:id="rId74" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
+    <hyperlink ref="D64" r:id="rId75" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
+    <hyperlink ref="D36" r:id="rId76" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
+    <hyperlink ref="D100" r:id="rId77" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D39" r:id="rId78" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
+    <hyperlink ref="D52" r:id="rId79" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
+    <hyperlink ref="D48" r:id="rId80" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
+    <hyperlink ref="D88" r:id="rId81" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D51" r:id="rId82" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
+    <hyperlink ref="E51" r:id="rId83" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
+    <hyperlink ref="D124" r:id="rId84" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D125" r:id="rId85" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D27" r:id="rId86" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
+    <hyperlink ref="D26" r:id="rId87" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
+    <hyperlink ref="D21" r:id="rId88" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
+    <hyperlink ref="D65" r:id="rId89" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D40" r:id="rId90" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
+    <hyperlink ref="D126" r:id="rId91" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D101" r:id="rId92" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D31" r:id="rId93" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
+    <hyperlink ref="D77" r:id="rId94" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D99" r:id="rId95" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D127" r:id="rId96" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D86" r:id="rId97" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D24" r:id="rId98" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
+    <hyperlink ref="D93" r:id="rId99" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D73" r:id="rId100" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D74" r:id="rId101" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D78" r:id="rId102" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D128" r:id="rId103" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D8" r:id="rId104" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
+    <hyperlink ref="D15" r:id="rId105" xr:uid="{4E5DD223-6A2D-4922-B481-C18D24E6D388}"/>
+    <hyperlink ref="D103" r:id="rId106" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D47" r:id="rId107" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
+    <hyperlink ref="D87" r:id="rId108" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D83" r:id="rId109" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D45" r:id="rId110" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
+    <hyperlink ref="D44" r:id="rId111" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
+    <hyperlink ref="D50" r:id="rId112" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
+    <hyperlink ref="D6" r:id="rId113" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
+    <hyperlink ref="D7" r:id="rId114" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
+    <hyperlink ref="D19" r:id="rId115" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
+    <hyperlink ref="D17" r:id="rId116" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
+    <hyperlink ref="D129" r:id="rId117" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D89" r:id="rId118" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D81" r:id="rId119" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D57" r:id="rId120" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D4" r:id="rId121" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
+    <hyperlink ref="D56" r:id="rId122" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
+    <hyperlink ref="D25" r:id="rId123" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
+    <hyperlink ref="D3" r:id="rId124" xr:uid="{8EDF0D24-9EE4-4F83-881A-3F1842E82DB7}"/>
+    <hyperlink ref="D60" r:id="rId125" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
+    <hyperlink ref="D61" r:id="rId126" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
+    <hyperlink ref="D59" r:id="rId127" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
+    <hyperlink ref="D58" r:id="rId128" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId123"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A676E8-C668-4991-B993-B9588981A044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FEB113-EAE2-42E2-9D74-7FD131816502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="506">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1638,16 +1638,6 @@
   </si>
   <si>
     <t>方块合成使你能够通过搭建多方块结构来制作物品和其他东西。搭建特定结构，使用特定物品右键核心方块，结构会消失，并留下一些合成出的物品，召唤一些生物，或进行任何你想要的事情。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It's The Little Things</t>
-  </si>
-  <si>
-    <t>itlt 能够帮助你修改游戏窗口的图标以及标题。</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/4234.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1795,7 +1785,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1872,13 +1862,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1965,7 +1948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1985,10 +1968,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2001,16 +1993,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2297,15 +2279,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8" style="11" customWidth="1"/>
     <col min="2" max="2" width="43.5546875" customWidth="1"/>
     <col min="3" max="3" width="24.21875" customWidth="1"/>
     <col min="4" max="4" width="76" customWidth="1"/>
@@ -2330,7 +2312,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2347,7 +2329,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>420</v>
       </c>
@@ -2360,7 +2342,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>406</v>
       </c>
@@ -2373,7 +2355,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2388,7 +2370,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>372</v>
       </c>
@@ -2403,7 +2385,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>375</v>
       </c>
@@ -2418,7 +2400,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>343</v>
       </c>
@@ -2433,7 +2415,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2448,7 +2430,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
@@ -2463,7 +2445,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
@@ -2476,7 +2458,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>71</v>
       </c>
@@ -2489,7 +2471,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
@@ -2502,7 +2484,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
@@ -2515,7 +2497,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>75</v>
       </c>
@@ -2530,7 +2512,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>381</v>
       </c>
@@ -2545,7 +2527,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>101</v>
       </c>
@@ -2560,7 +2542,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>379</v>
       </c>
@@ -2573,7 +2555,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>124</v>
       </c>
@@ -2586,7 +2568,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>285</v>
       </c>
@@ -2601,7 +2583,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>185</v>
       </c>
@@ -2616,7 +2598,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>88</v>
       </c>
@@ -2631,7 +2613,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="11"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="4" t="s">
         <v>321</v>
       </c>
@@ -2644,7 +2626,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="5" t="s">
         <v>173</v>
       </c>
@@ -2657,7 +2639,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="11"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
         <v>282</v>
       </c>
@@ -2670,7 +2652,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="11"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>278</v>
       </c>
@@ -2685,7 +2667,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="11"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>120</v>
       </c>
@@ -2700,7 +2682,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>152</v>
       </c>
@@ -2715,7 +2697,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="11"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="4" t="s">
         <v>179</v>
       </c>
@@ -2728,7 +2710,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
         <v>301</v>
       </c>
@@ -2743,7 +2725,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="11"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>52</v>
       </c>
@@ -2756,7 +2738,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="11"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
         <v>170</v>
       </c>
@@ -2769,7 +2751,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="11"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
         <v>220</v>
       </c>
@@ -2782,7 +2764,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="11"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
         <v>188</v>
       </c>
@@ -2797,7 +2779,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="11"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
         <v>251</v>
       </c>
@@ -2812,7 +2794,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="11"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="4" t="s">
         <v>192</v>
       </c>
@@ -2825,7 +2807,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="11"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
         <v>149</v>
       </c>
@@ -2838,7 +2820,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="11"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="4" t="s">
         <v>258</v>
       </c>
@@ -2851,7 +2833,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="11"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="4" t="s">
         <v>293</v>
       </c>
@@ -2864,7 +2846,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="11"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="4" t="s">
         <v>114</v>
       </c>
@@ -2879,7 +2861,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="11"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="4" t="s">
         <v>216</v>
       </c>
@@ -2894,7 +2876,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="11"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="4" t="s">
         <v>366</v>
       </c>
@@ -2907,7 +2889,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="11"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
         <v>362</v>
       </c>
@@ -2922,7 +2904,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="11"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="4" t="s">
         <v>236</v>
       </c>
@@ -2935,7 +2917,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="11"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
         <v>350</v>
       </c>
@@ -2950,7 +2932,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="11"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
         <v>264</v>
       </c>
@@ -2963,7 +2945,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="11"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="10" t="s">
         <v>239</v>
       </c>
@@ -2976,7 +2958,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="11"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="4" t="s">
         <v>370</v>
       </c>
@@ -2989,7 +2971,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="11"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="10" t="s">
         <v>270</v>
       </c>
@@ -3002,7 +2984,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="11"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="4" t="s">
         <v>261</v>
       </c>
@@ -3015,7 +2997,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
@@ -3030,7 +3012,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3045,7 +3027,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="13"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
         <v>417</v>
       </c>
@@ -3058,7 +3040,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="13"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
         <v>464</v>
       </c>
@@ -3073,7 +3055,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="13"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
         <v>442</v>
       </c>
@@ -3086,7 +3068,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="13"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
         <v>403</v>
       </c>
@@ -3099,7 +3081,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="13"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="10" t="s">
         <v>430</v>
       </c>
@@ -3112,7 +3094,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="13"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="10" t="s">
         <v>435</v>
       </c>
@@ -3125,7 +3107,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="13"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="10" t="s">
         <v>427</v>
       </c>
@@ -3138,7 +3120,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="13"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="10" t="s">
         <v>423</v>
       </c>
@@ -3151,7 +3133,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="13"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="10" t="s">
         <v>425</v>
       </c>
@@ -3164,7 +3146,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="13"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="4" t="s">
         <v>211</v>
       </c>
@@ -3177,7 +3159,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="13"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="4" t="s">
         <v>223</v>
       </c>
@@ -3190,7 +3172,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="13"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="4" t="s">
         <v>248</v>
       </c>
@@ -3203,7 +3185,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="13"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="4" t="s">
         <v>289</v>
       </c>
@@ -3216,9 +3198,9 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="13"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
@@ -3229,80 +3211,80 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="13"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="16"/>
+      <c r="B68" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="13"/>
-      <c r="B68" s="4" t="s">
+      <c r="D68" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C68" s="4" t="s">
+    </row>
+    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="16"/>
+      <c r="B69" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A70" s="16"/>
+      <c r="B70" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A71" s="16"/>
+      <c r="B71" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="C71" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="D71" s="8" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="13"/>
-      <c r="B69" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="13"/>
-      <c r="B70" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="13"/>
-      <c r="B71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>500</v>
-      </c>
     </row>
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="13"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="4" t="s">
         <v>15</v>
       </c>
@@ -3315,48 +3297,48 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="13"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="13"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="13"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>474</v>
-      </c>
     </row>
     <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="13"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="4" t="s">
         <v>438</v>
       </c>
@@ -3371,7 +3353,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="13"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="4" t="s">
         <v>459</v>
       </c>
@@ -3386,1101 +3368,1088 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="13"/>
-      <c r="B78" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="C78" s="4"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>457</v>
+      </c>
       <c r="D78" s="8" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="13"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>457</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="8" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="13"/>
-      <c r="B80" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C80" s="4"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>479</v>
+      </c>
       <c r="D80" s="8" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="13"/>
-      <c r="B81" s="5" t="s">
-        <v>481</v>
+      <c r="A81" s="16"/>
+      <c r="B81" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="13"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="13"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>453</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="8" t="s">
-        <v>454</v>
+        <v>128</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>455</v>
+        <v>129</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="13"/>
-      <c r="B84" s="4" t="s">
-        <v>127</v>
+      <c r="A84" s="16"/>
+      <c r="B84" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="8" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="13"/>
-      <c r="B85" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" s="4"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D85" s="8" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="13"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C86" s="4"/>
       <c r="D86" s="8" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="13"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="4" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>178</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="13"/>
+      <c r="A88" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="B88" s="4" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>395</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="A89" s="17"/>
       <c r="B89" s="4" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>66</v>
+        <v>329</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>67</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="14"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C90" s="4"/>
+        <v>331</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D90" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="14"/>
+      <c r="A91" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="B91" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>332</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>334</v>
+        <v>62</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="A92" s="18"/>
       <c r="B92" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C92" s="4"/>
+        <v>482</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>483</v>
+      </c>
       <c r="D92" s="8" t="s">
-        <v>62</v>
+        <v>484</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>63</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="15"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>486</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C93" s="4"/>
       <c r="D93" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>488</v>
+        <v>161</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="15"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94" s="4"/>
+        <v>305</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="D94" s="8" t="s">
-        <v>161</v>
+        <v>307</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>162</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="15"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="4" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="15"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>336</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="8" t="s">
-        <v>337</v>
+        <v>168</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>338</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="15"/>
+      <c r="A97" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="B97" s="4" t="s">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="8" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="A98" s="19"/>
       <c r="B98" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C98" s="4"/>
+        <v>399</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="D98" s="8" t="s">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="16"/>
-      <c r="B99" s="4" t="s">
-        <v>399</v>
+      <c r="A99" s="19"/>
+      <c r="B99" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>401</v>
+        <v>118</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>402</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="16"/>
+      <c r="A100" s="19"/>
       <c r="B100" s="5" t="s">
-        <v>116</v>
+        <v>358</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>118</v>
+        <v>360</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>119</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="16"/>
-      <c r="B101" s="5" t="s">
-        <v>358</v>
+      <c r="A101" s="19"/>
+      <c r="B101" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>361</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="16"/>
+      <c r="A102" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="B102" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C102" s="4"/>
       <c r="D102" s="8" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="17" t="s">
-        <v>108</v>
-      </c>
+      <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" s="4"/>
+        <v>317</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="D103" s="8" t="s">
-        <v>111</v>
+        <v>319</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>110</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="17"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="4" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="17"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C105" s="4"/>
       <c r="D105" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>357</v>
+        <v>269</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="17"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
-        <v>267</v>
+        <v>396</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>268</v>
+        <v>397</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="17"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="4" t="s">
-        <v>396</v>
+        <v>130</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="8" t="s">
-        <v>397</v>
+        <v>131</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>398</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="17"/>
-      <c r="B108" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C108" s="4"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="D108" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="17"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A110" s="17"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="5" t="s">
-        <v>138</v>
+        <v>324</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>139</v>
+        <v>325</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A111" s="17"/>
-      <c r="B111" s="5" t="s">
-        <v>324</v>
+      <c r="A111" s="12"/>
+      <c r="B111" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>325</v>
+        <v>144</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>326</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A112" s="17"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>143</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C112" s="4"/>
       <c r="D112" s="8" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>145</v>
+        <v>244</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="17"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="4" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="8" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="17"/>
-      <c r="B114" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C114" s="4"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="D114" s="8" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="17"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>164</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="8" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="17"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C116" s="4"/>
+        <v>309</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="D116" s="8" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A117" s="17"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="5" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>312</v>
+        <v>255</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="17"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="5" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A119" s="17"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="5" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>300</v>
+        <v>206</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="17"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="5" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>205</v>
+        <v>348</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>206</v>
+        <v>349</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>207</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="17"/>
-      <c r="B121" s="5" t="s">
-        <v>347</v>
+      <c r="A121" s="12"/>
+      <c r="B121" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>348</v>
+        <v>147</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>349</v>
+        <v>148</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="17"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C122" s="4"/>
       <c r="D122" s="8" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="17"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="4" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="17"/>
+      <c r="A124" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="B124" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="18" t="s">
-        <v>23</v>
-      </c>
+      <c r="A125" s="13"/>
       <c r="B125" s="4" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="8" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>26</v>
+        <v>415</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="18"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="8" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>415</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="18"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="8" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A128" s="18"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A129" s="18"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A130" s="18"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>414</v>
+        <v>95</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A131" s="18"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>96</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A132" s="18"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="4" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A133" s="18"/>
+      <c r="A133" s="13"/>
       <c r="B133" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A134" s="18"/>
+      <c r="A134" s="13"/>
       <c r="B134" s="4" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>411</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A135" s="18"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="4" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A136" s="18"/>
+      <c r="A136" s="13"/>
       <c r="B136" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="18"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A138" s="18"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="4" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A139" s="18"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>232</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A140" s="18"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="4" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A141" s="18"/>
+      <c r="A141" s="13"/>
       <c r="B141" s="4" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="8" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A142" s="18"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A143" s="18"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="4" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="8" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>277</v>
+        <v>393</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A144" s="18"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C144" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="D144" s="8" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>393</v>
+        <v>316</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A145" s="18"/>
+      <c r="A145" s="14" t="s">
+        <v>339</v>
+      </c>
       <c r="B145" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>314</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C145" s="4"/>
       <c r="D145" s="8" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A146" s="19" t="s">
-        <v>339</v>
-      </c>
+      <c r="A146" s="14"/>
       <c r="B146" s="4" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="8" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A147" s="19"/>
-      <c r="B147" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E147" s="4" t="s">
         <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A103:A124"/>
-    <mergeCell ref="A125:A145"/>
-    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="A102:A123"/>
+    <mergeCell ref="A124:A144"/>
+    <mergeCell ref="A145:A146"/>
     <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A52:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="A97:A101"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D124" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D123" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D9" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D86" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D98" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D85" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D97" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
     <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D125" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D124" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
     <hyperlink ref="D10" r:id="rId10" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D13" r:id="rId11" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
     <hyperlink ref="D31" r:id="rId12" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D126" r:id="rId13" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D125" r:id="rId13" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D14" r:id="rId14" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D92" r:id="rId15" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D89" r:id="rId16" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
-    <hyperlink ref="D127" r:id="rId17" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
+    <hyperlink ref="D91" r:id="rId15" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D88" r:id="rId16" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
+    <hyperlink ref="D126" r:id="rId17" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
     <hyperlink ref="D12" r:id="rId18" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId19" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D128" r:id="rId20" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D102" r:id="rId21" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D129" r:id="rId22" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D127" r:id="rId20" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D101" r:id="rId21" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D128" r:id="rId22" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId23" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D130" r:id="rId24" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E130" r:id="rId25" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D131" r:id="rId26" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D132" r:id="rId27" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D88" r:id="rId28" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D129" r:id="rId24" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E129" r:id="rId25" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D130" r:id="rId26" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D131" r:id="rId27" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D87" r:id="rId28" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId29" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D85" r:id="rId30" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D103" r:id="rId31" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D84" r:id="rId30" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D102" r:id="rId31" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
     <hyperlink ref="D40" r:id="rId32" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D100" r:id="rId33" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D99" r:id="rId33" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D27" r:id="rId34" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId35" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D84" r:id="rId36" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D108" r:id="rId37" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D109" r:id="rId38" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D110" r:id="rId39" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D123" r:id="rId40" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D112" r:id="rId41" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D122" r:id="rId42" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D83" r:id="rId36" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D107" r:id="rId37" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D108" r:id="rId38" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D109" r:id="rId39" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D122" r:id="rId40" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D111" r:id="rId41" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D121" r:id="rId42" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
     <hyperlink ref="D37" r:id="rId43" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D28" r:id="rId44" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D133" r:id="rId45" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D134" r:id="rId46" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D94" r:id="rId47" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D115" r:id="rId48" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D97" r:id="rId49" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D132" r:id="rId45" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D133" r:id="rId46" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D93" r:id="rId47" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D114" r:id="rId48" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D96" r:id="rId49" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
     <hyperlink ref="D32" r:id="rId50" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D87" r:id="rId51" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D86" r:id="rId51" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D29" r:id="rId52" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D135" r:id="rId53" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D134" r:id="rId53" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
     <hyperlink ref="D21" r:id="rId54" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
     <hyperlink ref="D34" r:id="rId55" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
     <hyperlink ref="D36" r:id="rId56" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D136" r:id="rId57" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D137" r:id="rId58" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D138" r:id="rId59" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D120" r:id="rId60" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D135" r:id="rId57" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D136" r:id="rId58" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D137" r:id="rId59" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D119" r:id="rId60" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
     <hyperlink ref="D52" r:id="rId61" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
     <hyperlink ref="D62" r:id="rId62" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D114" r:id="rId63" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D113" r:id="rId63" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
     <hyperlink ref="D41" r:id="rId64" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
     <hyperlink ref="D33" r:id="rId65" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
     <hyperlink ref="D63" r:id="rId66" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
     <hyperlink ref="D66" r:id="rId67" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D116" r:id="rId68" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D139" r:id="rId69" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D140" r:id="rId70" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D115" r:id="rId68" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D138" r:id="rId69" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D139" r:id="rId70" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
     <hyperlink ref="D44" r:id="rId71" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D113" r:id="rId72" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D141" r:id="rId73" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
+    <hyperlink ref="D112" r:id="rId72" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D140" r:id="rId73" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
     <hyperlink ref="D64" r:id="rId74" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
     <hyperlink ref="D35" r:id="rId75" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D118" r:id="rId76" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D117" r:id="rId76" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
     <hyperlink ref="D38" r:id="rId77" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
     <hyperlink ref="D50" r:id="rId78" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
     <hyperlink ref="D46" r:id="rId79" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D106" r:id="rId80" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D105" r:id="rId80" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
     <hyperlink ref="D49" r:id="rId81" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
     <hyperlink ref="E49" r:id="rId82" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D142" r:id="rId83" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D143" r:id="rId84" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D141" r:id="rId83" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D142" r:id="rId84" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
     <hyperlink ref="D26" r:id="rId85" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
     <hyperlink ref="D25" r:id="rId86" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
     <hyperlink ref="D20" r:id="rId87" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
     <hyperlink ref="D65" r:id="rId88" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
     <hyperlink ref="D39" r:id="rId89" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D144" r:id="rId90" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D119" r:id="rId91" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D143" r:id="rId90" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D118" r:id="rId91" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
     <hyperlink ref="D30" r:id="rId92" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D95" r:id="rId93" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D117" r:id="rId94" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D145" r:id="rId95" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D104" r:id="rId96" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D94" r:id="rId93" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D116" r:id="rId94" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D144" r:id="rId95" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D103" r:id="rId96" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
     <hyperlink ref="D23" r:id="rId97" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D111" r:id="rId98" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D90" r:id="rId99" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D91" r:id="rId100" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D96" r:id="rId101" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D146" r:id="rId102" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D110" r:id="rId98" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D89" r:id="rId99" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D90" r:id="rId100" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D95" r:id="rId101" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D145" r:id="rId102" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
     <hyperlink ref="D8" r:id="rId103" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D121" r:id="rId104" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D120" r:id="rId104" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
     <hyperlink ref="D45" r:id="rId105" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D105" r:id="rId106" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D101" r:id="rId107" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D104" r:id="rId106" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D100" r:id="rId107" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
     <hyperlink ref="D43" r:id="rId108" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
     <hyperlink ref="D42" r:id="rId109" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
     <hyperlink ref="D48" r:id="rId110" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
@@ -4488,9 +4457,9 @@
     <hyperlink ref="D7" r:id="rId112" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
     <hyperlink ref="D18" r:id="rId113" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
     <hyperlink ref="D16" r:id="rId114" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D147" r:id="rId115" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D107" r:id="rId116" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D99" r:id="rId117" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D146" r:id="rId115" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D106" r:id="rId116" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D98" r:id="rId117" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
     <hyperlink ref="D56" r:id="rId118" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
     <hyperlink ref="D4" r:id="rId119" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
     <hyperlink ref="D53" r:id="rId120" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
@@ -4504,24 +4473,23 @@
     <hyperlink ref="D55" r:id="rId128" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
     <hyperlink ref="D72" r:id="rId129" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
     <hyperlink ref="D76" r:id="rId130" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
-    <hyperlink ref="D80" r:id="rId131" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
-    <hyperlink ref="D83" r:id="rId132" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
-    <hyperlink ref="D79" r:id="rId133" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
+    <hyperlink ref="D79" r:id="rId131" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
+    <hyperlink ref="D82" r:id="rId132" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
+    <hyperlink ref="D78" r:id="rId133" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
     <hyperlink ref="D77" r:id="rId134" xr:uid="{9FDF369F-FCEA-4430-AAC7-486CA14382DF}"/>
     <hyperlink ref="D54" r:id="rId135" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
-    <hyperlink ref="D78" r:id="rId136" xr:uid="{E9E266BC-9C72-4261-BD8C-66689D2D598F}"/>
-    <hyperlink ref="D75" r:id="rId137" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
-    <hyperlink ref="D74" r:id="rId138" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
-    <hyperlink ref="D73" r:id="rId139" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
-    <hyperlink ref="D81" r:id="rId140" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D93" r:id="rId141" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
-    <hyperlink ref="D67" r:id="rId142" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
-    <hyperlink ref="D68" r:id="rId143" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
-    <hyperlink ref="D71" r:id="rId144" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
-    <hyperlink ref="D69" r:id="rId145" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
-    <hyperlink ref="D70" r:id="rId146" xr:uid="{9E6ACCBD-9408-4718-900A-60F09DD94F14}"/>
+    <hyperlink ref="D75" r:id="rId136" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
+    <hyperlink ref="D74" r:id="rId137" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
+    <hyperlink ref="D73" r:id="rId138" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
+    <hyperlink ref="D80" r:id="rId139" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
+    <hyperlink ref="D92" r:id="rId140" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D67" r:id="rId141" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
+    <hyperlink ref="D68" r:id="rId142" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
+    <hyperlink ref="D71" r:id="rId143" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
+    <hyperlink ref="D69" r:id="rId144" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
+    <hyperlink ref="D70" r:id="rId145" xr:uid="{9E6ACCBD-9408-4718-900A-60F09DD94F14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId147"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FEB113-EAE2-42E2-9D74-7FD131816502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB61D1-E9E9-4B9C-9447-D19390B163F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="498">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1610,20 +1610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IguanaTweaks Reborn</t>
-  </si>
-  <si>
-    <t>蜥蜴微调重生</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/4130.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该模组是 蜥蜴微调 (IguanaTweaks) 的重制版，完全重写了原模组！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>此模组为特定方块道路提供了特殊奖励，旨在提升玩家进行道路建设的积极性。</t>
   </si>
   <si>
@@ -1763,21 +1749,6 @@
   </si>
   <si>
     <t>这是模组 Dimension Stages 的非官方高版本重制版。目前支持 Forge 1.20.1。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player Stages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家阶段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本模组允许你使用游戏阶段针对玩家本身的行为进行限制。</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/11664.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2279,10 +2250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="A78:XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="A76:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3042,16 +3013,16 @@
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
@@ -3200,7 +3171,7 @@
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A66" s="16"/>
       <c r="B66" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
@@ -3213,1243 +3184,1213 @@
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A67" s="16"/>
       <c r="B67" s="4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="8" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A68" s="16"/>
       <c r="B68" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="16"/>
       <c r="B69" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="16"/>
-      <c r="B70" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>503</v>
+      <c r="B70" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>504</v>
+        <v>492</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="16"/>
-      <c r="B71" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>495</v>
-      </c>
+      <c r="B71" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>497</v>
+        <v>18</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="16"/>
-      <c r="B72" s="4" t="s">
-        <v>15</v>
+      <c r="B72" s="10" t="s">
+        <v>471</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="8" t="s">
-        <v>18</v>
+        <v>472</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="16"/>
-      <c r="B73" s="10" t="s">
-        <v>475</v>
+      <c r="B73" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="16"/>
       <c r="B74" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>464</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>465</v>
+      </c>
       <c r="D74" s="8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="16"/>
       <c r="B75" s="4" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="16"/>
       <c r="B76" s="4" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="16"/>
       <c r="B77" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>460</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="C77" s="4"/>
       <c r="D77" s="8" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="16"/>
-      <c r="B78" s="4" t="s">
-        <v>456</v>
+      <c r="B78" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="16"/>
       <c r="B79" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C79" s="4"/>
+        <v>448</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>449</v>
+      </c>
       <c r="D79" s="8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="16"/>
-      <c r="B80" s="5" t="s">
-        <v>478</v>
+      <c r="B80" s="4" t="s">
+        <v>452</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="16"/>
       <c r="B81" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="8" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>451</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="16"/>
-      <c r="B82" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>453</v>
-      </c>
+      <c r="B82" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" s="4"/>
       <c r="D82" s="8" t="s">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>455</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="16"/>
       <c r="B83" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="16"/>
-      <c r="B84" s="5" t="s">
-        <v>105</v>
+      <c r="B84" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="8" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="16"/>
       <c r="B85" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="8" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>30</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="16"/>
+      <c r="A86" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="B86" s="4" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="8" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="16"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="4" t="s">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="17" t="s">
-        <v>64</v>
-      </c>
+      <c r="A88" s="17"/>
       <c r="B88" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C88" s="4"/>
+        <v>331</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="D88" s="8" t="s">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>67</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="17"/>
+      <c r="A89" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="B89" s="4" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>330</v>
+        <v>62</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="17"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="4" t="s">
-        <v>331</v>
+        <v>478</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>332</v>
+        <v>479</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>334</v>
+        <v>480</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="A91" s="18"/>
       <c r="B91" s="4" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>63</v>
+        <v>161</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="18"/>
       <c r="B92" s="4" t="s">
-        <v>482</v>
+        <v>305</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>483</v>
+        <v>306</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>485</v>
+        <v>307</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="18"/>
       <c r="B93" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C93" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="D93" s="8" t="s">
-        <v>161</v>
+        <v>337</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>162</v>
+        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="18"/>
       <c r="B94" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>306</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="8" t="s">
-        <v>307</v>
+        <v>168</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>308</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="18"/>
+      <c r="A95" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="B95" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>336</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C95" s="4"/>
       <c r="D95" s="8" t="s">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>338</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="18"/>
+      <c r="A96" s="19"/>
       <c r="B96" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C96" s="4"/>
+        <v>399</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>400</v>
+      </c>
       <c r="D96" s="8" t="s">
-        <v>168</v>
+        <v>401</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>169</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C97" s="4"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="D97" s="8" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="19"/>
-      <c r="B98" s="4" t="s">
-        <v>399</v>
+      <c r="B98" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="19"/>
-      <c r="B99" s="5" t="s">
-        <v>116</v>
+      <c r="B99" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="19"/>
-      <c r="B100" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="A100" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="4"/>
       <c r="D100" s="8" t="s">
-        <v>360</v>
+        <v>111</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="19"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="4" t="s">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>84</v>
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="12" t="s">
-        <v>108</v>
-      </c>
+      <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="4"/>
+        <v>354</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="D102" s="8" t="s">
-        <v>111</v>
+        <v>356</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>110</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C103" s="4"/>
       <c r="D103" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>320</v>
+        <v>269</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="12"/>
       <c r="B104" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>355</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C104" s="4"/>
       <c r="D104" s="8" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>268</v>
+        <v>131</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="12"/>
-      <c r="B106" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C106" s="4"/>
+      <c r="B106" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="D106" s="8" t="s">
-        <v>397</v>
+        <v>136</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>398</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="12"/>
-      <c r="B107" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C107" s="4"/>
+      <c r="B107" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="D107" s="8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="12"/>
       <c r="B108" s="5" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>137</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="12"/>
-      <c r="B109" s="5" t="s">
-        <v>138</v>
+      <c r="B109" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="12"/>
-      <c r="B110" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>327</v>
-      </c>
+      <c r="B110" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110" s="4"/>
       <c r="D110" s="8" t="s">
-        <v>325</v>
+        <v>243</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>143</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C111" s="4"/>
       <c r="D111" s="8" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="12"/>
-      <c r="B112" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C112" s="4"/>
+      <c r="B112" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="D112" s="8" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="12"/>
-      <c r="B113" s="4" t="s">
-        <v>213</v>
+      <c r="B113" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="8" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="12"/>
       <c r="B114" s="5" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="12"/>
       <c r="B115" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="D115" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>230</v>
+        <v>255</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="12"/>
       <c r="B116" s="5" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>312</v>
+        <v>299</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="12"/>
       <c r="B117" s="5" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>257</v>
+        <v>206</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="12"/>
       <c r="B118" s="5" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>300</v>
+        <v>349</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="12"/>
-      <c r="B119" s="5" t="s">
-        <v>204</v>
+      <c r="B119" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>207</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="12"/>
-      <c r="B120" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>348</v>
-      </c>
+      <c r="B120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="4"/>
       <c r="D120" s="8" t="s">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>394</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="12"/>
       <c r="B121" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>147</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C121" s="4"/>
       <c r="D121" s="8" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>416</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="12"/>
+      <c r="A122" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="B122" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="12"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="8" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>14</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A124" s="13"/>
       <c r="B124" s="4" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="8" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="13"/>
       <c r="B125" s="4" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="8" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>415</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A126" s="13"/>
       <c r="B126" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="8" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A127" s="13"/>
       <c r="B127" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="13"/>
       <c r="B128" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="13"/>
       <c r="B129" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>414</v>
+        <v>98</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="13"/>
       <c r="B130" s="4" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>96</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="13"/>
       <c r="B131" s="4" t="s">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="13"/>
       <c r="B132" s="4" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>412</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="13"/>
       <c r="B133" s="4" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>411</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="13"/>
       <c r="B134" s="4" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="13"/>
       <c r="B135" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="13"/>
       <c r="B136" s="4" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A137" s="13"/>
       <c r="B137" s="4" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>203</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="13"/>
       <c r="B138" s="4" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="13"/>
       <c r="B139" s="4" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>410</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="13"/>
       <c r="B140" s="4" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="13"/>
       <c r="B141" s="4" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="8" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="13"/>
       <c r="B142" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C142" s="4"/>
+        <v>313</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="D142" s="8" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A143" s="13"/>
+      <c r="A143" s="14" t="s">
+        <v>339</v>
+      </c>
       <c r="B143" s="4" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="8" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A144" s="13"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>314</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C144" s="4"/>
       <c r="D144" s="8" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A145" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A146" s="14"/>
-      <c r="B146" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E146" s="4" t="s">
         <v>387</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A102:A123"/>
-    <mergeCell ref="A124:A144"/>
-    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A100:A121"/>
+    <mergeCell ref="A122:A142"/>
+    <mergeCell ref="A143:A144"/>
     <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A52:A85"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A99"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D123" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D121" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D9" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D85" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D97" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D83" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D95" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
     <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D124" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D122" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
     <hyperlink ref="D10" r:id="rId10" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D13" r:id="rId11" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
     <hyperlink ref="D31" r:id="rId12" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D125" r:id="rId13" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D123" r:id="rId13" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D14" r:id="rId14" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D91" r:id="rId15" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D88" r:id="rId16" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
-    <hyperlink ref="D126" r:id="rId17" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
+    <hyperlink ref="D89" r:id="rId15" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D86" r:id="rId16" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
+    <hyperlink ref="D124" r:id="rId17" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
     <hyperlink ref="D12" r:id="rId18" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId19" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D127" r:id="rId20" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D101" r:id="rId21" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D128" r:id="rId22" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D125" r:id="rId20" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D99" r:id="rId21" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D126" r:id="rId22" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId23" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D129" r:id="rId24" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E129" r:id="rId25" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D130" r:id="rId26" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D131" r:id="rId27" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D87" r:id="rId28" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D127" r:id="rId24" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E127" r:id="rId25" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D128" r:id="rId26" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D129" r:id="rId27" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D85" r:id="rId28" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId29" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D84" r:id="rId30" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D102" r:id="rId31" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D82" r:id="rId30" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D100" r:id="rId31" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
     <hyperlink ref="D40" r:id="rId32" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D99" r:id="rId33" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D97" r:id="rId33" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D27" r:id="rId34" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId35" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D83" r:id="rId36" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D107" r:id="rId37" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D108" r:id="rId38" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D109" r:id="rId39" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D122" r:id="rId40" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D111" r:id="rId41" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D121" r:id="rId42" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D81" r:id="rId36" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D105" r:id="rId37" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D106" r:id="rId38" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D107" r:id="rId39" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D120" r:id="rId40" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D109" r:id="rId41" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D119" r:id="rId42" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
     <hyperlink ref="D37" r:id="rId43" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D28" r:id="rId44" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D132" r:id="rId45" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D133" r:id="rId46" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D93" r:id="rId47" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D114" r:id="rId48" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D96" r:id="rId49" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D130" r:id="rId45" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D131" r:id="rId46" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D91" r:id="rId47" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D112" r:id="rId48" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D94" r:id="rId49" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
     <hyperlink ref="D32" r:id="rId50" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D86" r:id="rId51" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D84" r:id="rId51" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D29" r:id="rId52" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D134" r:id="rId53" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D132" r:id="rId53" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
     <hyperlink ref="D21" r:id="rId54" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
     <hyperlink ref="D34" r:id="rId55" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
     <hyperlink ref="D36" r:id="rId56" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D135" r:id="rId57" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D136" r:id="rId58" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D137" r:id="rId59" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D119" r:id="rId60" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D133" r:id="rId57" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D134" r:id="rId58" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D135" r:id="rId59" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D117" r:id="rId60" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
     <hyperlink ref="D52" r:id="rId61" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
     <hyperlink ref="D62" r:id="rId62" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D113" r:id="rId63" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D111" r:id="rId63" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
     <hyperlink ref="D41" r:id="rId64" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
     <hyperlink ref="D33" r:id="rId65" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
     <hyperlink ref="D63" r:id="rId66" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
     <hyperlink ref="D66" r:id="rId67" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D115" r:id="rId68" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D138" r:id="rId69" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D139" r:id="rId70" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D113" r:id="rId68" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D136" r:id="rId69" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D137" r:id="rId70" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
     <hyperlink ref="D44" r:id="rId71" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D112" r:id="rId72" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D140" r:id="rId73" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
+    <hyperlink ref="D110" r:id="rId72" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D138" r:id="rId73" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
     <hyperlink ref="D64" r:id="rId74" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
     <hyperlink ref="D35" r:id="rId75" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D117" r:id="rId76" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D115" r:id="rId76" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
     <hyperlink ref="D38" r:id="rId77" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
     <hyperlink ref="D50" r:id="rId78" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
     <hyperlink ref="D46" r:id="rId79" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D105" r:id="rId80" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D103" r:id="rId80" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
     <hyperlink ref="D49" r:id="rId81" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
     <hyperlink ref="E49" r:id="rId82" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D141" r:id="rId83" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D142" r:id="rId84" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D139" r:id="rId83" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D140" r:id="rId84" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
     <hyperlink ref="D26" r:id="rId85" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
     <hyperlink ref="D25" r:id="rId86" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
     <hyperlink ref="D20" r:id="rId87" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
     <hyperlink ref="D65" r:id="rId88" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
     <hyperlink ref="D39" r:id="rId89" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D143" r:id="rId90" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D118" r:id="rId91" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D141" r:id="rId90" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D116" r:id="rId91" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
     <hyperlink ref="D30" r:id="rId92" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D116" r:id="rId94" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D144" r:id="rId95" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D103" r:id="rId96" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D92" r:id="rId93" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D114" r:id="rId94" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D142" r:id="rId95" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D101" r:id="rId96" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
     <hyperlink ref="D23" r:id="rId97" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D110" r:id="rId98" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D89" r:id="rId99" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D90" r:id="rId100" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D95" r:id="rId101" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D145" r:id="rId102" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D108" r:id="rId98" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D87" r:id="rId99" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D88" r:id="rId100" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D93" r:id="rId101" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D143" r:id="rId102" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
     <hyperlink ref="D8" r:id="rId103" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D120" r:id="rId104" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D118" r:id="rId104" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
     <hyperlink ref="D45" r:id="rId105" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D104" r:id="rId106" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D100" r:id="rId107" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D102" r:id="rId106" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D98" r:id="rId107" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
     <hyperlink ref="D43" r:id="rId108" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
     <hyperlink ref="D42" r:id="rId109" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
     <hyperlink ref="D48" r:id="rId110" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
@@ -4457,9 +4398,9 @@
     <hyperlink ref="D7" r:id="rId112" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
     <hyperlink ref="D18" r:id="rId113" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
     <hyperlink ref="D16" r:id="rId114" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D146" r:id="rId115" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D106" r:id="rId116" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D98" r:id="rId117" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D144" r:id="rId115" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D104" r:id="rId116" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D96" r:id="rId117" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
     <hyperlink ref="D56" r:id="rId118" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
     <hyperlink ref="D4" r:id="rId119" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
     <hyperlink ref="D53" r:id="rId120" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
@@ -4471,25 +4412,23 @@
     <hyperlink ref="D57" r:id="rId126" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
     <hyperlink ref="D58" r:id="rId127" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
     <hyperlink ref="D55" r:id="rId128" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
-    <hyperlink ref="D72" r:id="rId129" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
-    <hyperlink ref="D76" r:id="rId130" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
-    <hyperlink ref="D79" r:id="rId131" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
-    <hyperlink ref="D82" r:id="rId132" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
-    <hyperlink ref="D78" r:id="rId133" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
-    <hyperlink ref="D77" r:id="rId134" xr:uid="{9FDF369F-FCEA-4430-AAC7-486CA14382DF}"/>
-    <hyperlink ref="D54" r:id="rId135" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
-    <hyperlink ref="D75" r:id="rId136" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
-    <hyperlink ref="D74" r:id="rId137" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
-    <hyperlink ref="D73" r:id="rId138" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
-    <hyperlink ref="D80" r:id="rId139" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D92" r:id="rId140" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
-    <hyperlink ref="D67" r:id="rId141" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
-    <hyperlink ref="D68" r:id="rId142" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
-    <hyperlink ref="D71" r:id="rId143" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
-    <hyperlink ref="D69" r:id="rId144" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
-    <hyperlink ref="D70" r:id="rId145" xr:uid="{9E6ACCBD-9408-4718-900A-60F09DD94F14}"/>
+    <hyperlink ref="D71" r:id="rId129" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
+    <hyperlink ref="D75" r:id="rId130" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
+    <hyperlink ref="D77" r:id="rId131" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
+    <hyperlink ref="D80" r:id="rId132" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
+    <hyperlink ref="D76" r:id="rId133" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
+    <hyperlink ref="D54" r:id="rId134" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
+    <hyperlink ref="D74" r:id="rId135" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
+    <hyperlink ref="D73" r:id="rId136" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
+    <hyperlink ref="D72" r:id="rId137" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
+    <hyperlink ref="D78" r:id="rId138" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
+    <hyperlink ref="D90" r:id="rId139" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D67" r:id="rId140" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
+    <hyperlink ref="D68" r:id="rId141" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
+    <hyperlink ref="D70" r:id="rId142" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
+    <hyperlink ref="D69" r:id="rId143" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId144"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AB61D1-E9E9-4B9C-9447-D19390B163F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614ED2CD-1856-471A-AAD7-A37C2A6796C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="494">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,16 +173,6 @@
     <t>这个模组修改了重生的机制，让你在你的死亡地点附近重生，免去了大量跑图的烦恼。</t>
   </si>
   <si>
-    <t>Better Totem Of Undying</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/10919.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为不死图腾添加新的功能，同时具有高度的可配置性</t>
-  </si>
-  <si>
     <t>Better Burning</t>
   </si>
   <si>
@@ -249,30 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装饰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carpeted Stairs &amp; Slabs</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/11366.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carpeted 可以让你在楼梯和台阶上铺地毯。</t>
-  </si>
-  <si>
-    <t>CERBON's API</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/13214.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模组 API </t>
-  </si>
-  <si>
     <t>Clean Swing Through Grass</t>
   </si>
   <si>
@@ -869,16 +835,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Moonlight Lib</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/4159.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selene是一个小库，用于作者的模组</t>
-  </si>
-  <si>
     <t>MoreJS</t>
   </si>
   <si>
@@ -1749,6 +1705,39 @@
   </si>
   <si>
     <t>这是模组 Dimension Stages 的非官方高版本重制版。目前支持 Forge 1.20.1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tectonic</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/8005.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tectonic 是一个大规模的世界生成数据包，它大量修改了主世界的生成规律。</t>
+  </si>
+  <si>
+    <t>Tectonic-Tweak</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/14178.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此模组调整了 Tectonic 模组的世界生成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geophilic Reforged – Biome Additions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/12834.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geophilic 的官方重置版，旨在以一种微妙而简单的方式改善一些原版主世界的生物群系！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1745,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1833,6 +1822,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1919,7 +1915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1940,6 +1936,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2250,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="A76:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B125" sqref="A125:XFD125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2283,7 +2280,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2296,37 +2293,37 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="4" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="9" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="4" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="9" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2341,52 +2338,52 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -2401,2034 +2398,2018 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="4" t="s">
-        <v>71</v>
+      <c r="A12" s="16"/>
+      <c r="B12" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="10" t="s">
-        <v>49</v>
+      <c r="A13" s="16"/>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>77</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
-        <v>381</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>382</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>383</v>
+        <v>93</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>384</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>104</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
-        <v>379</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
-        <v>378</v>
+        <v>115</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>380</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="D19" s="8" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>126</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="4" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>390</v>
+        <v>80</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4" t="s">
-        <v>321</v>
+        <v>309</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>175</v>
+        <v>271</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>265</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>278</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>281</v>
+        <v>112</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>123</v>
+        <v>144</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="8" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>288</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" s="8" t="s">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>302</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="8" t="s">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>304</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="8" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="8" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="D33" s="8" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>191</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>252</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="8" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>391</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="8" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D39" s="8" t="s">
-        <v>292</v>
+        <v>102</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="15"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>217</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="8" t="s">
-        <v>218</v>
+        <v>355</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>219</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>349</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="D42" s="8" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="15"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>363</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="8" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>365</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="15"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D44" s="8" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>351</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="8" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="4" t="s">
-        <v>264</v>
+      <c r="A46" s="16"/>
+      <c r="B46" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="15"/>
-      <c r="B47" s="10" t="s">
-        <v>239</v>
+      <c r="A47" s="16"/>
+      <c r="B47" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="4" t="s">
-        <v>370</v>
+      <c r="A48" s="16"/>
+      <c r="B48" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>371</v>
+        <v>258</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="10" t="s">
-        <v>270</v>
+      <c r="A49" s="16"/>
+      <c r="B49" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>409</v>
+        <v>250</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D50" s="8" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="15"/>
+      <c r="A51" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="B51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>39</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="A52" s="17"/>
       <c r="B52" s="4" t="s">
-        <v>208</v>
+        <v>404</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>209</v>
+        <v>405</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>210</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>447</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="D53" s="8" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="16"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="4" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="4" t="s">
-        <v>403</v>
+      <c r="A56" s="17"/>
+      <c r="B56" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="16"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="10" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="16"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="10" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="10" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>429</v>
+        <v>411</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="16"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="10" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="16"/>
-      <c r="B61" s="10" t="s">
-        <v>425</v>
+      <c r="A61" s="17"/>
+      <c r="B61" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>434</v>
+        <v>202</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="16"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>388</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="16"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="8" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="16"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="4" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="8" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="16"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
-        <v>289</v>
+        <v>472</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>290</v>
+        <v>217</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="16"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="4" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
-        <v>227</v>
+        <v>471</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="16"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="17"/>
+      <c r="B68" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="8" t="s">
+      <c r="E68" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>489</v>
-      </c>
     </row>
     <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>496</v>
+      <c r="A69" s="17"/>
+      <c r="B69" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>491</v>
-      </c>
+      <c r="A70" s="17"/>
+      <c r="B70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>493</v>
+        <v>18</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="4" t="s">
-        <v>15</v>
+      <c r="A71" s="17"/>
+      <c r="B71" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="8" t="s">
-        <v>18</v>
+        <v>459</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>17</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="10" t="s">
-        <v>471</v>
+      <c r="A72" s="17"/>
+      <c r="B72" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="8" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="16"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>451</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="D73" s="8" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="16"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A75" s="17"/>
+      <c r="B75" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A76" s="17"/>
+      <c r="B76" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="17"/>
+      <c r="B77" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="4" t="s">
+    </row>
+    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="17"/>
+      <c r="B78" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="C75" s="4" t="s">
+    </row>
+    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A79" s="17"/>
+      <c r="B79" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="C79" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="D79" s="8" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>450</v>
-      </c>
       <c r="E79" s="4" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="16"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>453</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="8" t="s">
-        <v>454</v>
+        <v>118</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>455</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="16"/>
-      <c r="B81" s="4" t="s">
-        <v>127</v>
+      <c r="A81" s="17"/>
+      <c r="B81" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="8" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="16"/>
-      <c r="B82" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C82" s="4"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D82" s="8" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="16"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="8" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="16"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="4" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="8" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>178</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="16"/>
-      <c r="B85" s="4" t="s">
-        <v>99</v>
+      <c r="A85" s="18"/>
+      <c r="B85" s="12" t="s">
+        <v>485</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>395</v>
+        <v>486</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>65</v>
+      <c r="A86" s="18"/>
+      <c r="B86" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>67</v>
+        <v>489</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="17"/>
-      <c r="B87" s="4" t="s">
-        <v>328</v>
+      <c r="A87" s="18"/>
+      <c r="B87" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>330</v>
+        <v>492</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="17"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>332</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A90" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>481</v>
-      </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="18"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="4"/>
+        <v>465</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="D91" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>162</v>
+        <v>467</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="18"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>306</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="8" t="s">
-        <v>307</v>
+        <v>151</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>308</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="18"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="4" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="18"/>
+      <c r="A94" s="19"/>
       <c r="B94" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="D94" s="8" t="s">
-        <v>168</v>
+        <v>324</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>169</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="19" t="s">
-        <v>34</v>
-      </c>
+      <c r="A95" s="19"/>
       <c r="B95" s="4" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="19"/>
-      <c r="B96" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="19"/>
-      <c r="B97" s="5" t="s">
-        <v>116</v>
+      <c r="A97" s="20"/>
+      <c r="B97" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="5" t="s">
-        <v>358</v>
+        <v>106</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>359</v>
+        <v>107</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>360</v>
+        <v>108</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>361</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="19"/>
-      <c r="B99" s="4" t="s">
-        <v>81</v>
+      <c r="A99" s="20"/>
+      <c r="B99" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="12" t="s">
-        <v>108</v>
-      </c>
+      <c r="A100" s="20"/>
       <c r="B100" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D100" s="8" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="12"/>
+      <c r="A101" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="B101" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>318</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C101" s="4"/>
       <c r="D101" s="8" t="s">
-        <v>319</v>
+        <v>101</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>320</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="12"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="4" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C103" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="D103" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>268</v>
+        <v>343</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="4" t="s">
-        <v>396</v>
+        <v>254</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>398</v>
+        <v>256</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="12"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="4" t="s">
-        <v>130</v>
+        <v>383</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="13"/>
+      <c r="B106" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A107" s="13"/>
+      <c r="B107" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="13"/>
+      <c r="B108" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="D108" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A109" s="13"/>
+      <c r="B109" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A110" s="13"/>
+      <c r="B110" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="12"/>
-      <c r="B106" s="5" t="s">
+      <c r="C110" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="12"/>
-      <c r="B107" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="12"/>
-      <c r="B108" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="12"/>
-      <c r="B109" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A110" s="12"/>
-      <c r="B110" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>244</v>
-      </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A111" s="12"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="4" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="8" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A112" s="12"/>
-      <c r="B112" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="A112" s="13"/>
+      <c r="B112" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C112" s="4"/>
       <c r="D112" s="8" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="12"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D113" s="8" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="12"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>310</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C114" s="4"/>
       <c r="D114" s="8" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="12"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="5" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>257</v>
+        <v>298</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="12"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="5" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A117" s="12"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="5" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>207</v>
+        <v>286</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="12"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="5" t="s">
-        <v>347</v>
+        <v>194</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>348</v>
+        <v>195</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A119" s="12"/>
-      <c r="B119" s="4" t="s">
-        <v>146</v>
+      <c r="A119" s="13"/>
+      <c r="B119" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>147</v>
+        <v>335</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="12"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A121" s="13"/>
+      <c r="B121" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C120" s="4"/>
-      <c r="D120" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="12"/>
-      <c r="B121" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C121" s="4"/>
       <c r="D121" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A122" s="13"/>
       <c r="B122" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="13"/>
+      <c r="A123" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="B123" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>415</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="13"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="13"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="13"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="13"/>
+      <c r="A127" s="14"/>
       <c r="B127" s="4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A128" s="13"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A129" s="13"/>
+      <c r="A129" s="14"/>
       <c r="B129" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A130" s="13"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A131" s="13"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A132" s="13"/>
+      <c r="A132" s="14"/>
       <c r="B132" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A133" s="13"/>
+      <c r="A133" s="14"/>
       <c r="B133" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A134" s="13"/>
+      <c r="A134" s="14"/>
       <c r="B134" s="4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A135" s="13"/>
+      <c r="A135" s="14"/>
       <c r="B135" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A136" s="13"/>
+      <c r="A136" s="14"/>
       <c r="B136" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="13"/>
+      <c r="A137" s="14"/>
       <c r="B137" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A138" s="13"/>
+      <c r="A138" s="14"/>
       <c r="B138" s="4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A139" s="13"/>
+      <c r="A139" s="14"/>
       <c r="B139" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A140" s="13"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="4" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>277</v>
+        <v>380</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A141" s="13"/>
+      <c r="A141" s="14"/>
       <c r="B141" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C141" s="4"/>
+        <v>300</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="D141" s="8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A142" s="13"/>
+      <c r="A142" s="15" t="s">
+        <v>326</v>
+      </c>
       <c r="B142" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>314</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C142" s="4"/>
       <c r="D142" s="8" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A143" s="14" t="s">
-        <v>339</v>
-      </c>
+      <c r="A143" s="15"/>
       <c r="B143" s="4" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="8" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A144" s="14"/>
-      <c r="B144" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A100:A121"/>
-    <mergeCell ref="A122:A142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A85"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A101:A122"/>
+    <mergeCell ref="A123:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A2:A50"/>
+    <mergeCell ref="A51:A84"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A100"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D5" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D121" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D122" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D9" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D83" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D95" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
-    <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D122" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
-    <hyperlink ref="D31" r:id="rId12" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D123" r:id="rId13" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
-    <hyperlink ref="D14" r:id="rId14" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D89" r:id="rId15" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D86" r:id="rId16" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
-    <hyperlink ref="D124" r:id="rId17" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
-    <hyperlink ref="D12" r:id="rId18" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
-    <hyperlink ref="D15" r:id="rId19" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D125" r:id="rId20" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D99" r:id="rId21" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D126" r:id="rId22" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
-    <hyperlink ref="D22" r:id="rId23" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D127" r:id="rId24" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E127" r:id="rId25" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D128" r:id="rId26" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D129" r:id="rId27" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D85" r:id="rId28" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
-    <hyperlink ref="D17" r:id="rId29" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D82" r:id="rId30" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D100" r:id="rId31" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
-    <hyperlink ref="D40" r:id="rId32" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D97" r:id="rId33" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
-    <hyperlink ref="D27" r:id="rId34" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
-    <hyperlink ref="D19" r:id="rId35" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D81" r:id="rId36" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D105" r:id="rId37" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D106" r:id="rId38" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D107" r:id="rId39" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D120" r:id="rId40" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D109" r:id="rId41" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D119" r:id="rId42" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
-    <hyperlink ref="D37" r:id="rId43" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
-    <hyperlink ref="D28" r:id="rId44" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D130" r:id="rId45" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D131" r:id="rId46" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D91" r:id="rId47" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D112" r:id="rId48" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D94" r:id="rId49" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
-    <hyperlink ref="D32" r:id="rId50" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D84" r:id="rId51" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
-    <hyperlink ref="D29" r:id="rId52" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D132" r:id="rId53" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
-    <hyperlink ref="D21" r:id="rId54" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
-    <hyperlink ref="D34" r:id="rId55" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
-    <hyperlink ref="D36" r:id="rId56" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D133" r:id="rId57" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D134" r:id="rId58" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D135" r:id="rId59" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D117" r:id="rId60" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
-    <hyperlink ref="D52" r:id="rId61" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
-    <hyperlink ref="D62" r:id="rId62" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D111" r:id="rId63" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
-    <hyperlink ref="D41" r:id="rId64" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
-    <hyperlink ref="D33" r:id="rId65" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
-    <hyperlink ref="D63" r:id="rId66" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
-    <hyperlink ref="D66" r:id="rId67" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D113" r:id="rId68" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D136" r:id="rId69" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D137" r:id="rId70" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
-    <hyperlink ref="D44" r:id="rId71" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D110" r:id="rId72" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D138" r:id="rId73" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
-    <hyperlink ref="D64" r:id="rId74" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
-    <hyperlink ref="D35" r:id="rId75" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D115" r:id="rId76" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
-    <hyperlink ref="D38" r:id="rId77" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
-    <hyperlink ref="D50" r:id="rId78" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
-    <hyperlink ref="D46" r:id="rId79" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D103" r:id="rId80" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
-    <hyperlink ref="D49" r:id="rId81" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
-    <hyperlink ref="E49" r:id="rId82" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D139" r:id="rId83" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D140" r:id="rId84" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
-    <hyperlink ref="D26" r:id="rId85" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
-    <hyperlink ref="D25" r:id="rId86" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
-    <hyperlink ref="D20" r:id="rId87" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D65" r:id="rId88" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
-    <hyperlink ref="D39" r:id="rId89" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D141" r:id="rId90" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D116" r:id="rId91" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
-    <hyperlink ref="D30" r:id="rId92" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D92" r:id="rId93" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D114" r:id="rId94" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D142" r:id="rId95" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D101" r:id="rId96" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
-    <hyperlink ref="D23" r:id="rId97" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D108" r:id="rId98" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D87" r:id="rId99" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D88" r:id="rId100" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D93" r:id="rId101" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D143" r:id="rId102" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
-    <hyperlink ref="D8" r:id="rId103" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D118" r:id="rId104" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
-    <hyperlink ref="D45" r:id="rId105" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D102" r:id="rId106" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D98" r:id="rId107" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
-    <hyperlink ref="D43" r:id="rId108" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
-    <hyperlink ref="D42" r:id="rId109" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
-    <hyperlink ref="D48" r:id="rId110" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
-    <hyperlink ref="D6" r:id="rId111" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
-    <hyperlink ref="D7" r:id="rId112" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
-    <hyperlink ref="D18" r:id="rId113" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
-    <hyperlink ref="D16" r:id="rId114" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D144" r:id="rId115" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D104" r:id="rId116" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D96" r:id="rId117" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D56" r:id="rId118" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
-    <hyperlink ref="D4" r:id="rId119" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
-    <hyperlink ref="D53" r:id="rId120" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
-    <hyperlink ref="D24" r:id="rId121" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
-    <hyperlink ref="D3" r:id="rId122" xr:uid="{8EDF0D24-9EE4-4F83-881A-3F1842E82DB7}"/>
-    <hyperlink ref="D60" r:id="rId123" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
-    <hyperlink ref="D61" r:id="rId124" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
-    <hyperlink ref="D59" r:id="rId125" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
-    <hyperlink ref="D57" r:id="rId126" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
-    <hyperlink ref="D58" r:id="rId127" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
-    <hyperlink ref="D55" r:id="rId128" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
-    <hyperlink ref="D71" r:id="rId129" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
-    <hyperlink ref="D75" r:id="rId130" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
-    <hyperlink ref="D77" r:id="rId131" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
-    <hyperlink ref="D80" r:id="rId132" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
-    <hyperlink ref="D76" r:id="rId133" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
-    <hyperlink ref="D54" r:id="rId134" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
-    <hyperlink ref="D74" r:id="rId135" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
-    <hyperlink ref="D73" r:id="rId136" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
-    <hyperlink ref="D72" r:id="rId137" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
-    <hyperlink ref="D78" r:id="rId138" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D90" r:id="rId139" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
-    <hyperlink ref="D67" r:id="rId140" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
-    <hyperlink ref="D68" r:id="rId141" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
-    <hyperlink ref="D70" r:id="rId142" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
-    <hyperlink ref="D69" r:id="rId143" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
+    <hyperlink ref="D82" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D96" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D50" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
+    <hyperlink ref="D123" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
+    <hyperlink ref="D30" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
+    <hyperlink ref="D124" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D13" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
+    <hyperlink ref="D90" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
+    <hyperlink ref="D125" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D100" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D126" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
+    <hyperlink ref="D127" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E127" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D128" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D129" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D84" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D16" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
+    <hyperlink ref="D81" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D101" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D39" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
+    <hyperlink ref="D98" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D26" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
+    <hyperlink ref="D18" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
+    <hyperlink ref="D80" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D106" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D107" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D108" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D121" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D110" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D120" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D36" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
+    <hyperlink ref="D27" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
+    <hyperlink ref="D130" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D131" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D92" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D113" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D95" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D31" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
+    <hyperlink ref="D83" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D28" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
+    <hyperlink ref="D132" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D20" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
+    <hyperlink ref="D33" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
+    <hyperlink ref="D35" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
+    <hyperlink ref="D133" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D134" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D135" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D118" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D51" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
+    <hyperlink ref="D61" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
+    <hyperlink ref="D112" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D40" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
+    <hyperlink ref="D32" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
+    <hyperlink ref="D62" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
+    <hyperlink ref="D65" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
+    <hyperlink ref="D114" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D136" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D137" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D43" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
+    <hyperlink ref="D111" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D63" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
+    <hyperlink ref="D34" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
+    <hyperlink ref="D116" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D37" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
+    <hyperlink ref="D49" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
+    <hyperlink ref="D45" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
+    <hyperlink ref="D104" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D48" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
+    <hyperlink ref="E48" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
+    <hyperlink ref="D138" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D139" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D25" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
+    <hyperlink ref="D24" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
+    <hyperlink ref="D19" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
+    <hyperlink ref="D64" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D38" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
+    <hyperlink ref="D140" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D117" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D29" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
+    <hyperlink ref="D93" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D115" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D141" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D102" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D22" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
+    <hyperlink ref="D109" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D88" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D89" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D94" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D142" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D8" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
+    <hyperlink ref="D119" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D44" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
+    <hyperlink ref="D103" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D99" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D42" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
+    <hyperlink ref="D41" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
+    <hyperlink ref="D47" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
+    <hyperlink ref="D6" r:id="rId107" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
+    <hyperlink ref="D7" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
+    <hyperlink ref="D17" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
+    <hyperlink ref="D15" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
+    <hyperlink ref="D143" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D105" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D97" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D55" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D4" r:id="rId115" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
+    <hyperlink ref="D52" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
+    <hyperlink ref="D23" r:id="rId117" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
+    <hyperlink ref="D3" r:id="rId118" xr:uid="{8EDF0D24-9EE4-4F83-881A-3F1842E82DB7}"/>
+    <hyperlink ref="D59" r:id="rId119" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
+    <hyperlink ref="D60" r:id="rId120" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
+    <hyperlink ref="D58" r:id="rId121" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
+    <hyperlink ref="D56" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
+    <hyperlink ref="D57" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
+    <hyperlink ref="D54" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
+    <hyperlink ref="D70" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
+    <hyperlink ref="D74" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
+    <hyperlink ref="D76" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
+    <hyperlink ref="D79" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
+    <hyperlink ref="D75" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
+    <hyperlink ref="D53" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
+    <hyperlink ref="D73" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
+    <hyperlink ref="D72" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
+    <hyperlink ref="D71" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
+    <hyperlink ref="D77" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
+    <hyperlink ref="D91" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D66" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
+    <hyperlink ref="D67" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
+    <hyperlink ref="D69" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
+    <hyperlink ref="D68" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
+    <hyperlink ref="D85" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
+    <hyperlink ref="D86" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
+    <hyperlink ref="D87" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId144"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId143"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614ED2CD-1856-471A-AAD7-A37C2A6796C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAEDA28-CB55-439C-912F-B5C41E7F9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="502">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1738,6 +1738,37 @@
   </si>
   <si>
     <t>Geophilic 的官方重置版，旨在以一种微妙而简单的方式改善一些原版主世界的生物群系！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventHorizon</t>
+  </si>
+  <si>
+    <t>事件视界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/11247.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是 Revelationary 的 Forge 移植版。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better Advancements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更好的进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/1530.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更好的成就的继任者，为我的世界 1.12+ 的新进度系统而制作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1915,7 +1946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1937,6 +1968,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2247,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B125" sqref="A125:XFD125"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2312,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2297,2119 +2329,2151 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17"/>
+      <c r="B4" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="17"/>
+      <c r="B5" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="4" t="s">
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="17"/>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A7" s="17"/>
+      <c r="B7" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="17"/>
+      <c r="B12" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>62</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
-        <v>55</v>
+      <c r="A13" s="17"/>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="17"/>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A15" s="17"/>
+      <c r="B15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="17"/>
+      <c r="B16" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="17"/>
+      <c r="B17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="17"/>
+      <c r="B18" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="17"/>
+      <c r="B19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="17"/>
+      <c r="B20" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="16"/>
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="16"/>
-      <c r="B23" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="4" t="s">
-        <v>269</v>
+        <v>309</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="16"/>
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="17"/>
+      <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="4" t="s">
+    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="17"/>
+      <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="16"/>
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="17"/>
+      <c r="B29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="8" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="16"/>
-      <c r="B29" s="4" t="s">
+    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A30" s="17"/>
+      <c r="B30" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="4" t="s">
+    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A31" s="17"/>
+      <c r="B31" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="8" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A33" s="17"/>
+      <c r="B33" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A34" s="17"/>
+      <c r="B34" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
-      <c r="B34" s="4" t="s">
+    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A35" s="17"/>
+      <c r="B35" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="4" t="s">
+    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A36" s="17"/>
+      <c r="B36" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8" t="s">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="4" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A39" s="17"/>
+      <c r="B39" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="4" t="s">
+    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D40" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="16"/>
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="8" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="16"/>
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A43" s="17"/>
+      <c r="B43" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="16"/>
-      <c r="B43" s="4" t="s">
+    <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A44" s="17"/>
+      <c r="B44" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="8" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="16"/>
-      <c r="B44" s="4" t="s">
+    <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A45" s="17"/>
+      <c r="B45" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="16"/>
-      <c r="B45" s="4" t="s">
+    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="17"/>
+      <c r="B46" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="16"/>
-      <c r="B46" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="4" t="s">
-        <v>357</v>
+      <c r="A47" s="17"/>
+      <c r="B47" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="8" t="s">
-        <v>356</v>
+        <v>230</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>358</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="16"/>
-      <c r="B48" s="10" t="s">
-        <v>257</v>
+      <c r="A48" s="17"/>
+      <c r="B48" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>396</v>
+        <v>356</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="4" t="s">
-        <v>248</v>
+      <c r="A49" s="17"/>
+      <c r="B49" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A50" s="17"/>
+      <c r="B50" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="16"/>
-      <c r="B50" s="4" t="s">
+    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A51" s="17"/>
+      <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E51" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="17" t="s">
+    <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A52" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="17"/>
-      <c r="B52" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="18"/>
+      <c r="B53" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="17"/>
-      <c r="B53" s="4" t="s">
+    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="18"/>
+      <c r="B54" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A55" s="18"/>
+      <c r="B55" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4" t="s">
-        <v>390</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="8" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>391</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="17"/>
-      <c r="B56" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C56" s="4"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D56" s="8" t="s">
-        <v>418</v>
+        <v>496</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>419</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="17"/>
-      <c r="B57" s="10" t="s">
-        <v>422</v>
+      <c r="A57" s="18"/>
+      <c r="B57" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="17"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="10" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="17"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="10" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>420</v>
+        <v>423</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="17"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="17"/>
-      <c r="B61" s="4" t="s">
-        <v>201</v>
+      <c r="A61" s="18"/>
+      <c r="B61" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>375</v>
+        <v>411</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="17"/>
-      <c r="B62" s="4" t="s">
-        <v>213</v>
+      <c r="A62" s="18"/>
+      <c r="B62" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>215</v>
+        <v>413</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="17"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="4" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="8" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>236</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="17"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="4" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="8" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="17"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="4" t="s">
-        <v>472</v>
+        <v>235</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>216</v>
+        <v>237</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="17"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="4" t="s">
-        <v>469</v>
+        <v>276</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A68" s="18"/>
+      <c r="B68" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="17"/>
-      <c r="B67" s="4" t="s">
+    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="18"/>
+      <c r="B69" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D69" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="17"/>
-      <c r="B68" s="4" t="s">
+    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A70" s="18"/>
+      <c r="B70" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="17"/>
-      <c r="B69" s="5" t="s">
+    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A71" s="18"/>
+      <c r="B71" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="17"/>
-      <c r="B70" s="4" t="s">
+    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A72" s="18"/>
+      <c r="B72" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="17"/>
-      <c r="B71" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="17"/>
-      <c r="B72" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A73" s="18"/>
+      <c r="B73" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A74" s="18"/>
+      <c r="B74" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="17"/>
-      <c r="B73" s="4" t="s">
+    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A75" s="18"/>
+      <c r="B75" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="17"/>
-      <c r="B74" s="4" t="s">
+    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="17"/>
-      <c r="B75" s="4" t="s">
+    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="18"/>
+      <c r="B77" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="17"/>
-      <c r="B76" s="4" t="s">
+    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="18"/>
+      <c r="B78" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="8" t="s">
+      <c r="C78" s="4"/>
+      <c r="D78" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="17"/>
-      <c r="B77" s="5" t="s">
+    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A79" s="18"/>
+      <c r="B79" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="17"/>
-      <c r="B78" s="4" t="s">
+    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A80" s="18"/>
+      <c r="B80" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="17"/>
-      <c r="B79" s="4" t="s">
+    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A81" s="18"/>
+      <c r="B81" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="17"/>
-      <c r="B80" s="4" t="s">
+    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A82" s="18"/>
+      <c r="B82" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="8" t="s">
+      <c r="C82" s="4"/>
+      <c r="D82" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="17"/>
-      <c r="B81" s="5" t="s">
+    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="18"/>
+      <c r="B83" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="17"/>
-      <c r="B82" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="17"/>
-      <c r="B83" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="8" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="17"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D84" s="8" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="18"/>
-      <c r="B85" s="12" t="s">
-        <v>485</v>
+      <c r="B85" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>487</v>
+        <v>166</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="18"/>
-      <c r="B86" s="12" t="s">
-        <v>488</v>
+      <c r="B86" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>490</v>
+        <v>90</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="18"/>
+      <c r="A87" s="19"/>
       <c r="B87" s="12" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="4" t="s">
-        <v>315</v>
+      <c r="A88" s="19"/>
+      <c r="B88" s="12" t="s">
+        <v>488</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>317</v>
+        <v>489</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="A89" s="19"/>
+      <c r="B89" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>321</v>
+        <v>492</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="A90" s="19"/>
       <c r="B90" s="4" t="s">
-        <v>58</v>
+        <v>315</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>60</v>
+        <v>316</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="19"/>
       <c r="B91" s="4" t="s">
-        <v>465</v>
+        <v>318</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>466</v>
+        <v>319</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>468</v>
+        <v>320</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="B92" s="4" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A93" s="20"/>
+      <c r="B93" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A94" s="20"/>
+      <c r="B94" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="19"/>
-      <c r="B93" s="4" t="s">
+    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A95" s="20"/>
+      <c r="B95" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E95" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="19"/>
-      <c r="B94" s="4" t="s">
+    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="20"/>
+      <c r="B96" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="19"/>
-      <c r="B95" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="20"/>
       <c r="B97" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A98" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A99" s="21"/>
+      <c r="B99" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D99" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="20"/>
-      <c r="B98" s="5" t="s">
+    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A100" s="21"/>
+      <c r="B100" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="20"/>
-      <c r="B99" s="5" t="s">
+    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="21"/>
+      <c r="B101" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="20"/>
-      <c r="B100" s="4" t="s">
+    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A102" s="21"/>
+      <c r="B102" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="13" t="s">
+    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="8" t="s">
+      <c r="C103" s="4"/>
+      <c r="D103" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="13"/>
-      <c r="B102" s="4" t="s">
+    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="14"/>
+      <c r="B104" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="13"/>
-      <c r="B103" s="4" t="s">
+    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A105" s="14"/>
+      <c r="B105" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D105" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="13"/>
-      <c r="B104" s="4" t="s">
+    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="14"/>
+      <c r="B106" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="13"/>
-      <c r="B105" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="13"/>
-      <c r="B106" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A107" s="14"/>
+      <c r="B107" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="14"/>
+      <c r="B108" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="13"/>
-      <c r="B107" s="5" t="s">
+    <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A109" s="14"/>
+      <c r="B109" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D109" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="13"/>
-      <c r="B108" s="5" t="s">
+    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A110" s="14"/>
+      <c r="B110" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D110" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="13"/>
-      <c r="B109" s="5" t="s">
+    <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A111" s="14"/>
+      <c r="B111" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A110" s="13"/>
-      <c r="B110" s="4" t="s">
+    <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A112" s="14"/>
+      <c r="B112" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A111" s="13"/>
-      <c r="B111" s="4" t="s">
+    <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A113" s="14"/>
+      <c r="B113" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="8" t="s">
+      <c r="C113" s="4"/>
+      <c r="D113" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A112" s="13"/>
-      <c r="B112" s="4" t="s">
+    <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A114" s="14"/>
+      <c r="B114" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="13"/>
-      <c r="B113" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="13"/>
-      <c r="B114" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A115" s="14"/>
+      <c r="B115" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A116" s="14"/>
+      <c r="B116" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="13"/>
-      <c r="B115" s="5" t="s">
+    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A117" s="14"/>
+      <c r="B117" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="13"/>
-      <c r="B116" s="5" t="s">
+    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="14"/>
+      <c r="B118" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E118" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A117" s="13"/>
-      <c r="B117" s="5" t="s">
+    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A119" s="14"/>
+      <c r="B119" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="13"/>
-      <c r="B118" s="5" t="s">
+    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A120" s="14"/>
+      <c r="B120" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A119" s="13"/>
-      <c r="B119" s="5" t="s">
+    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A121" s="14"/>
+      <c r="B121" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="13"/>
-      <c r="B120" s="4" t="s">
+    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A122" s="14"/>
+      <c r="B122" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D122" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="13"/>
-      <c r="B121" s="4" t="s">
+    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A123" s="14"/>
+      <c r="B123" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C121" s="4"/>
-      <c r="D121" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="13"/>
-      <c r="B122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="4"/>
-      <c r="D122" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="8" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="4" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="8" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>402</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="14"/>
+      <c r="A125" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="B125" s="4" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="8" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="14"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>77</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="14"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>401</v>
+        <v>69</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A128" s="14"/>
+      <c r="A128" s="15"/>
       <c r="B128" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A129" s="14"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>400</v>
+        <v>83</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A130" s="14"/>
+      <c r="A130" s="15"/>
       <c r="B130" s="4" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>399</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A131" s="14"/>
+      <c r="A131" s="15"/>
       <c r="B131" s="4" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A132" s="14"/>
+      <c r="A132" s="15"/>
       <c r="B132" s="4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A133" s="14"/>
+      <c r="A133" s="15"/>
       <c r="B133" s="4" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>187</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A134" s="14"/>
+      <c r="A134" s="15"/>
       <c r="B134" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A135" s="14"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A136" s="14"/>
+      <c r="A136" s="15"/>
       <c r="B136" s="4" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="14"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="4" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>397</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A138" s="14"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="4" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A139" s="14"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="4" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>264</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A140" s="14"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="4" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>380</v>
+        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A141" s="14"/>
+      <c r="A141" s="15"/>
       <c r="B141" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>301</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="8" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A142" s="15" t="s">
-        <v>326</v>
-      </c>
+      <c r="A142" s="15"/>
       <c r="B142" s="4" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="8" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="15"/>
       <c r="B143" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A144" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A145" s="16"/>
+      <c r="B145" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="8" t="s">
+      <c r="C145" s="4"/>
+      <c r="D145" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E145" s="4" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A101:A122"/>
-    <mergeCell ref="A123:A141"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="A2:A50"/>
-    <mergeCell ref="A51:A84"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A90:A95"/>
-    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A103:A124"/>
+    <mergeCell ref="A125:A143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A2:A51"/>
+    <mergeCell ref="A52:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D122" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D82" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D96" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
-    <hyperlink ref="D50" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D123" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
-    <hyperlink ref="D30" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D124" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
-    <hyperlink ref="D13" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D90" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
-    <hyperlink ref="D14" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D125" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D100" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D126" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D127" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E127" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D128" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D129" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D84" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
-    <hyperlink ref="D16" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D81" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D101" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
-    <hyperlink ref="D39" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D98" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
-    <hyperlink ref="D26" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
-    <hyperlink ref="D18" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D80" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D106" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D107" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D108" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D121" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D110" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D120" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
-    <hyperlink ref="D36" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
-    <hyperlink ref="D27" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D130" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D131" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D92" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D113" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D95" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
-    <hyperlink ref="D31" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D83" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
-    <hyperlink ref="D28" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D132" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
-    <hyperlink ref="D20" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
-    <hyperlink ref="D33" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
-    <hyperlink ref="D35" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D133" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D134" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D135" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D118" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
-    <hyperlink ref="D51" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
-    <hyperlink ref="D61" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D112" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
-    <hyperlink ref="D40" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
-    <hyperlink ref="D32" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
-    <hyperlink ref="D62" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D114" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D136" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D137" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
-    <hyperlink ref="D43" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D111" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D63" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
-    <hyperlink ref="D34" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D116" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
-    <hyperlink ref="D37" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
-    <hyperlink ref="D49" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
-    <hyperlink ref="D45" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D104" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
-    <hyperlink ref="D48" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
-    <hyperlink ref="E48" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D138" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D139" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
-    <hyperlink ref="D25" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
-    <hyperlink ref="D24" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
-    <hyperlink ref="D19" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D64" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
-    <hyperlink ref="D38" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D140" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D117" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
-    <hyperlink ref="D29" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D93" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D115" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D141" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D102" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
-    <hyperlink ref="D22" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D109" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D88" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D89" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D94" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D142" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
-    <hyperlink ref="D8" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D119" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
-    <hyperlink ref="D44" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D103" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D99" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
-    <hyperlink ref="D42" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
-    <hyperlink ref="D41" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
-    <hyperlink ref="D47" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
-    <hyperlink ref="D6" r:id="rId107" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
-    <hyperlink ref="D7" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
-    <hyperlink ref="D17" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
-    <hyperlink ref="D15" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D143" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D105" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D97" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D55" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
-    <hyperlink ref="D4" r:id="rId115" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
-    <hyperlink ref="D52" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
-    <hyperlink ref="D23" r:id="rId117" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
-    <hyperlink ref="D3" r:id="rId118" xr:uid="{8EDF0D24-9EE4-4F83-881A-3F1842E82DB7}"/>
-    <hyperlink ref="D59" r:id="rId119" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
-    <hyperlink ref="D60" r:id="rId120" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
-    <hyperlink ref="D58" r:id="rId121" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
-    <hyperlink ref="D56" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
-    <hyperlink ref="D57" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
-    <hyperlink ref="D54" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
-    <hyperlink ref="D70" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
-    <hyperlink ref="D74" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
-    <hyperlink ref="D76" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
-    <hyperlink ref="D79" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
-    <hyperlink ref="D75" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
-    <hyperlink ref="D53" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
-    <hyperlink ref="D73" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
-    <hyperlink ref="D72" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
-    <hyperlink ref="D71" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
-    <hyperlink ref="D77" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D91" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
-    <hyperlink ref="D66" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
-    <hyperlink ref="D67" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
-    <hyperlink ref="D69" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
-    <hyperlink ref="D68" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
-    <hyperlink ref="D85" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
-    <hyperlink ref="D86" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
-    <hyperlink ref="D87" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
+    <hyperlink ref="D124" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
+    <hyperlink ref="D84" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D98" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
+    <hyperlink ref="D125" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
+    <hyperlink ref="D31" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
+    <hyperlink ref="D126" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
+    <hyperlink ref="D92" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D12" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
+    <hyperlink ref="D15" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
+    <hyperlink ref="D127" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D102" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D128" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
+    <hyperlink ref="D129" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E129" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D130" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D131" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D86" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D17" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
+    <hyperlink ref="D83" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D103" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D40" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
+    <hyperlink ref="D100" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D27" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
+    <hyperlink ref="D19" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
+    <hyperlink ref="D82" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D108" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D109" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D110" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D123" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D112" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D122" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D37" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
+    <hyperlink ref="D28" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
+    <hyperlink ref="D132" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D133" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D94" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D115" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D97" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D32" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
+    <hyperlink ref="D85" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D29" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
+    <hyperlink ref="D134" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D21" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
+    <hyperlink ref="D34" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
+    <hyperlink ref="D36" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
+    <hyperlink ref="D135" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D136" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D137" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D120" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D52" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
+    <hyperlink ref="D63" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
+    <hyperlink ref="D114" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D41" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
+    <hyperlink ref="D33" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
+    <hyperlink ref="D64" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
+    <hyperlink ref="D67" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
+    <hyperlink ref="D116" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D138" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D139" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D44" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
+    <hyperlink ref="D113" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D65" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
+    <hyperlink ref="D35" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
+    <hyperlink ref="D118" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D38" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
+    <hyperlink ref="D50" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
+    <hyperlink ref="D46" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
+    <hyperlink ref="D106" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D49" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
+    <hyperlink ref="E49" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
+    <hyperlink ref="D140" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D141" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D26" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
+    <hyperlink ref="D25" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
+    <hyperlink ref="D20" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
+    <hyperlink ref="D66" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D39" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
+    <hyperlink ref="D142" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D119" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D30" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
+    <hyperlink ref="D95" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D117" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D143" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D104" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D23" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
+    <hyperlink ref="D111" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D90" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D91" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D96" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D144" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D9" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
+    <hyperlink ref="D121" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D45" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
+    <hyperlink ref="D105" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D101" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D43" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
+    <hyperlink ref="D42" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
+    <hyperlink ref="D48" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
+    <hyperlink ref="D7" r:id="rId107" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
+    <hyperlink ref="D8" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
+    <hyperlink ref="D18" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
+    <hyperlink ref="D16" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
+    <hyperlink ref="D145" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D107" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D99" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D57" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D5" r:id="rId115" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
+    <hyperlink ref="D53" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
+    <hyperlink ref="D24" r:id="rId117" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
+    <hyperlink ref="D4" r:id="rId118" xr:uid="{8EDF0D24-9EE4-4F83-881A-3F1842E82DB7}"/>
+    <hyperlink ref="D61" r:id="rId119" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
+    <hyperlink ref="D62" r:id="rId120" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
+    <hyperlink ref="D60" r:id="rId121" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
+    <hyperlink ref="D58" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
+    <hyperlink ref="D59" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
+    <hyperlink ref="D55" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
+    <hyperlink ref="D72" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
+    <hyperlink ref="D76" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
+    <hyperlink ref="D78" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
+    <hyperlink ref="D81" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
+    <hyperlink ref="D77" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
+    <hyperlink ref="D54" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
+    <hyperlink ref="D75" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
+    <hyperlink ref="D74" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
+    <hyperlink ref="D73" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
+    <hyperlink ref="D79" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
+    <hyperlink ref="D93" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D68" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
+    <hyperlink ref="D69" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
+    <hyperlink ref="D71" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
+    <hyperlink ref="D70" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
+    <hyperlink ref="D87" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
+    <hyperlink ref="D88" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
+    <hyperlink ref="D89" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
+    <hyperlink ref="D56" r:id="rId143" xr:uid="{93BAD783-32E3-48FB-BE1A-C1F28D0BBCFA}"/>
+    <hyperlink ref="D3" r:id="rId144" xr:uid="{429A9577-FBB1-4B55-BF26-0CC06201894D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId143"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId145"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAEDA28-CB55-439C-912F-B5C41E7F9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051AE55-64F4-4979-8988-8B54788635E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="506">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1770,6 +1770,21 @@
   <si>
     <t>更好的成就的继任者，为我的世界 1.12+ 的新进度系统而制作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>William Wythers' Overhauled Overworld</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/4595.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这个模组中，我寻求重建主世界的原版群系，来让它们变得更加贴近现实且更有氛围。</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +1961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1993,6 +2008,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2279,10 +2295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3495,7 +3511,9 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
+      <c r="A87" s="19" t="s">
+        <v>502</v>
+      </c>
       <c r="B87" s="12" t="s">
         <v>485</v>
       </c>
@@ -3523,914 +3541,927 @@
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A89" s="19"/>
       <c r="B89" s="12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>493</v>
+        <v>504</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="19"/>
-      <c r="B90" s="4" t="s">
-        <v>315</v>
+      <c r="B90" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>317</v>
+        <v>492</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="19"/>
       <c r="B91" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A92" s="19"/>
+      <c r="B92" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D92" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="20" t="s">
+    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A93" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="8" t="s">
+      <c r="C93" s="4"/>
+      <c r="D93" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="20"/>
-      <c r="B93" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A94" s="20"/>
       <c r="B94" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C94" s="4"/>
+        <v>465</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="D94" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>152</v>
+        <v>467</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A95" s="20"/>
       <c r="B95" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>293</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C95" s="4"/>
       <c r="D95" s="8" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="20"/>
       <c r="B96" s="4" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="20"/>
       <c r="B97" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A98" s="20"/>
+      <c r="B98" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C98" s="4"/>
       <c r="D98" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A99" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="4"/>
+      <c r="D99" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E99" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="21"/>
-      <c r="B99" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A100" s="21"/>
-      <c r="B100" s="5" t="s">
-        <v>106</v>
+      <c r="B100" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A101" s="21"/>
       <c r="B101" s="5" t="s">
-        <v>345</v>
+        <v>106</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>346</v>
+        <v>107</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>348</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="21"/>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="21"/>
+      <c r="B103" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D103" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="14" t="s">
+    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="8" t="s">
+      <c r="C104" s="4"/>
+      <c r="D104" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="14"/>
-      <c r="B104" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A105" s="14"/>
       <c r="B105" s="4" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A106" s="14"/>
       <c r="B106" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C106" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="D106" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>255</v>
+        <v>343</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="14"/>
       <c r="B107" s="4" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>385</v>
+        <v>256</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="14"/>
       <c r="B108" s="4" t="s">
-        <v>120</v>
+        <v>383</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="8" t="s">
-        <v>121</v>
+        <v>384</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>122</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="14"/>
-      <c r="B109" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="B109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="4"/>
       <c r="D109" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="14"/>
       <c r="B110" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="14"/>
       <c r="B111" s="5" t="s">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="14"/>
-      <c r="B112" s="4" t="s">
-        <v>132</v>
+      <c r="B112" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="14"/>
       <c r="B113" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C113" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D113" s="8" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="14"/>
       <c r="B114" s="4" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="8" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="14"/>
-      <c r="B115" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="B115" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="8" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="14"/>
       <c r="B116" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C116" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D116" s="8" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="14"/>
       <c r="B117" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>297</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C117" s="4"/>
       <c r="D117" s="8" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="14"/>
       <c r="B118" s="5" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>244</v>
+        <v>298</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="14"/>
       <c r="B119" s="5" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="14"/>
       <c r="B120" s="5" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>197</v>
+        <v>286</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="14"/>
       <c r="B121" s="5" t="s">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>381</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A122" s="14"/>
-      <c r="B122" s="4" t="s">
-        <v>136</v>
+      <c r="B122" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A123" s="14"/>
       <c r="B123" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D123" s="8" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="14"/>
       <c r="B124" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="A125" s="14"/>
       <c r="B125" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="15"/>
+      <c r="A126" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="B126" s="4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>402</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A127" s="15"/>
       <c r="B127" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A128" s="15"/>
       <c r="B128" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="15"/>
       <c r="B129" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>401</v>
+        <v>76</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="15"/>
       <c r="B130" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="15"/>
       <c r="B131" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="15"/>
       <c r="B132" s="4" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="15"/>
       <c r="B133" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="15"/>
       <c r="B134" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="15"/>
       <c r="B135" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="15"/>
       <c r="B136" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A137" s="15"/>
       <c r="B137" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="15"/>
       <c r="B138" s="4" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="15"/>
       <c r="B139" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="15"/>
       <c r="B140" s="4" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="15"/>
       <c r="B141" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="15"/>
       <c r="B142" s="4" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="8" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="15"/>
       <c r="B143" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A144" s="15"/>
+      <c r="B144" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A144" s="16" t="s">
+    <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A145" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B145" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A145" s="16"/>
-      <c r="B145" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A146" s="16"/>
+      <c r="B146" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E146" s="4" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A103:A124"/>
-    <mergeCell ref="A125:A143"/>
-    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="A104:A125"/>
+    <mergeCell ref="A126:A144"/>
+    <mergeCell ref="A145:A146"/>
     <mergeCell ref="A2:A51"/>
     <mergeCell ref="A52:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A97"/>
-    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A99:A103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D124" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D125" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D10" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
     <hyperlink ref="D84" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D98" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D99" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
     <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D125" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D126" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D13" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
     <hyperlink ref="D31" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D126" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D127" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D92" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D93" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
     <hyperlink ref="D12" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D127" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D102" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D128" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D128" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D103" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D129" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D129" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E129" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D130" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D131" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D130" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E130" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D131" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D132" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
     <hyperlink ref="D86" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
     <hyperlink ref="D83" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D103" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D104" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
     <hyperlink ref="D40" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D100" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D101" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D27" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
     <hyperlink ref="D82" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D108" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D109" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D110" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D123" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D112" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D122" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D109" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D110" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D111" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D124" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D113" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D123" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
     <hyperlink ref="D37" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D28" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D132" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D133" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D94" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D115" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D97" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D133" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D134" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D95" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D116" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D98" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
     <hyperlink ref="D32" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
     <hyperlink ref="D85" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D29" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D134" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D135" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
     <hyperlink ref="D21" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
     <hyperlink ref="D34" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
     <hyperlink ref="D36" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D135" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D136" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D137" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D120" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D136" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D137" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D138" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D121" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
     <hyperlink ref="D52" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
     <hyperlink ref="D63" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D114" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D115" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
     <hyperlink ref="D41" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
     <hyperlink ref="D33" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
     <hyperlink ref="D64" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
     <hyperlink ref="D67" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D116" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D138" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D139" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D117" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D139" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D140" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
     <hyperlink ref="D44" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D113" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D114" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
     <hyperlink ref="D65" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
     <hyperlink ref="D35" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D118" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D119" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
     <hyperlink ref="D38" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
     <hyperlink ref="D50" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
     <hyperlink ref="D46" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D106" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D107" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
     <hyperlink ref="D49" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
     <hyperlink ref="E49" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D140" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D141" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D141" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D142" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
     <hyperlink ref="D26" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
     <hyperlink ref="D25" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
     <hyperlink ref="D20" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
     <hyperlink ref="D66" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
     <hyperlink ref="D39" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D142" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D119" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D143" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D120" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
     <hyperlink ref="D30" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D95" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D117" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D143" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D104" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D96" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D118" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D144" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D105" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
     <hyperlink ref="D23" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D111" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D90" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D91" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D96" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D144" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D112" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D91" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D92" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D97" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D145" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
     <hyperlink ref="D9" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D121" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D122" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
     <hyperlink ref="D45" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D105" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D101" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D106" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D102" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
     <hyperlink ref="D43" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
     <hyperlink ref="D42" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
     <hyperlink ref="D48" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
@@ -4438,9 +4469,9 @@
     <hyperlink ref="D8" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
     <hyperlink ref="D18" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
     <hyperlink ref="D16" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D145" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D107" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D99" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D146" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D108" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D100" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
     <hyperlink ref="D57" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
     <hyperlink ref="D5" r:id="rId115" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
     <hyperlink ref="D53" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
@@ -4462,18 +4493,19 @@
     <hyperlink ref="D74" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
     <hyperlink ref="D73" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
     <hyperlink ref="D79" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D93" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D94" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
     <hyperlink ref="D68" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
     <hyperlink ref="D69" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
     <hyperlink ref="D71" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
     <hyperlink ref="D70" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
     <hyperlink ref="D87" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
     <hyperlink ref="D88" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
-    <hyperlink ref="D89" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
+    <hyperlink ref="D90" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
     <hyperlink ref="D56" r:id="rId143" xr:uid="{93BAD783-32E3-48FB-BE1A-C1F28D0BBCFA}"/>
     <hyperlink ref="D3" r:id="rId144" xr:uid="{429A9577-FBB1-4B55-BF26-0CC06201894D}"/>
+    <hyperlink ref="D89" r:id="rId145" xr:uid="{052EB2AD-8399-4B3F-A267-481624D44A5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId145"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051AE55-64F4-4979-8988-8B54788635E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E875332C-2386-436A-ACCA-A3B896AFF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="512">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1785,6 +1785,30 @@
   </si>
   <si>
     <t>在这个模组中，我寻求重建主世界的原版群系，来让它们变得更加贴近现实且更有氛围。</t>
+  </si>
+  <si>
+    <t>Lio's Player Animator Api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/mc-mods/lios-player-animator-api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个模组是 Zigy 的 PlayerAnimatorAPI的一个分支，经过修改后用于 AnimationJS 模组，以在 Minecraft 中提供服务器端动画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animationjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.curseforge.com/minecraft/mc-mods/animationjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationJS mod 是 KubeJS 的一个插件，它允许脚本编写者在服务器播放器对象和客户端播放器对象上无缝触发播放器动画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1984,6 +2008,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2008,7 +2033,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2295,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2352,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2345,7 +2369,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>498</v>
       </c>
@@ -2360,7 +2384,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>407</v>
       </c>
@@ -2373,7 +2397,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>393</v>
       </c>
@@ -2386,7 +2410,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2425,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>359</v>
       </c>
@@ -2416,7 +2440,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>362</v>
       </c>
@@ -2431,7 +2455,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="17"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>330</v>
       </c>
@@ -2446,7 +2470,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
@@ -2461,7 +2485,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
@@ -2476,7 +2500,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>61</v>
       </c>
@@ -2489,7 +2513,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
@@ -2502,7 +2526,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="4" t="s">
         <v>55</v>
       </c>
@@ -2515,7 +2539,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>65</v>
       </c>
@@ -2530,7 +2554,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>368</v>
       </c>
@@ -2545,7 +2569,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>91</v>
       </c>
@@ -2560,7 +2584,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>366</v>
       </c>
@@ -2573,7 +2597,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>114</v>
       </c>
@@ -2586,7 +2610,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>272</v>
       </c>
@@ -2601,7 +2625,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
         <v>175</v>
       </c>
@@ -2616,7 +2640,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="4" t="s">
         <v>78</v>
       </c>
@@ -2631,7 +2655,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="4" t="s">
         <v>308</v>
       </c>
@@ -2644,7 +2668,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="5" t="s">
         <v>163</v>
       </c>
@@ -2657,7 +2681,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>269</v>
       </c>
@@ -2670,7 +2694,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="4" t="s">
         <v>265</v>
       </c>
@@ -2685,7 +2709,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
@@ -2700,7 +2724,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="4" t="s">
         <v>142</v>
       </c>
@@ -2715,7 +2739,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>169</v>
       </c>
@@ -2728,7 +2752,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="4" t="s">
         <v>288</v>
       </c>
@@ -2743,7 +2767,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
@@ -2756,7 +2780,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="4" t="s">
         <v>160</v>
       </c>
@@ -2769,7 +2793,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="4" t="s">
         <v>210</v>
       </c>
@@ -2782,7 +2806,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="4" t="s">
         <v>178</v>
       </c>
@@ -2797,7 +2821,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="4" t="s">
         <v>238</v>
       </c>
@@ -2812,7 +2836,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="4" t="s">
         <v>182</v>
       </c>
@@ -2825,7 +2849,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="4" t="s">
         <v>139</v>
       </c>
@@ -2838,7 +2862,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="4" t="s">
         <v>245</v>
       </c>
@@ -2851,7 +2875,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="4" t="s">
         <v>280</v>
       </c>
@@ -2864,7 +2888,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="4" t="s">
         <v>104</v>
       </c>
@@ -2879,7 +2903,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="4" t="s">
         <v>206</v>
       </c>
@@ -2894,7 +2918,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="17"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="4" t="s">
         <v>353</v>
       </c>
@@ -2907,7 +2931,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="4" t="s">
         <v>349</v>
       </c>
@@ -2922,7 +2946,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="4" t="s">
         <v>226</v>
       </c>
@@ -2935,7 +2959,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="4" t="s">
         <v>337</v>
       </c>
@@ -2950,7 +2974,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="4" t="s">
         <v>251</v>
       </c>
@@ -2963,7 +2987,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="10" t="s">
         <v>229</v>
       </c>
@@ -2976,7 +3000,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="17"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="4" t="s">
         <v>357</v>
       </c>
@@ -2989,7 +3013,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="17"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="10" t="s">
         <v>257</v>
       </c>
@@ -3002,7 +3026,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="17"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="4" t="s">
         <v>248</v>
       </c>
@@ -3015,7 +3039,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="17"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="4" t="s">
         <v>38</v>
       </c>
@@ -3030,7 +3054,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -3045,1423 +3069,1449 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="18"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="4" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A54" s="19"/>
+      <c r="B54" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A55" s="19"/>
+      <c r="B55" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="4" t="s">
+    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A56" s="19"/>
+      <c r="B56" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="8" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="13" t="s">
+    <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A57" s="19"/>
+      <c r="B57" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E57" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="18"/>
-      <c r="B57" s="4" t="s">
+    <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A58" s="19"/>
+      <c r="B58" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="10" t="s">
-        <v>417</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="10" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="18"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="10" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>420</v>
+        <v>415</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="18"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="4" t="s">
-        <v>201</v>
+      <c r="A63" s="19"/>
+      <c r="B63" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>375</v>
+        <v>413</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="18"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="8" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="18"/>
+      <c r="A65" s="19"/>
       <c r="B65" s="4" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="8" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="18"/>
+      <c r="A66" s="19"/>
       <c r="B66" s="4" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="18"/>
+      <c r="A67" s="19"/>
       <c r="B67" s="4" t="s">
-        <v>472</v>
+        <v>276</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>216</v>
+        <v>278</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="18"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A69" s="19"/>
+      <c r="B69" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="4" t="s">
+    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A70" s="19"/>
+      <c r="B70" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="4" t="s">
+    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A71" s="19"/>
+      <c r="B71" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D71" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="5" t="s">
+    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A72" s="19"/>
+      <c r="B72" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="18"/>
-      <c r="B72" s="4" t="s">
+    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A73" s="19"/>
+      <c r="B73" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="18"/>
-      <c r="B73" s="10" t="s">
-        <v>458</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="8" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>460</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="4" t="s">
-        <v>455</v>
+      <c r="A74" s="19"/>
+      <c r="B74" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A75" s="19"/>
+      <c r="B75" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="4" t="s">
+    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A76" s="19"/>
+      <c r="B76" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E76" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="4" t="s">
+    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="19"/>
+      <c r="B77" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E77" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="18"/>
-      <c r="B77" s="4" t="s">
+    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="19"/>
+      <c r="B78" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="18"/>
-      <c r="B78" s="4" t="s">
+    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A79" s="19"/>
+      <c r="B79" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="8" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="18"/>
-      <c r="B79" s="5" t="s">
+    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A80" s="19"/>
+      <c r="B80" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="18"/>
-      <c r="B80" s="4" t="s">
+    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A81" s="19"/>
+      <c r="B81" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="18"/>
-      <c r="B81" s="4" t="s">
+    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A82" s="19"/>
+      <c r="B82" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D82" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="18"/>
-      <c r="B82" s="4" t="s">
+    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="19"/>
+      <c r="B83" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="18"/>
-      <c r="B83" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A84" s="19"/>
+      <c r="B84" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="18"/>
-      <c r="B84" s="4" t="s">
+    <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A85" s="19"/>
+      <c r="B85" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D85" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E85" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="18"/>
-      <c r="B85" s="4" t="s">
+    <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A86" s="19"/>
+      <c r="B86" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="8" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>382</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>485</v>
+      <c r="A87" s="19"/>
+      <c r="B87" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>487</v>
+        <v>90</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="B88" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="12" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>505</v>
+        <v>489</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>493</v>
+        <v>504</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="19"/>
-      <c r="B91" s="4" t="s">
-        <v>315</v>
+      <c r="A91" s="20"/>
+      <c r="B91" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A92" s="20"/>
+      <c r="B92" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="19"/>
-      <c r="B92" s="4" t="s">
+    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A93" s="20"/>
+      <c r="B93" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D93" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="20" t="s">
+    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A94" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="8" t="s">
+      <c r="C94" s="4"/>
+      <c r="D94" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="20"/>
-      <c r="B94" s="4" t="s">
+    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A95" s="21"/>
+      <c r="B95" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D95" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="20"/>
-      <c r="B95" s="4" t="s">
+    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A96" s="21"/>
+      <c r="B96" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="8" t="s">
+      <c r="C96" s="4"/>
+      <c r="D96" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="20"/>
-      <c r="B96" s="4" t="s">
+    <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A97" s="21"/>
+      <c r="B97" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="20"/>
-      <c r="B97" s="4" t="s">
+    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A98" s="21"/>
+      <c r="B98" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="20"/>
-      <c r="B98" s="4" t="s">
+    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A99" s="21"/>
+      <c r="B99" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A100" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="D100" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="21"/>
-      <c r="B100" s="4" t="s">
+    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="22"/>
+      <c r="B101" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="21"/>
-      <c r="B101" s="5" t="s">
+    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A102" s="22"/>
+      <c r="B102" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="21"/>
-      <c r="B102" s="5" t="s">
+    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="22"/>
+      <c r="B103" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D103" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="21"/>
-      <c r="B103" s="4" t="s">
+    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="22"/>
+      <c r="B104" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="14" t="s">
+    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A105" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="8" t="s">
+      <c r="C105" s="4"/>
+      <c r="D105" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="14"/>
-      <c r="B105" s="4" t="s">
+    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="15"/>
+      <c r="B106" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D106" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="14"/>
-      <c r="B106" s="4" t="s">
+    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A107" s="15"/>
+      <c r="B107" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D107" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="14"/>
-      <c r="B107" s="4" t="s">
+    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A108" s="15"/>
+      <c r="B108" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="14"/>
-      <c r="B108" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="C108" s="4"/>
       <c r="D108" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>385</v>
+        <v>256</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="14"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="4" t="s">
-        <v>120</v>
+        <v>383</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A110" s="15"/>
+      <c r="B110" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A110" s="14"/>
-      <c r="B110" s="5" t="s">
+    <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A111" s="15"/>
+      <c r="B111" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D111" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A111" s="14"/>
-      <c r="B111" s="5" t="s">
+    <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A112" s="15"/>
+      <c r="B112" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A112" s="14"/>
-      <c r="B112" s="5" t="s">
+    <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A113" s="15"/>
+      <c r="B113" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="14"/>
-      <c r="B113" s="4" t="s">
+    <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A114" s="15"/>
+      <c r="B114" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="14"/>
-      <c r="B114" s="4" t="s">
+    <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A115" s="15"/>
+      <c r="B115" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C114" s="4"/>
-      <c r="D114" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="14"/>
-      <c r="B115" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A116" s="15"/>
+      <c r="B116" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="14"/>
-      <c r="B116" s="5" t="s">
+    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A117" s="15"/>
+      <c r="B117" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A117" s="14"/>
-      <c r="B117" s="5" t="s">
+    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="15"/>
+      <c r="B118" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="8" t="s">
+      <c r="C118" s="4"/>
+      <c r="D118" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="14"/>
-      <c r="B118" s="5" t="s">
+    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A119" s="15"/>
+      <c r="B119" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A119" s="14"/>
-      <c r="B119" s="5" t="s">
+    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A120" s="15"/>
+      <c r="B120" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E120" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="14"/>
-      <c r="B120" s="5" t="s">
+    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A121" s="15"/>
+      <c r="B121" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E121" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="14"/>
-      <c r="B121" s="5" t="s">
+    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A122" s="15"/>
+      <c r="B122" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D122" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="14"/>
-      <c r="B122" s="5" t="s">
+    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A123" s="15"/>
+      <c r="B123" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D123" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="14"/>
-      <c r="B123" s="4" t="s">
+    <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A124" s="15"/>
+      <c r="B124" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D124" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="14"/>
-      <c r="B124" s="4" t="s">
+    <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="15"/>
+      <c r="B125" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="14"/>
-      <c r="B125" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="15" t="s">
-        <v>23</v>
-      </c>
+      <c r="A126" s="15"/>
       <c r="B126" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="15"/>
+      <c r="A127" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="B127" s="4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>402</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A128" s="15"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A129" s="15"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A130" s="15"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>401</v>
+        <v>76</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A131" s="15"/>
+      <c r="A131" s="16"/>
       <c r="B131" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A132" s="15"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A133" s="15"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="4" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A134" s="15"/>
+      <c r="A134" s="16"/>
       <c r="B134" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A135" s="15"/>
+      <c r="A135" s="16"/>
       <c r="B135" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A136" s="15"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="15"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A138" s="15"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A139" s="15"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="4" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A140" s="15"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A141" s="15"/>
+      <c r="A141" s="16"/>
       <c r="B141" s="4" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="8" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A142" s="15"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A143" s="15"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="4" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A144" s="16"/>
+      <c r="B144" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="4"/>
+      <c r="D144" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A144" s="15"/>
-      <c r="B144" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
     <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A145" s="16" t="s">
-        <v>326</v>
-      </c>
+      <c r="A145" s="16"/>
       <c r="B145" s="4" t="s">
-        <v>327</v>
+        <v>506</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="8" t="s">
-        <v>328</v>
+        <v>507</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>329</v>
+        <v>508</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="16"/>
       <c r="B146" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A147" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" s="4"/>
+      <c r="D147" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A148" s="17"/>
+      <c r="B148" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="8" t="s">
+      <c r="C148" s="4"/>
+      <c r="D148" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A104:A125"/>
-    <mergeCell ref="A126:A144"/>
-    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="A105:A126"/>
+    <mergeCell ref="A127:A146"/>
+    <mergeCell ref="A147:A148"/>
     <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A86"/>
-    <mergeCell ref="A87:A92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A52:A87"/>
+    <mergeCell ref="A88:A93"/>
+    <mergeCell ref="A94:A99"/>
+    <mergeCell ref="A100:A104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D125" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D126" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D10" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D84" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D99" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D85" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D100" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
     <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D126" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D127" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D13" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
     <hyperlink ref="D31" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D127" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D128" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D93" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D94" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
     <hyperlink ref="D12" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D128" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D103" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D129" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D129" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D104" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D130" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D130" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E130" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D131" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D132" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D86" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D131" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E131" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D132" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D133" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D87" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D83" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D104" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D84" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D105" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
     <hyperlink ref="D40" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D101" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D102" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D27" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D82" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D109" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D110" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D111" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D124" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D113" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D123" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D83" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D110" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D111" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D112" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D125" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D114" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D124" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
     <hyperlink ref="D37" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D28" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D133" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D134" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D95" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D116" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D98" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D134" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D135" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D96" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D117" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D99" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
     <hyperlink ref="D32" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D85" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D86" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D29" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D135" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D136" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
     <hyperlink ref="D21" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
     <hyperlink ref="D34" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
     <hyperlink ref="D36" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D136" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D137" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D138" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D121" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D137" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D138" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D139" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D122" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
     <hyperlink ref="D52" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
-    <hyperlink ref="D63" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D115" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D64" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
+    <hyperlink ref="D116" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
     <hyperlink ref="D41" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
     <hyperlink ref="D33" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
-    <hyperlink ref="D67" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D117" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D139" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D140" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D65" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
+    <hyperlink ref="D68" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
+    <hyperlink ref="D118" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D140" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D141" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
     <hyperlink ref="D44" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D114" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D65" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
+    <hyperlink ref="D115" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D66" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
     <hyperlink ref="D35" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D119" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D120" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
     <hyperlink ref="D38" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
     <hyperlink ref="D50" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
     <hyperlink ref="D46" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D107" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D108" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
     <hyperlink ref="D49" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
     <hyperlink ref="E49" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D141" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D142" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D142" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D143" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
     <hyperlink ref="D26" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
     <hyperlink ref="D25" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
     <hyperlink ref="D20" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D66" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D67" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
     <hyperlink ref="D39" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D143" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D120" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D144" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D121" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
     <hyperlink ref="D30" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D96" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D118" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D144" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D105" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D97" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D119" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D146" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D106" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
     <hyperlink ref="D23" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D112" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D91" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D92" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D97" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D145" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D113" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D92" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D93" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D98" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D147" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
     <hyperlink ref="D9" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D122" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D123" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
     <hyperlink ref="D45" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D106" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D102" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D107" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D103" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
     <hyperlink ref="D43" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
     <hyperlink ref="D42" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
     <hyperlink ref="D48" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
@@ -4469,43 +4519,45 @@
     <hyperlink ref="D8" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
     <hyperlink ref="D18" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
     <hyperlink ref="D16" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D146" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D108" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D100" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D57" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D148" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D109" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D101" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D58" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
     <hyperlink ref="D5" r:id="rId115" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
-    <hyperlink ref="D53" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
+    <hyperlink ref="D54" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
     <hyperlink ref="D24" r:id="rId117" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
     <hyperlink ref="D4" r:id="rId118" xr:uid="{8EDF0D24-9EE4-4F83-881A-3F1842E82DB7}"/>
-    <hyperlink ref="D61" r:id="rId119" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
-    <hyperlink ref="D62" r:id="rId120" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
-    <hyperlink ref="D60" r:id="rId121" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
-    <hyperlink ref="D58" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
-    <hyperlink ref="D59" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
-    <hyperlink ref="D55" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
-    <hyperlink ref="D72" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
-    <hyperlink ref="D76" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
-    <hyperlink ref="D78" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
-    <hyperlink ref="D81" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
-    <hyperlink ref="D77" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
-    <hyperlink ref="D54" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
-    <hyperlink ref="D75" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
-    <hyperlink ref="D74" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
-    <hyperlink ref="D73" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
-    <hyperlink ref="D79" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D94" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
-    <hyperlink ref="D68" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
-    <hyperlink ref="D69" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
-    <hyperlink ref="D71" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
-    <hyperlink ref="D70" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
-    <hyperlink ref="D87" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
-    <hyperlink ref="D88" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
-    <hyperlink ref="D90" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
-    <hyperlink ref="D56" r:id="rId143" xr:uid="{93BAD783-32E3-48FB-BE1A-C1F28D0BBCFA}"/>
+    <hyperlink ref="D62" r:id="rId119" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
+    <hyperlink ref="D63" r:id="rId120" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
+    <hyperlink ref="D61" r:id="rId121" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
+    <hyperlink ref="D59" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
+    <hyperlink ref="D60" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
+    <hyperlink ref="D56" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
+    <hyperlink ref="D73" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
+    <hyperlink ref="D77" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
+    <hyperlink ref="D79" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
+    <hyperlink ref="D82" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
+    <hyperlink ref="D78" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
+    <hyperlink ref="D55" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
+    <hyperlink ref="D76" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
+    <hyperlink ref="D75" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
+    <hyperlink ref="D74" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
+    <hyperlink ref="D80" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
+    <hyperlink ref="D95" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D69" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
+    <hyperlink ref="D70" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
+    <hyperlink ref="D72" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
+    <hyperlink ref="D71" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
+    <hyperlink ref="D88" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
+    <hyperlink ref="D89" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
+    <hyperlink ref="D91" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
+    <hyperlink ref="D57" r:id="rId143" xr:uid="{93BAD783-32E3-48FB-BE1A-C1F28D0BBCFA}"/>
     <hyperlink ref="D3" r:id="rId144" xr:uid="{429A9577-FBB1-4B55-BF26-0CC06201894D}"/>
-    <hyperlink ref="D89" r:id="rId145" xr:uid="{052EB2AD-8399-4B3F-A267-481624D44A5E}"/>
+    <hyperlink ref="D90" r:id="rId145" xr:uid="{052EB2AD-8399-4B3F-A267-481624D44A5E}"/>
+    <hyperlink ref="D145" r:id="rId146" xr:uid="{EB15E864-C808-40F2-83EA-00C99C02380D}"/>
+    <hyperlink ref="D53" r:id="rId147" xr:uid="{CEBBA46B-6DBF-446D-BDCA-C95D7B02EFF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId146"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E875332C-2386-436A-ACCA-A3B896AFF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA3BEB3-47A0-43D2-BC14-F52E526BC5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2321,8 +2321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA3BEB3-47A0-43D2-BC14-F52E526BC5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B717DA76-521A-4899-8868-2A9F39F41326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="515">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1808,6 +1808,18 @@
   </si>
   <si>
     <t>AnimationJS mod 是 KubeJS 的一个插件，它允许脚本编写者在服务器播放器对象和客户端播放器对象上无缝触发播放器动画。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Control!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/3826.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Control!是一款在规则体系下让玩家完全控制生物生成规则的模组。所有的规则均位于config\incontrol文件夹中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2319,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:E87"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3283,1235 +3295,1248 @@
     <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A69" s="19"/>
       <c r="B69" s="4" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="8" t="s">
-        <v>471</v>
+        <v>513</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>470</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A70" s="19"/>
       <c r="B70" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="8" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A71" s="19"/>
       <c r="B71" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A72" s="19"/>
-      <c r="B72" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>478</v>
+      <c r="B72" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A73" s="19"/>
-      <c r="B73" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="4"/>
+      <c r="B73" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>478</v>
+      </c>
       <c r="D73" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>17</v>
+        <v>479</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A74" s="19"/>
-      <c r="B74" s="10" t="s">
-        <v>458</v>
+      <c r="B74" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
-        <v>459</v>
+        <v>18</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>460</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A75" s="19"/>
-      <c r="B75" s="4" t="s">
-        <v>455</v>
+      <c r="B75" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A76" s="19"/>
       <c r="B76" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>452</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A77" s="19"/>
       <c r="B77" s="4" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A78" s="19"/>
       <c r="B78" s="4" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A79" s="19"/>
       <c r="B79" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C79" s="4"/>
+        <v>443</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>444</v>
+      </c>
       <c r="D79" s="8" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A80" s="19"/>
-      <c r="B80" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B80" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="8" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
-      <c r="B81" s="4" t="s">
-        <v>435</v>
+      <c r="B81" s="5" t="s">
+        <v>461</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
       <c r="B82" s="4" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A83" s="19"/>
       <c r="B83" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>439</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D83" s="8" t="s">
-        <v>118</v>
+        <v>441</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>119</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
-      <c r="B84" s="5" t="s">
-        <v>95</v>
+      <c r="B84" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="8" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
-      <c r="B85" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="B85" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="8" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
       <c r="B86" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D86" s="8" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A87" s="19"/>
       <c r="B87" s="4" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="8" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>382</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>485</v>
+      <c r="A88" s="19"/>
+      <c r="B88" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>487</v>
+        <v>90</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="20"/>
+      <c r="A89" s="20" t="s">
+        <v>502</v>
+      </c>
       <c r="B89" s="12" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A90" s="20"/>
       <c r="B90" s="12" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>505</v>
+        <v>489</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A91" s="20"/>
       <c r="B91" s="12" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>493</v>
+        <v>504</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A92" s="20"/>
-      <c r="B92" s="4" t="s">
-        <v>315</v>
+      <c r="B92" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>317</v>
+        <v>492</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A93" s="20"/>
       <c r="B93" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A94" s="20"/>
+      <c r="B94" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="E93" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="21" t="s">
+    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A95" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="8" t="s">
+      <c r="C95" s="4"/>
+      <c r="D95" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="21"/>
-      <c r="B95" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A96" s="21"/>
       <c r="B96" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C96" s="4"/>
+        <v>465</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>466</v>
+      </c>
       <c r="D96" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>152</v>
+        <v>467</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A97" s="21"/>
       <c r="B97" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>293</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C97" s="4"/>
       <c r="D97" s="8" t="s">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A98" s="21"/>
       <c r="B98" s="4" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A99" s="21"/>
       <c r="B99" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A100" s="21"/>
+      <c r="B100" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="22"/>
-      <c r="B101" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A102" s="22"/>
-      <c r="B102" s="5" t="s">
-        <v>106</v>
+      <c r="B102" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>107</v>
+        <v>387</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A103" s="22"/>
       <c r="B103" s="5" t="s">
-        <v>345</v>
+        <v>106</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>346</v>
+        <v>107</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>348</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A104" s="22"/>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A105" s="22"/>
+      <c r="B105" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D105" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="15" t="s">
+    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="8" t="s">
+      <c r="C106" s="4"/>
+      <c r="D106" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="15"/>
-      <c r="B106" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A107" s="15"/>
       <c r="B107" s="4" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A108" s="15"/>
       <c r="B108" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C108" s="4"/>
+        <v>341</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="D108" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>255</v>
+        <v>343</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A109" s="15"/>
       <c r="B109" s="4" t="s">
-        <v>383</v>
+        <v>254</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>385</v>
+        <v>256</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A110" s="15"/>
       <c r="B110" s="4" t="s">
-        <v>120</v>
+        <v>383</v>
       </c>
       <c r="C110" s="4"/>
       <c r="D110" s="8" t="s">
-        <v>121</v>
+        <v>384</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>122</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A111" s="15"/>
-      <c r="B111" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="B111" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="4"/>
       <c r="D111" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A112" s="15"/>
       <c r="B112" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A113" s="15"/>
       <c r="B113" s="5" t="s">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>312</v>
+        <v>129</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>313</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A114" s="15"/>
-      <c r="B114" s="4" t="s">
-        <v>132</v>
+      <c r="B114" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A115" s="15"/>
       <c r="B115" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D115" s="8" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A116" s="15"/>
       <c r="B116" s="4" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="8" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A117" s="15"/>
-      <c r="B117" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="B117" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" s="4"/>
       <c r="D117" s="8" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A118" s="15"/>
       <c r="B118" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C118" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="D118" s="8" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A119" s="15"/>
       <c r="B119" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>297</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C119" s="4"/>
       <c r="D119" s="8" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A120" s="15"/>
       <c r="B120" s="5" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>244</v>
+        <v>298</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A121" s="15"/>
       <c r="B121" s="5" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A122" s="15"/>
       <c r="B122" s="5" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>197</v>
+        <v>286</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A123" s="15"/>
       <c r="B123" s="5" t="s">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>336</v>
+        <v>196</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>381</v>
+        <v>197</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A124" s="15"/>
-      <c r="B124" s="4" t="s">
-        <v>136</v>
+      <c r="B124" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A125" s="15"/>
       <c r="B125" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D125" s="8" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>33</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A126" s="15"/>
       <c r="B126" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="A127" s="15"/>
       <c r="B127" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C127" s="4"/>
       <c r="D127" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A128" s="16"/>
+      <c r="A128" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="B128" s="4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" s="8" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>402</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A129" s="16"/>
       <c r="B129" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A130" s="16"/>
       <c r="B130" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A131" s="16"/>
       <c r="B131" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>401</v>
+        <v>76</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A132" s="16"/>
       <c r="B132" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A133" s="16"/>
       <c r="B133" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A134" s="16"/>
       <c r="B134" s="4" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A135" s="16"/>
       <c r="B135" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A136" s="16"/>
       <c r="B136" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A137" s="16"/>
       <c r="B137" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A138" s="16"/>
       <c r="B138" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A139" s="16"/>
       <c r="B139" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A140" s="16"/>
       <c r="B140" s="4" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A141" s="16"/>
       <c r="B141" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A142" s="16"/>
       <c r="B142" s="4" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="8" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A143" s="16"/>
       <c r="B143" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A144" s="16"/>
       <c r="B144" s="4" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="8" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A145" s="16"/>
       <c r="B145" s="4" t="s">
-        <v>506</v>
+        <v>282</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="8" t="s">
-        <v>507</v>
+        <v>283</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>508</v>
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="A146" s="16"/>
       <c r="B146" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A147" s="16"/>
+      <c r="B147" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A147" s="17" t="s">
+    <row r="148" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A148" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A148" s="17"/>
-      <c r="B148" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A149" s="17"/>
+      <c r="B149" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A105:A126"/>
-    <mergeCell ref="A127:A146"/>
-    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A106:A127"/>
+    <mergeCell ref="A128:A147"/>
+    <mergeCell ref="A148:A149"/>
     <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A87"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A94:A99"/>
-    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A52:A88"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A101:A105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D126" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D127" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
     <hyperlink ref="D10" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D85" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D100" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D86" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D101" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
     <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D127" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D128" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D11" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D13" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
     <hyperlink ref="D31" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D128" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D129" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D14" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D94" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D95" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
     <hyperlink ref="D12" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D129" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D104" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D130" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D130" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D105" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D131" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D131" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E131" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D132" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D133" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D87" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D132" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E132" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D133" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D134" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D88" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D84" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D105" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D85" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D106" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
     <hyperlink ref="D40" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D102" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D103" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D27" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D83" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D110" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D111" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D112" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D125" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D114" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D124" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D84" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D111" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D112" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D113" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D126" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D115" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D125" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
     <hyperlink ref="D37" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D28" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D134" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D135" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D96" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D117" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D99" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D135" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D136" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D97" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D118" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D100" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
     <hyperlink ref="D32" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D86" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D87" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D29" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D136" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D137" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
     <hyperlink ref="D21" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
     <hyperlink ref="D34" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
     <hyperlink ref="D36" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D137" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D138" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D139" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D122" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D138" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D139" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D140" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D123" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
     <hyperlink ref="D52" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
     <hyperlink ref="D64" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D116" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D117" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
     <hyperlink ref="D41" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
     <hyperlink ref="D33" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
     <hyperlink ref="D65" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
     <hyperlink ref="D68" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D118" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D140" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D141" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D119" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D141" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D142" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
     <hyperlink ref="D44" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D115" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D116" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
     <hyperlink ref="D66" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
     <hyperlink ref="D35" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D120" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D121" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
     <hyperlink ref="D38" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
     <hyperlink ref="D50" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
     <hyperlink ref="D46" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D108" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D109" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
     <hyperlink ref="D49" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
     <hyperlink ref="E49" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D142" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D143" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D143" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D144" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
     <hyperlink ref="D26" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
     <hyperlink ref="D25" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
     <hyperlink ref="D20" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
     <hyperlink ref="D67" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
     <hyperlink ref="D39" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D144" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D121" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D145" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D122" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
     <hyperlink ref="D30" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D97" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D119" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D146" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D106" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D98" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D120" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D147" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D107" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
     <hyperlink ref="D23" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D113" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D92" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D93" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D98" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D147" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D114" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D93" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D94" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D99" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D148" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
     <hyperlink ref="D9" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D123" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D124" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
     <hyperlink ref="D45" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D107" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D103" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D108" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D104" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
     <hyperlink ref="D43" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
     <hyperlink ref="D42" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
     <hyperlink ref="D48" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
@@ -4519,9 +4544,9 @@
     <hyperlink ref="D8" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
     <hyperlink ref="D18" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
     <hyperlink ref="D16" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D148" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D109" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D101" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D149" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D110" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D102" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
     <hyperlink ref="D58" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
     <hyperlink ref="D5" r:id="rId115" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
     <hyperlink ref="D54" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
@@ -4533,31 +4558,32 @@
     <hyperlink ref="D59" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
     <hyperlink ref="D60" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
     <hyperlink ref="D56" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
-    <hyperlink ref="D73" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
-    <hyperlink ref="D77" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
-    <hyperlink ref="D79" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
-    <hyperlink ref="D82" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
-    <hyperlink ref="D78" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
+    <hyperlink ref="D74" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
+    <hyperlink ref="D78" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
+    <hyperlink ref="D80" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
+    <hyperlink ref="D83" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
+    <hyperlink ref="D79" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
     <hyperlink ref="D55" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
-    <hyperlink ref="D76" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
-    <hyperlink ref="D75" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
-    <hyperlink ref="D74" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
-    <hyperlink ref="D80" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D95" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
-    <hyperlink ref="D69" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
-    <hyperlink ref="D70" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
-    <hyperlink ref="D72" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
-    <hyperlink ref="D71" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
-    <hyperlink ref="D88" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
-    <hyperlink ref="D89" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
-    <hyperlink ref="D91" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
+    <hyperlink ref="D77" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
+    <hyperlink ref="D76" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
+    <hyperlink ref="D75" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
+    <hyperlink ref="D81" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
+    <hyperlink ref="D96" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D70" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
+    <hyperlink ref="D71" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
+    <hyperlink ref="D73" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
+    <hyperlink ref="D72" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
+    <hyperlink ref="D89" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
+    <hyperlink ref="D90" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
+    <hyperlink ref="D92" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
     <hyperlink ref="D57" r:id="rId143" xr:uid="{93BAD783-32E3-48FB-BE1A-C1F28D0BBCFA}"/>
     <hyperlink ref="D3" r:id="rId144" xr:uid="{429A9577-FBB1-4B55-BF26-0CC06201894D}"/>
-    <hyperlink ref="D90" r:id="rId145" xr:uid="{052EB2AD-8399-4B3F-A267-481624D44A5E}"/>
-    <hyperlink ref="D145" r:id="rId146" xr:uid="{EB15E864-C808-40F2-83EA-00C99C02380D}"/>
+    <hyperlink ref="D91" r:id="rId145" xr:uid="{052EB2AD-8399-4B3F-A267-481624D44A5E}"/>
+    <hyperlink ref="D146" r:id="rId146" xr:uid="{EB15E864-C808-40F2-83EA-00C99C02380D}"/>
     <hyperlink ref="D53" r:id="rId147" xr:uid="{CEBBA46B-6DBF-446D-BDCA-C95D7B02EFF9}"/>
+    <hyperlink ref="D69" r:id="rId148" xr:uid="{5A9713E6-F000-4A7B-8818-94439BB08CAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId148"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId149"/>
 </worksheet>
 </file>
--- a/模组存档/整合包模组列表.xlsx
+++ b/模组存档/整合包模组列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore-think\模组存档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B717DA76-521A-4899-8868-2A9F39F41326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278933C-0FD6-407A-ADA1-DF82FFBC205F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="532">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1821,13 +1821,70 @@
   <si>
     <t>In Control!是一款在规则体系下让玩家完全控制生物生成规则的模组。所有的规则均位于config\incontrol文件夹中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iced Lava</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/14465.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个模组只添加了一个很简单的方块：Iced Lava（熔岩冰）。</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/6630.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMI 是一个功能丰富、易于使用的物品及配方管理器。</t>
+  </si>
+  <si>
+    <t>EMI Trades</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/7451.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMI村民交易</t>
+  </si>
+  <si>
+    <t>此模组为 EMI 添加了村民交易查看支持，与 Roughly Enough Trades 类似。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Just Enough Effect Descriptions</t>
+  </si>
+  <si>
+    <t>JEI药水效果</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/5460.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该模组在JEI中增加了查看状态效果的功能。你可以点击当前拥有的效果的图标，或者在 JEI 界面上方的选项卡里查看状态效果的功能，来源和颜色。</t>
+  </si>
+  <si>
+    <t>Smart Completion</t>
+  </si>
+  <si>
+    <t>https://www.mcmod.cn/class/14478.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本模组为命令提供了一个更好的提示系统：匹配提示的词语首字母。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1904,13 +1961,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1997,7 +2047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2018,9 +2068,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2045,6 +2092,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2331,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2364,7 +2412,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2381,7 +2429,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="4" t="s">
         <v>498</v>
       </c>
@@ -2396,7 +2444,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>407</v>
       </c>
@@ -2409,7 +2457,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>393</v>
       </c>
@@ -2421,2169 +2469,2243 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="4" t="s">
+    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4" t="s">
+    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="4" t="s">
+    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="4" t="s">
+    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="4" t="s">
+    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="4" t="s">
+    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="10" t="s">
+    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4" t="s">
+    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="15"/>
+      <c r="B22" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A23" s="15"/>
+      <c r="B23" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A24" s="15"/>
+      <c r="B24" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="15"/>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
+      <c r="B27" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="5" t="s">
+    <row r="28" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="4" t="s">
+    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
+      <c r="B29" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="8" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>171</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="18"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="4" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="18"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D31" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="18"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="8" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="18"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="4" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>181</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="8" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>378</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="18"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="4" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="8" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="18"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="4" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A38" s="15"/>
+      <c r="B38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A39" s="15"/>
+      <c r="B39" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A40" s="15"/>
+      <c r="B40" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A41" s="15"/>
+      <c r="B41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="4" t="s">
+    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A42" s="15"/>
+      <c r="B42" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="8" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>354</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>350</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="8" t="s">
-        <v>351</v>
+        <v>279</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="18"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D44" s="8" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="4" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>340</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="18"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="8" t="s">
-        <v>253</v>
+        <v>355</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>252</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="D47" s="8" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="18"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="4" t="s">
-        <v>357</v>
+        <v>226</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="8" t="s">
-        <v>356</v>
+        <v>228</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="4"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="D49" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="18"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A51" s="15"/>
+      <c r="B51" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="8" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="A52" s="15"/>
       <c r="B52" s="4" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="8" t="s">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>200</v>
+        <v>358</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="19"/>
-      <c r="B53" s="4" t="s">
-        <v>509</v>
+      <c r="A53" s="15"/>
+      <c r="B53" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>511</v>
+        <v>258</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="19"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="4" t="s">
-        <v>404</v>
+        <v>248</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="8" t="s">
-        <v>405</v>
+        <v>250</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>406</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="19"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="4" t="s">
-        <v>447</v>
+        <v>38</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>448</v>
+        <v>39</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>449</v>
+        <v>40</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>450</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="19"/>
+      <c r="A56" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B56" s="4" t="s">
-        <v>429</v>
+        <v>198</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="8" t="s">
-        <v>430</v>
+        <v>199</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>431</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="19"/>
-      <c r="B57" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>495</v>
-      </c>
+      <c r="A57" s="16"/>
+      <c r="B57" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="8" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="19"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="8" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="19"/>
-      <c r="B59" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>448</v>
+      </c>
       <c r="D59" s="8" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="19"/>
-      <c r="B60" s="10" t="s">
-        <v>422</v>
+      <c r="A60" s="16"/>
+      <c r="B60" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="8" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="19"/>
-      <c r="B61" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C61" s="4"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>495</v>
+      </c>
       <c r="D61" s="8" t="s">
-        <v>415</v>
+        <v>496</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>416</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="19"/>
-      <c r="B62" s="10" t="s">
-        <v>410</v>
+      <c r="A62" s="16"/>
+      <c r="B62" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>420</v>
+        <v>392</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="19"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="10" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A64" s="19"/>
-      <c r="B64" s="4" t="s">
-        <v>201</v>
+      <c r="A64" s="16"/>
+      <c r="B64" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="8" t="s">
-        <v>202</v>
+        <v>423</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="19"/>
-      <c r="B65" s="4" t="s">
-        <v>213</v>
+      <c r="A65" s="16"/>
+      <c r="B65" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="8" t="s">
-        <v>214</v>
+        <v>415</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>215</v>
+        <v>416</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="19"/>
-      <c r="B66" s="4" t="s">
-        <v>235</v>
+      <c r="A66" s="16"/>
+      <c r="B66" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>236</v>
+        <v>411</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="19"/>
-      <c r="B67" s="4" t="s">
-        <v>276</v>
+      <c r="A67" s="16"/>
+      <c r="B67" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>277</v>
+        <v>413</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="19"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="4" t="s">
-        <v>472</v>
+        <v>201</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="19"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="4" t="s">
-        <v>512</v>
+        <v>213</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>514</v>
+        <v>214</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="19"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="4" t="s">
-        <v>469</v>
+        <v>235</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>470</v>
+        <v>237</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="19"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>474</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>476</v>
+        <v>278</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="19"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>483</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="8" t="s">
-        <v>482</v>
+        <v>217</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>484</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="19"/>
-      <c r="B73" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>478</v>
-      </c>
+      <c r="A73" s="16"/>
+      <c r="B73" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="8" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="19"/>
+      <c r="A74" s="16"/>
       <c r="B74" s="4" t="s">
-        <v>15</v>
+        <v>469</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A75" s="16"/>
+      <c r="B75" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A76" s="16"/>
+      <c r="B76" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A77" s="16"/>
+      <c r="B77" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A78" s="16"/>
+      <c r="B78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E78" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="19"/>
-      <c r="B75" s="10" t="s">
+    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A79" s="16"/>
+      <c r="B79" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="8" t="s">
+      <c r="C79" s="4"/>
+      <c r="D79" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="19"/>
-      <c r="B76" s="4" t="s">
+    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A80" s="16"/>
+      <c r="B80" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="8" t="s">
+      <c r="C80" s="4"/>
+      <c r="D80" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="19"/>
-      <c r="B77" s="4" t="s">
+    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A81" s="16"/>
+      <c r="B81" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C81" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="19"/>
-      <c r="B78" s="4" t="s">
+    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A82" s="16"/>
+      <c r="B82" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D82" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="19"/>
-      <c r="B79" s="4" t="s">
+    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A83" s="16"/>
+      <c r="B83" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D83" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="19"/>
-      <c r="B80" s="4" t="s">
+    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A84" s="16"/>
+      <c r="B84" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="19"/>
-      <c r="B81" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="19"/>
-      <c r="B82" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="19"/>
-      <c r="B83" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="19"/>
-      <c r="B84" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="8" t="s">
-        <v>118</v>
+        <v>433</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>119</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="19"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>461</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>462</v>
+      </c>
       <c r="D85" s="8" t="s">
-        <v>96</v>
+        <v>463</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>97</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="19"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="4" t="s">
-        <v>28</v>
+        <v>435</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>27</v>
+        <v>436</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>30</v>
+        <v>438</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="19"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>439</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>440</v>
+      </c>
       <c r="D87" s="8" t="s">
-        <v>166</v>
+        <v>441</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>168</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="19"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="4" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="8" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>382</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>485</v>
+      <c r="A89" s="16"/>
+      <c r="B89" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>487</v>
+        <v>96</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="20"/>
-      <c r="B90" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="C90" s="4"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D90" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>490</v>
+        <v>29</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="20"/>
-      <c r="B91" s="12" t="s">
-        <v>503</v>
+      <c r="A91" s="16"/>
+      <c r="B91" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>505</v>
+        <v>166</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="20"/>
-      <c r="B92" s="12" t="s">
-        <v>491</v>
+      <c r="A92" s="16"/>
+      <c r="B92" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>493</v>
+        <v>90</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="20"/>
+      <c r="A93" s="17" t="s">
+        <v>502</v>
+      </c>
       <c r="B93" s="4" t="s">
-        <v>315</v>
+        <v>485</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="8" t="s">
-        <v>316</v>
+        <v>486</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>317</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="20"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>319</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="8" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>321</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="21" t="s">
-        <v>57</v>
-      </c>
+      <c r="A95" s="17"/>
       <c r="B95" s="4" t="s">
-        <v>58</v>
+        <v>503</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>60</v>
+        <v>504</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="21"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>466</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>468</v>
+        <v>492</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="21"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="4" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="8" t="s">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="21"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="4" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="21"/>
+      <c r="A99" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="B99" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>323</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>325</v>
+        <v>59</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="21"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="4" t="s">
-        <v>157</v>
+        <v>515</v>
       </c>
       <c r="C100" s="4"/>
       <c r="D100" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A101" s="18"/>
+      <c r="B101" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A102" s="18"/>
+      <c r="B102" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A103" s="18"/>
+      <c r="B103" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A104" s="18"/>
+      <c r="B104" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A105" s="18"/>
+      <c r="B105" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="22" t="s">
+    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A106" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="22"/>
-      <c r="B102" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="22"/>
-      <c r="B103" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="22"/>
-      <c r="B104" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="22"/>
-      <c r="B105" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" s="8" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="15"/>
+      <c r="A107" s="19"/>
       <c r="B107" s="4" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>307</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="15"/>
-      <c r="B108" s="4" t="s">
-        <v>341</v>
+      <c r="A108" s="19"/>
+      <c r="B108" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>342</v>
+        <v>107</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>343</v>
+        <v>108</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>344</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="15"/>
-      <c r="B109" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C109" s="4"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>346</v>
+      </c>
       <c r="D109" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>255</v>
+        <v>347</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A110" s="15"/>
+      <c r="A110" s="19"/>
       <c r="B110" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C110" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="D110" s="8" t="s">
-        <v>384</v>
+        <v>73</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>385</v>
+        <v>74</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A111" s="15"/>
+      <c r="A111" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="B111" s="4" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="8" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A112" s="15"/>
-      <c r="B112" s="5" t="s">
-        <v>124</v>
+      <c r="A112" s="12"/>
+      <c r="B112" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="15"/>
-      <c r="B113" s="5" t="s">
-        <v>128</v>
+      <c r="A113" s="12"/>
+      <c r="B113" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>129</v>
+        <v>343</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>130</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="15"/>
-      <c r="B114" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="A114" s="12"/>
+      <c r="B114" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C114" s="4"/>
       <c r="D114" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>313</v>
+        <v>256</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="15"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>133</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="8" t="s">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>135</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="15"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="4" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="C116" s="4"/>
       <c r="D116" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A117" s="12"/>
+      <c r="B117" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A118" s="12"/>
+      <c r="B118" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A119" s="12"/>
+      <c r="B119" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A120" s="12"/>
+      <c r="B120" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A121" s="12"/>
+      <c r="B121" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A117" s="15"/>
-      <c r="B117" s="4" t="s">
+    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A122" s="12"/>
+      <c r="B122" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C117" s="4"/>
-      <c r="D117" s="8" t="s">
+      <c r="C122" s="4"/>
+      <c r="D122" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="15"/>
-      <c r="B118" s="5" t="s">
+    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A123" s="12"/>
+      <c r="B123" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D123" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A119" s="15"/>
-      <c r="B119" s="5" t="s">
+    <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A124" s="12"/>
+      <c r="B124" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C119" s="4"/>
-      <c r="D119" s="8" t="s">
+      <c r="C124" s="4"/>
+      <c r="D124" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="15"/>
-      <c r="B120" s="5" t="s">
+    <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A125" s="12"/>
+      <c r="B125" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="D120" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E125" s="4" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="15"/>
-      <c r="B121" s="5" t="s">
+    <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A126" s="12"/>
+      <c r="B126" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D126" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E126" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="15"/>
-      <c r="B122" s="5" t="s">
+    <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A127" s="12"/>
+      <c r="B127" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D127" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E127" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="15"/>
-      <c r="B123" s="5" t="s">
+    <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A128" s="12"/>
+      <c r="B128" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D128" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="15"/>
-      <c r="B124" s="5" t="s">
+    <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A129" s="12"/>
+      <c r="B129" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D129" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="15"/>
-      <c r="B125" s="4" t="s">
+    <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A130" s="12"/>
+      <c r="B130" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D130" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E130" s="4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="15"/>
-      <c r="B126" s="4" t="s">
+    <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A131" s="12"/>
+      <c r="B131" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A127" s="15"/>
-      <c r="B127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A128" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A129" s="16"/>
-      <c r="B129" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A130" s="16"/>
-      <c r="B130" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A131" s="16"/>
-      <c r="B131" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A132" s="16"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="4" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>401</v>
+        <v>13</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A133" s="16"/>
+      <c r="A133" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="B133" s="4" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C133" s="4"/>
       <c r="D133" s="8" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A134" s="16"/>
+      <c r="A134" s="13"/>
       <c r="B134" s="4" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C134" s="4"/>
       <c r="D134" s="8" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A135" s="16"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="4" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>399</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A136" s="16"/>
+      <c r="A136" s="13"/>
       <c r="B136" s="4" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>398</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A137" s="16"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="4" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>173</v>
+        <v>83</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A138" s="16"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="4" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="8" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A139" s="16"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="4" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>190</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A140" s="16"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="4" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>193</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A141" s="16"/>
+      <c r="A141" s="13"/>
       <c r="B141" s="4" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="8" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>222</v>
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A142" s="16"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="4" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="8" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>397</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A143" s="16"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="4" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="8" t="s">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A144" s="16"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="4" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="8" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A145" s="16"/>
+      <c r="A145" s="13"/>
       <c r="B145" s="4" t="s">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="8" t="s">
-        <v>283</v>
+        <v>192</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>380</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A146" s="16"/>
+      <c r="A146" s="13"/>
       <c r="B146" s="4" t="s">
-        <v>506</v>
+        <v>221</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="8" t="s">
-        <v>507</v>
+        <v>223</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>508</v>
+        <v>222</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A147" s="16"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>301</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C147" s="4"/>
       <c r="D147" s="8" t="s">
-        <v>302</v>
+        <v>225</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A148" s="17" t="s">
-        <v>326</v>
-      </c>
+      <c r="A148" s="13"/>
       <c r="B148" s="4" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="C148" s="4"/>
       <c r="D148" s="8" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A149" s="17"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="4" t="s">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A150" s="13"/>
+      <c r="B150" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C150" s="4"/>
+      <c r="D150" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A151" s="13"/>
+      <c r="B151" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A152" s="13"/>
+      <c r="B152" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A153" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A154" s="14"/>
+      <c r="B154" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A106:A127"/>
-    <mergeCell ref="A128:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A88"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="A111:A132"/>
+    <mergeCell ref="A133:A152"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="A56:A92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="A106:A110"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D127" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
-    <hyperlink ref="D10" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D86" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D101" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
-    <hyperlink ref="D51" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D128" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
-    <hyperlink ref="D31" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D129" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D95" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D12" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
-    <hyperlink ref="D15" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D130" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D105" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D131" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D132" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E132" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D133" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D134" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D88" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
-    <hyperlink ref="D17" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D85" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D106" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
-    <hyperlink ref="D40" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D103" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
-    <hyperlink ref="D27" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
-    <hyperlink ref="D19" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D84" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D111" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D112" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D113" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D126" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D115" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D125" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
-    <hyperlink ref="D37" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
-    <hyperlink ref="D28" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D135" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D136" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D97" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D118" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D100" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
-    <hyperlink ref="D32" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D87" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
-    <hyperlink ref="D29" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D137" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
-    <hyperlink ref="D21" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
-    <hyperlink ref="D34" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
-    <hyperlink ref="D36" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D138" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D139" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D140" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D123" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
-    <hyperlink ref="D52" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
-    <hyperlink ref="D64" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D117" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
-    <hyperlink ref="D41" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
-    <hyperlink ref="D33" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
-    <hyperlink ref="D65" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
-    <hyperlink ref="D68" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D119" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D141" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D142" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
-    <hyperlink ref="D44" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D116" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D66" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
-    <hyperlink ref="D35" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D121" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
-    <hyperlink ref="D38" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
-    <hyperlink ref="D50" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
-    <hyperlink ref="D46" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D109" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
-    <hyperlink ref="D49" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
-    <hyperlink ref="E49" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D143" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D144" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
-    <hyperlink ref="D26" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
-    <hyperlink ref="D25" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
-    <hyperlink ref="D20" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D67" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
-    <hyperlink ref="D39" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D145" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D122" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
-    <hyperlink ref="D30" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D98" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D120" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D147" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D107" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
-    <hyperlink ref="D23" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D114" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D93" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D94" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D99" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D148" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
-    <hyperlink ref="D9" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D124" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
-    <hyperlink ref="D45" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D108" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D104" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
-    <hyperlink ref="D43" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
-    <hyperlink ref="D42" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
-    <hyperlink ref="D48" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
-    <hyperlink ref="D7" r:id="rId107" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
-    <hyperlink ref="D8" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
-    <hyperlink ref="D18" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
-    <hyperlink ref="D16" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D149" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D110" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D102" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D58" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
+    <hyperlink ref="D132" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
+    <hyperlink ref="D90" r:id="rId5" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D106" r:id="rId6" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D55" r:id="rId7" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
+    <hyperlink ref="D133" r:id="rId8" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
+    <hyperlink ref="D17" r:id="rId10" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
+    <hyperlink ref="D35" r:id="rId11" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
+    <hyperlink ref="D134" r:id="rId12" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
+    <hyperlink ref="D99" r:id="rId14" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
+    <hyperlink ref="D135" r:id="rId17" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D110" r:id="rId18" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D136" r:id="rId19" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D26" r:id="rId20" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
+    <hyperlink ref="D137" r:id="rId21" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E137" r:id="rId22" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D138" r:id="rId23" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D139" r:id="rId24" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D92" r:id="rId25" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D21" r:id="rId26" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
+    <hyperlink ref="D89" r:id="rId27" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D111" r:id="rId28" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D44" r:id="rId29" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
+    <hyperlink ref="D108" r:id="rId30" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D31" r:id="rId31" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
+    <hyperlink ref="D23" r:id="rId32" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
+    <hyperlink ref="D88" r:id="rId33" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D116" r:id="rId34" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D117" r:id="rId35" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D118" r:id="rId36" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D131" r:id="rId37" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D120" r:id="rId38" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D130" r:id="rId39" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D41" r:id="rId40" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
+    <hyperlink ref="D32" r:id="rId41" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
+    <hyperlink ref="D140" r:id="rId42" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D141" r:id="rId43" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D102" r:id="rId44" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D123" r:id="rId45" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D105" r:id="rId46" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D36" r:id="rId47" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
+    <hyperlink ref="D91" r:id="rId48" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D33" r:id="rId49" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
+    <hyperlink ref="D142" r:id="rId50" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D25" r:id="rId51" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
+    <hyperlink ref="D38" r:id="rId52" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
+    <hyperlink ref="D40" r:id="rId53" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
+    <hyperlink ref="D143" r:id="rId54" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D144" r:id="rId55" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D145" r:id="rId56" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D128" r:id="rId57" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D56" r:id="rId58" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
+    <hyperlink ref="D68" r:id="rId59" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
+    <hyperlink ref="D122" r:id="rId60" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D45" r:id="rId61" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
+    <hyperlink ref="D37" r:id="rId62" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
+    <hyperlink ref="D69" r:id="rId63" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
+    <hyperlink ref="D72" r:id="rId64" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
+    <hyperlink ref="D124" r:id="rId65" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D146" r:id="rId66" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D147" r:id="rId67" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D48" r:id="rId68" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
+    <hyperlink ref="D121" r:id="rId69" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D70" r:id="rId70" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
+    <hyperlink ref="D39" r:id="rId71" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
+    <hyperlink ref="D126" r:id="rId72" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D42" r:id="rId73" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
+    <hyperlink ref="D54" r:id="rId74" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
+    <hyperlink ref="D50" r:id="rId75" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
+    <hyperlink ref="D114" r:id="rId76" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D53" r:id="rId77" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
+    <hyperlink ref="E53" r:id="rId78" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
+    <hyperlink ref="D148" r:id="rId79" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D149" r:id="rId80" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D30" r:id="rId81" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
+    <hyperlink ref="D29" r:id="rId82" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
+    <hyperlink ref="D24" r:id="rId83" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
+    <hyperlink ref="D71" r:id="rId84" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D43" r:id="rId85" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
+    <hyperlink ref="D150" r:id="rId86" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D127" r:id="rId87" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D34" r:id="rId88" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
+    <hyperlink ref="D103" r:id="rId89" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D125" r:id="rId90" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D152" r:id="rId91" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D112" r:id="rId92" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D27" r:id="rId93" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
+    <hyperlink ref="D119" r:id="rId94" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D97" r:id="rId95" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D98" r:id="rId96" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D104" r:id="rId97" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D153" r:id="rId98" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D13" r:id="rId99" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
+    <hyperlink ref="D129" r:id="rId100" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D49" r:id="rId101" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
+    <hyperlink ref="D113" r:id="rId102" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D109" r:id="rId103" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D47" r:id="rId104" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
+    <hyperlink ref="D46" r:id="rId105" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
+    <hyperlink ref="D52" r:id="rId106" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
+    <hyperlink ref="D11" r:id="rId107" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
+    <hyperlink ref="D12" r:id="rId108" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
+    <hyperlink ref="D22" r:id="rId109" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
+    <hyperlink ref="D20" r:id="rId110" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
+    <hyperlink ref="D154" r:id="rId111" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D115" r:id="rId112" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D107" r:id="rId113" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D62" r:id="rId114" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
     <hyperlink ref="D5" r:id="rId115" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
-    <hyperlink ref="D54" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
-    <hyperlink ref="D24" r:id="rId117" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
+    <hyperlink ref="D58" r:id="rId116" xr:uid="{AC22B4A8-7542-44A3-8A2C-67342DC0022F}"/>
+    <hyperlink ref="D28" r:id="rId117" xr:uid="{EC0EDB1A-6484-4140-A20B-02A0441BA5E7}"/>
     <hyperlink ref="D4" r:id="rId118" xr:uid="{8EDF0D24-9EE4-4F83-881A-3F1842E82DB7}"/>
-    <hyperlink ref="D62" r:id="rId119" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
-    <hyperlink ref="D63" r:id="rId120" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
-    <hyperlink ref="D61" r:id="rId121" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
-    <hyperlink ref="D59" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
-    <hyperlink ref="D60" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
-    <hyperlink ref="D56" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
-    <hyperlink ref="D74" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
-    <hyperlink ref="D78" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
-    <hyperlink ref="D80" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
-    <hyperlink ref="D83" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
-    <hyperlink ref="D79" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
-    <hyperlink ref="D55" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
-    <hyperlink ref="D77" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
-    <hyperlink ref="D76" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
-    <hyperlink ref="D75" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
-    <hyperlink ref="D81" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
-    <hyperlink ref="D96" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
-    <hyperlink ref="D70" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
-    <hyperlink ref="D71" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
-    <hyperlink ref="D73" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
-    <hyperlink ref="D72" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
-    <hyperlink ref="D89" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
-    <hyperlink ref="D90" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
-    <hyperlink ref="D92" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
-    <hyperlink ref="D57" r:id="rId143" xr:uid="{93BAD783-32E3-48FB-BE1A-C1F28D0BBCFA}"/>
+    <hyperlink ref="D66" r:id="rId119" xr:uid="{3D0F2CE1-2C21-4F3A-A34E-0B359C9543DA}"/>
+    <hyperlink ref="D67" r:id="rId120" xr:uid="{C156EA0C-2694-41FC-A3EF-086DB3332BBD}"/>
+    <hyperlink ref="D65" r:id="rId121" xr:uid="{12C36B37-D087-45DE-B427-060DA4D311A6}"/>
+    <hyperlink ref="D63" r:id="rId122" xr:uid="{B4B65F86-015B-4378-A955-CB3E38718B28}"/>
+    <hyperlink ref="D64" r:id="rId123" xr:uid="{34F3EE4E-E114-4D01-87F3-3A6DDBB5A805}"/>
+    <hyperlink ref="D60" r:id="rId124" xr:uid="{3D0A7FD5-BBFF-4195-BFD9-26E65C2822E6}"/>
+    <hyperlink ref="D78" r:id="rId125" xr:uid="{78D38BDA-2B3F-4713-8846-9118E8E281C4}"/>
+    <hyperlink ref="D82" r:id="rId126" xr:uid="{71563149-BB19-4958-A721-DC1011D5421A}"/>
+    <hyperlink ref="D84" r:id="rId127" xr:uid="{ACA3EF01-3139-476F-B15F-18B919BE64A0}"/>
+    <hyperlink ref="D87" r:id="rId128" xr:uid="{FB605F04-FA1D-416C-A404-ABEBFDD36F1A}"/>
+    <hyperlink ref="D83" r:id="rId129" xr:uid="{089D6D7C-626F-4269-9A2E-FDAC60C4BE91}"/>
+    <hyperlink ref="D59" r:id="rId130" xr:uid="{1F01C33B-4929-4A1C-A38E-E00759C6BD7E}"/>
+    <hyperlink ref="D81" r:id="rId131" xr:uid="{53A6E1C6-64F0-48FC-91DE-A1DC903DE69F}"/>
+    <hyperlink ref="D80" r:id="rId132" xr:uid="{47FEA5F2-11B2-4C07-8B57-0C3EF20DD738}"/>
+    <hyperlink ref="D79" r:id="rId133" xr:uid="{25601EA4-B932-4407-8C21-81D92891F55A}"/>
+    <hyperlink ref="D85" r:id="rId134" xr:uid="{0E510A4C-7271-4F26-94B3-BA0AA104CE62}"/>
+    <hyperlink ref="D101" r:id="rId135" xr:uid="{B8FEE378-D64C-423E-B44B-2987D4210DB5}"/>
+    <hyperlink ref="D74" r:id="rId136" xr:uid="{2F431C53-86BF-42CD-B394-050ADB33F836}"/>
+    <hyperlink ref="D75" r:id="rId137" xr:uid="{DCFC24B8-3D71-455D-BE72-81681D874E4C}"/>
+    <hyperlink ref="D77" r:id="rId138" xr:uid="{34ADAA3E-15C8-40E2-9BAB-4D34662ED8EA}"/>
+    <hyperlink ref="D76" r:id="rId139" xr:uid="{ED0FBAEA-B6C5-4600-8780-CADDE5C25F10}"/>
+    <hyperlink ref="D93" r:id="rId140" xr:uid="{EC8C3F6D-1AD7-4942-81C4-018A9145CB7F}"/>
+    <hyperlink ref="D94" r:id="rId141" xr:uid="{6154F07B-4280-493F-9BA1-C074AB083E06}"/>
+    <hyperlink ref="D96" r:id="rId142" xr:uid="{71F9ED4A-0FF6-4D75-83C9-FD3465236798}"/>
+    <hyperlink ref="D61" r:id="rId143" xr:uid="{93BAD783-32E3-48FB-BE1A-C1F28D0BBCFA}"/>
     <hyperlink ref="D3" r:id="rId144" xr:uid="{429A9577-FBB1-4B55-BF26-0CC06201894D}"/>
-    <hyperlink ref="D91" r:id="rId145" xr:uid="{052EB2AD-8399-4B3F-A267-481624D44A5E}"/>
-    <hyperlink ref="D146" r:id="rId146" xr:uid="{EB15E864-C808-40F2-83EA-00C99C02380D}"/>
-    <hyperlink ref="D53" r:id="rId147" xr:uid="{CEBBA46B-6DBF-446D-BDCA-C95D7B02EFF9}"/>
-    <hyperlink ref="D69" r:id="rId148" xr:uid="{5A9713E6-F000-4A7B-8818-94439BB08CAA}"/>
+    <hyperlink ref="D95" r:id="rId145" xr:uid="{052EB2AD-8399-4B3F-A267-481624D44A5E}"/>
+    <hyperlink ref="D151" r:id="rId146" xr:uid="{EB15E864-C808-40F2-83EA-00C99C02380D}"/>
+    <hyperlink ref="D57" r:id="rId147" xr:uid="{CEBBA46B-6DBF-446D-BDCA-C95D7B02EFF9}"/>
+    <hyperlink ref="D73" r:id="rId148" xr:uid="{5A9713E6-F000-4A7B-8818-94439BB08CAA}"/>
+    <hyperlink ref="D100" r:id="rId149" xr:uid="{6DADDC90-B19B-4B5B-AA8B-4EC9AFD2ED21}"/>
+    <hyperlink ref="D6" r:id="rId150" xr:uid="{1ADEE6E7-C6CD-49D0-AD51-CE7816BD581E}"/>
+    <hyperlink ref="D7" r:id="rId151" xr:uid="{FFEC326D-B34D-4A4E-BE70-638D72705206}"/>
+    <hyperlink ref="D8" r:id="rId152" xr:uid="{3999913B-FEB7-45F0-B412-6563DA86A75B}"/>
+    <hyperlink ref="D9" r:id="rId153" xr:uid="{FBAE55F7-FB73-4150-B56F-C4BC5AC88F00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId149"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId154"/>
 </worksheet>
 </file>